--- a/Experimentos2/PSO.xlsx
+++ b/Experimentos2/PSO.xlsx
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.528</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.497</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.512</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.538</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.667</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6879999999999999</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.701</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.349</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.237</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.43</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.945</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -708,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.109</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -732,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -740,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.113</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -748,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -756,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6909999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -788,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -838,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.398</v>
+        <v>0.986</v>
       </c>
       <c r="C2">
-        <v>0.596</v>
+        <v>0.536</v>
       </c>
       <c r="D2">
-        <v>0.5620000000000001</v>
+        <v>0.835</v>
       </c>
       <c r="E2">
-        <v>0.992</v>
+        <v>0.364</v>
       </c>
       <c r="F2">
-        <v>0.328</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.727</v>
+        <v>0.707</v>
       </c>
       <c r="C3">
-        <v>0.661</v>
+        <v>0.377</v>
       </c>
       <c r="D3">
-        <v>0.399</v>
+        <v>0.616</v>
       </c>
       <c r="E3">
-        <v>0.177</v>
+        <v>0.352</v>
       </c>
       <c r="F3">
-        <v>0.842</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.768</v>
+        <v>0.649</v>
       </c>
       <c r="C4">
-        <v>0.664</v>
+        <v>0.418</v>
       </c>
       <c r="D4">
-        <v>0.996</v>
+        <v>0.512</v>
       </c>
       <c r="E4">
-        <v>0.6879999999999999</v>
+        <v>0.539</v>
       </c>
       <c r="F4">
-        <v>0.058</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.538</v>
+        <v>0.828</v>
       </c>
       <c r="C5">
-        <v>0.495</v>
+        <v>0.023</v>
       </c>
       <c r="D5">
-        <v>0.227</v>
+        <v>0.709</v>
       </c>
       <c r="E5">
-        <v>0.097</v>
+        <v>0.113</v>
       </c>
       <c r="F5">
-        <v>0.408</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.282</v>
+        <v>0.525</v>
       </c>
       <c r="C6">
-        <v>0.917</v>
+        <v>0.741</v>
       </c>
       <c r="D6">
-        <v>0.382</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E6">
-        <v>0.314</v>
+        <v>0.588</v>
       </c>
       <c r="F6">
-        <v>0.831</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8139999999999999</v>
+        <v>0.431</v>
       </c>
       <c r="C7">
-        <v>0.023</v>
+        <v>0.755</v>
       </c>
       <c r="D7">
-        <v>0.468</v>
+        <v>0.355</v>
       </c>
       <c r="E7">
-        <v>0.772</v>
+        <v>0.944</v>
       </c>
       <c r="F7">
-        <v>0.649</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.82</v>
+        <v>0.013</v>
       </c>
       <c r="C8">
-        <v>0.607</v>
+        <v>0.118</v>
       </c>
       <c r="D8">
-        <v>0.549</v>
+        <v>0.521</v>
       </c>
       <c r="E8">
-        <v>0.595</v>
+        <v>0.375</v>
       </c>
       <c r="F8">
-        <v>0.076</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.889</v>
+        <v>0.331</v>
       </c>
       <c r="C9">
-        <v>0.949</v>
+        <v>0.468</v>
       </c>
       <c r="D9">
-        <v>0.907</v>
+        <v>0.857</v>
       </c>
       <c r="E9">
-        <v>0.323</v>
+        <v>0.227</v>
       </c>
       <c r="F9">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.64</v>
+        <v>0.622</v>
       </c>
       <c r="C10">
-        <v>0.187</v>
+        <v>0.797</v>
       </c>
       <c r="D10">
-        <v>0.361</v>
+        <v>0.992</v>
       </c>
       <c r="E10">
-        <v>0.55</v>
+        <v>0.483</v>
       </c>
       <c r="F10">
-        <v>0.49</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.285</v>
+        <v>0.697</v>
       </c>
       <c r="C11">
-        <v>0.427</v>
+        <v>0.385</v>
       </c>
       <c r="D11">
-        <v>0.385</v>
+        <v>0.576</v>
       </c>
       <c r="E11">
-        <v>0.6830000000000001</v>
+        <v>0.243</v>
       </c>
       <c r="F11">
-        <v>0.173</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.509</v>
+        <v>0.495</v>
       </c>
       <c r="C12">
-        <v>0.463</v>
+        <v>0.264</v>
       </c>
       <c r="D12">
-        <v>0.279</v>
+        <v>0.431</v>
       </c>
       <c r="E12">
-        <v>0.124</v>
+        <v>0.246</v>
       </c>
       <c r="F12">
-        <v>0.589</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.532</v>
+        <v>0.449</v>
       </c>
       <c r="C13">
-        <v>0.455</v>
+        <v>0.282</v>
       </c>
       <c r="D13">
-        <v>0.697</v>
+        <v>0.358</v>
       </c>
       <c r="E13">
-        <v>0.491</v>
+        <v>0.387</v>
       </c>
       <c r="F13">
-        <v>0.056</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.365</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C14">
-        <v>0.326</v>
+        <v>-0.004</v>
       </c>
       <c r="D14">
-        <v>0.165</v>
+        <v>0.503</v>
       </c>
       <c r="E14">
-        <v>0.112</v>
+        <v>0.123</v>
       </c>
       <c r="F14">
-        <v>0.307</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="C15">
-        <v>0.613</v>
+        <v>0.49</v>
       </c>
       <c r="D15">
-        <v>0.259</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E15">
-        <v>0.212</v>
+        <v>0.404</v>
       </c>
       <c r="F15">
-        <v>0.605</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.547</v>
+        <v>0.279</v>
       </c>
       <c r="C16">
-        <v>-0.023</v>
+        <v>0.49</v>
       </c>
       <c r="D16">
-        <v>0.328</v>
+        <v>0.248</v>
       </c>
       <c r="E16">
+        <v>0.705</v>
+      </c>
+      <c r="F16">
         <v>0.585</v>
-      </c>
-      <c r="F16">
-        <v>0.478</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.545</v>
+        <v>-0.02</v>
       </c>
       <c r="C17">
-        <v>0.378</v>
+        <v>0.036</v>
       </c>
       <c r="D17">
-        <v>0.384</v>
+        <v>0.365</v>
       </c>
       <c r="E17">
-        <v>0.482</v>
+        <v>0.328</v>
       </c>
       <c r="F17">
-        <v>0.077</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.588</v>
+        <v>0.197</v>
       </c>
       <c r="C18">
-        <v>0.609</v>
+        <v>0.272</v>
       </c>
       <c r="D18">
-        <v>0.635</v>
+        <v>0.6</v>
       </c>
       <c r="E18">
-        <v>0.314</v>
+        <v>0.247</v>
       </c>
       <c r="F18">
-        <v>0.235</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.408</v>
+        <v>0.396</v>
       </c>
       <c r="C19">
-        <v>0.067</v>
+        <v>0.494</v>
       </c>
       <c r="D19">
-        <v>0.253</v>
+        <v>0.694</v>
       </c>
       <c r="E19">
-        <v>0.443</v>
+        <v>0.396</v>
       </c>
       <c r="F19">
-        <v>0.368</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.312</v>
+        <v>-0.324</v>
       </c>
       <c r="C20">
-        <v>-0.219</v>
+        <v>-0.593</v>
       </c>
       <c r="D20">
-        <v>0.409</v>
+        <v>-0.155</v>
       </c>
       <c r="E20">
-        <v>-1.167</v>
+        <v>-0.128</v>
       </c>
       <c r="F20">
-        <v>-0.151</v>
+        <v>-0.231</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.097</v>
+        <v>0.032</v>
       </c>
       <c r="C21">
-        <v>-0.359</v>
+        <v>-0.169</v>
       </c>
       <c r="D21">
-        <v>0.666</v>
+        <v>0.194</v>
       </c>
       <c r="E21">
-        <v>0.211</v>
+        <v>-0.124</v>
       </c>
       <c r="F21">
-        <v>-0.505</v>
+        <v>-0.255</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.143</v>
+        <v>0.109</v>
       </c>
       <c r="C22">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="D22">
-        <v>-0.317</v>
+        <v>0.366</v>
       </c>
       <c r="E22">
-        <v>-0.676</v>
+        <v>-0.459</v>
       </c>
       <c r="F22">
-        <v>0.037</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.15</v>
+        <v>-0.111</v>
       </c>
       <c r="C23">
-        <v>0.112</v>
+        <v>0.771</v>
       </c>
       <c r="D23">
-        <v>0.9409999999999999</v>
+        <v>0.031</v>
       </c>
       <c r="E23">
-        <v>0.285</v>
+        <v>0.221</v>
       </c>
       <c r="F23">
-        <v>-0.205</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.476</v>
+        <v>0.275</v>
       </c>
       <c r="C24">
-        <v>-0.925</v>
+        <v>-1.008</v>
       </c>
       <c r="D24">
-        <v>0.705</v>
+        <v>-0.117</v>
       </c>
       <c r="E24">
-        <v>-0.012</v>
+        <v>-0.517</v>
       </c>
       <c r="F24">
-        <v>-0.497</v>
+        <v>-0.146</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.187</v>
+        <v>0.397</v>
       </c>
       <c r="C25">
-        <v>1.345</v>
+        <v>-1.018</v>
       </c>
       <c r="D25">
-        <v>0.551</v>
+        <v>0.625</v>
       </c>
       <c r="E25">
-        <v>-0.872</v>
+        <v>-1.202</v>
       </c>
       <c r="F25">
-        <v>-0.372</v>
+        <v>-0.321</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.191</v>
+        <v>0.927</v>
       </c>
       <c r="C26">
-        <v>-0.101</v>
+        <v>0.601</v>
       </c>
       <c r="D26">
-        <v>0.419</v>
+        <v>0.35</v>
       </c>
       <c r="E26">
-        <v>-0.599</v>
+        <v>-0.259</v>
       </c>
       <c r="F26">
-        <v>0.024</v>
+        <v>-0.162</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.273</v>
+        <v>0.532</v>
       </c>
       <c r="C27">
-        <v>-0.9370000000000001</v>
+        <v>-0.253</v>
       </c>
       <c r="D27">
-        <v>-0.171</v>
+        <v>-0.203</v>
       </c>
       <c r="E27">
-        <v>-0.165</v>
+        <v>-0.038</v>
       </c>
       <c r="F27">
-        <v>-0.132</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.045</v>
+        <v>0.17</v>
       </c>
       <c r="C28">
-        <v>0.998</v>
+        <v>-1.057</v>
       </c>
       <c r="D28">
-        <v>0.727</v>
+        <v>-0.424</v>
       </c>
       <c r="E28">
-        <v>-0.511</v>
+        <v>-0.433</v>
       </c>
       <c r="F28">
-        <v>-0.262</v>
+        <v>-0.221</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.067</v>
+        <v>0.519</v>
       </c>
       <c r="C29">
-        <v>0.962</v>
+        <v>0.633</v>
       </c>
       <c r="D29">
-        <v>0.455</v>
+        <v>0.495</v>
       </c>
       <c r="E29">
-        <v>-0.8169999999999999</v>
+        <v>-0.255</v>
       </c>
       <c r="F29">
-        <v>-0.15</v>
+        <v>-0.208</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.114</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="C30">
-        <v>1.066</v>
+        <v>1.038</v>
       </c>
       <c r="D30">
-        <v>0.768</v>
+        <v>0.323</v>
       </c>
       <c r="E30">
-        <v>-0.267</v>
+        <v>-0.254</v>
       </c>
       <c r="F30">
-        <v>-0.368</v>
+        <v>-0.193</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.121</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C31">
-        <v>1.047</v>
+        <v>1.092</v>
       </c>
       <c r="D31">
-        <v>0.8169999999999999</v>
+        <v>0.237</v>
       </c>
       <c r="E31">
-        <v>-0.473</v>
+        <v>-0.106</v>
       </c>
       <c r="F31">
-        <v>0.023</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.09</v>
+        <v>0.538</v>
       </c>
       <c r="C32">
-        <v>0.6919999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D32">
-        <v>0.961</v>
+        <v>0.405</v>
       </c>
       <c r="E32">
-        <v>-0.29</v>
+        <v>-0.394</v>
       </c>
       <c r="F32">
-        <v>-0.143</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.055</v>
+        <v>0.579</v>
       </c>
       <c r="C33">
-        <v>0.58</v>
+        <v>0.342</v>
       </c>
       <c r="D33">
-        <v>0.795</v>
+        <v>0.476</v>
       </c>
       <c r="E33">
-        <v>-0.172</v>
+        <v>-0.523</v>
       </c>
       <c r="F33">
-        <v>-0.349</v>
+        <v>-0.103</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.131</v>
+        <v>0.592</v>
       </c>
       <c r="C34">
-        <v>0.9409999999999999</v>
+        <v>0.335</v>
       </c>
       <c r="D34">
-        <v>0.386</v>
+        <v>0.108</v>
       </c>
       <c r="E34">
-        <v>-0.61</v>
+        <v>-1.003</v>
       </c>
       <c r="F34">
-        <v>-0.26</v>
+        <v>-0.226</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.132</v>
+        <v>0.649</v>
       </c>
       <c r="C35">
-        <v>0.846</v>
+        <v>0.421</v>
       </c>
       <c r="D35">
-        <v>0.452</v>
+        <v>0.245</v>
       </c>
       <c r="E35">
-        <v>-0.419</v>
+        <v>-0.181</v>
       </c>
       <c r="F35">
-        <v>0.019</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.143</v>
+        <v>0.604</v>
       </c>
       <c r="C36">
-        <v>0.572</v>
+        <v>1.079</v>
       </c>
       <c r="D36">
-        <v>0.745</v>
+        <v>0.52</v>
       </c>
       <c r="E36">
-        <v>-0.08500000000000001</v>
+        <v>-0.272</v>
       </c>
       <c r="F36">
-        <v>-0.091</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.109</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="C37">
-        <v>0.699</v>
+        <v>0.308</v>
       </c>
       <c r="D37">
-        <v>0.8110000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="E37">
-        <v>-0.358</v>
+        <v>-0.107</v>
       </c>
       <c r="F37">
-        <v>-0.182</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.07099999999999999</v>
+        <v>0.177</v>
       </c>
       <c r="C38">
-        <v>0.632</v>
+        <v>0.376</v>
       </c>
       <c r="D38">
-        <v>0.319</v>
+        <v>0.34</v>
       </c>
       <c r="E38">
-        <v>-0.739</v>
+        <v>-0.178</v>
       </c>
       <c r="F38">
-        <v>-0.046</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="C39">
-        <v>0.705</v>
+        <v>0.727</v>
       </c>
       <c r="D39">
-        <v>0.538</v>
+        <v>0.607</v>
       </c>
       <c r="E39">
-        <v>-0.256</v>
+        <v>-0.178</v>
       </c>
       <c r="F39">
-        <v>-0.258</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.37</v>
+        <v>0.395</v>
       </c>
       <c r="C40">
-        <v>0.6919999999999999</v>
+        <v>0.764</v>
       </c>
       <c r="D40">
-        <v>0.572</v>
+        <v>0.547</v>
       </c>
       <c r="E40">
-        <v>-0.498</v>
+        <v>-0.074</v>
       </c>
       <c r="F40">
-        <v>0.043</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.176</v>
+        <v>0.377</v>
       </c>
       <c r="C41">
-        <v>0.443</v>
+        <v>0.21</v>
       </c>
       <c r="D41">
-        <v>0.673</v>
+        <v>0.665</v>
       </c>
       <c r="E41">
-        <v>-0.303</v>
+        <v>0.093</v>
       </c>
       <c r="F41">
-        <v>-0.1</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.038</v>
+        <v>0.405</v>
       </c>
       <c r="C42">
-        <v>0.406</v>
+        <v>0.767</v>
       </c>
       <c r="D42">
-        <v>0.556</v>
+        <v>0.321</v>
       </c>
       <c r="E42">
-        <v>-0.12</v>
+        <v>-0.366</v>
       </c>
       <c r="F42">
-        <v>-0.244</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.398</v>
+        <v>0.414</v>
       </c>
       <c r="C43">
-        <v>0.618</v>
+        <v>0.777</v>
       </c>
       <c r="D43">
-        <v>0.27</v>
+        <v>0.457</v>
       </c>
       <c r="E43">
-        <v>-0.594</v>
+        <v>-0.702</v>
       </c>
       <c r="F43">
-        <v>-0.182</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4</v>
+        <v>0.454</v>
       </c>
       <c r="C44">
-        <v>0.551</v>
+        <v>0.295</v>
       </c>
       <c r="D44">
-        <v>0.316</v>
+        <v>0.553</v>
       </c>
       <c r="E44">
-        <v>-0.46</v>
+        <v>-0.127</v>
       </c>
       <c r="F44">
-        <v>0.047</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.453</v>
+        <v>0.423</v>
       </c>
       <c r="C45">
-        <v>0.417</v>
+        <v>0.755</v>
       </c>
       <c r="D45">
-        <v>0.521</v>
+        <v>0.364</v>
       </c>
       <c r="E45">
-        <v>-0.033</v>
+        <v>-0.19</v>
       </c>
       <c r="F45">
-        <v>0.016</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.243</v>
+        <v>0.393</v>
       </c>
       <c r="C46">
-        <v>0.448</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D46">
-        <v>0.5679999999999999</v>
+        <v>0.476</v>
       </c>
       <c r="E46">
-        <v>-0.418</v>
+        <v>-0.075</v>
       </c>
       <c r="F46">
-        <v>-0.127</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2332,19 +2332,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.333</v>
+        <v>0.745</v>
       </c>
       <c r="C11">
-        <v>0.474</v>
+        <v>0.432</v>
       </c>
       <c r="D11">
-        <v>0.455</v>
+        <v>0.646</v>
       </c>
       <c r="E11">
-        <v>0.77</v>
+        <v>0.33</v>
       </c>
       <c r="F11">
-        <v>0.363</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2352,19 +2352,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5620000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="C12">
-        <v>0.515</v>
+        <v>0.316</v>
       </c>
       <c r="D12">
-        <v>0.345</v>
+        <v>0.497</v>
       </c>
       <c r="E12">
-        <v>0.205</v>
+        <v>0.327</v>
       </c>
       <c r="F12">
-        <v>0.647</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2372,19 +2372,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.589</v>
+        <v>0.506</v>
       </c>
       <c r="C13">
-        <v>0.512</v>
+        <v>0.339</v>
       </c>
       <c r="D13">
-        <v>0.763</v>
+        <v>0.424</v>
       </c>
       <c r="E13">
-        <v>0.5669999999999999</v>
+        <v>0.463</v>
       </c>
       <c r="F13">
-        <v>0.078</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2392,19 +2392,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.427</v>
+        <v>0.63</v>
       </c>
       <c r="C14">
-        <v>0.388</v>
+        <v>0.058</v>
       </c>
       <c r="D14">
-        <v>0.228</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E14">
-        <v>0.17</v>
+        <v>0.181</v>
       </c>
       <c r="F14">
-        <v>0.314</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2412,19 +2412,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.246</v>
+        <v>0.416</v>
       </c>
       <c r="C15">
-        <v>0.679</v>
+        <v>0.556</v>
       </c>
       <c r="D15">
-        <v>0.329</v>
+        <v>0.63</v>
       </c>
       <c r="E15">
-        <v>0.297</v>
+        <v>0.489</v>
       </c>
       <c r="F15">
-        <v>0.609</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2432,19 +2432,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.617</v>
+        <v>0.349</v>
       </c>
       <c r="C16">
-        <v>0.048</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D16">
-        <v>0.394</v>
+        <v>0.314</v>
       </c>
       <c r="E16">
-        <v>0.643</v>
+        <v>0.763</v>
       </c>
       <c r="F16">
-        <v>0.481</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2452,19 +2452,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.62</v>
+        <v>0.055</v>
       </c>
       <c r="C17">
-        <v>0.453</v>
+        <v>0.111</v>
       </c>
       <c r="D17">
-        <v>0.45</v>
+        <v>0.431</v>
       </c>
       <c r="E17">
-        <v>0.529</v>
+        <v>0.375</v>
       </c>
       <c r="F17">
-        <v>0.079</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2472,19 +2472,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.667</v>
+        <v>0.276</v>
       </c>
       <c r="C18">
-        <v>0.6879999999999999</v>
+        <v>0.351</v>
       </c>
       <c r="D18">
-        <v>0.701</v>
+        <v>0.666</v>
       </c>
       <c r="E18">
-        <v>0.349</v>
+        <v>0.282</v>
       </c>
       <c r="F18">
-        <v>0.237</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2492,19 +2492,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.491</v>
+        <v>0.479</v>
       </c>
       <c r="C19">
-        <v>0.15</v>
+        <v>0.577</v>
       </c>
       <c r="D19">
-        <v>0.319</v>
+        <v>0.76</v>
       </c>
       <c r="E19">
-        <v>0.494</v>
+        <v>0.447</v>
       </c>
       <c r="F19">
-        <v>0.368</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2512,19 +2512,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.645</v>
+        <v>0.421</v>
       </c>
       <c r="C20">
-        <v>0.255</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.864</v>
+        <v>0.491</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>0.202</v>
       </c>
       <c r="F20">
-        <v>0.212</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2532,19 +2532,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.465</v>
+        <v>0.58</v>
       </c>
       <c r="C21">
-        <v>0.156</v>
+        <v>0.147</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E21">
-        <v>0.416</v>
+        <v>0.203</v>
       </c>
       <c r="F21">
-        <v>0.142</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2552,19 +2552,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.446</v>
+        <v>0.615</v>
       </c>
       <c r="C22">
-        <v>0.172</v>
+        <v>0.095</v>
       </c>
       <c r="D22">
-        <v>0.446</v>
+        <v>0.79</v>
       </c>
       <c r="E22">
-        <v>0.2</v>
+        <v>0.004</v>
       </c>
       <c r="F22">
-        <v>0.115</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2572,19 +2572,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.577</v>
+        <v>0.519</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.829</v>
       </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>0.597</v>
       </c>
       <c r="E23">
-        <v>0.455</v>
+        <v>0.402</v>
       </c>
       <c r="F23">
-        <v>0.109</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2592,19 +2592,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.722</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C24">
         <v>0.2</v>
       </c>
       <c r="D24">
-        <v>0.8</v>
+        <v>0.513</v>
       </c>
       <c r="E24">
-        <v>0.285</v>
+        <v>0.2</v>
       </c>
       <c r="F24">
-        <v>0.112</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2612,19 +2612,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.43</v>
+        <v>0.746</v>
       </c>
       <c r="C25">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D25">
-        <v>0.945</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E25">
         <v>0.2</v>
       </c>
       <c r="F25">
-        <v>0.109</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2632,19 +2632,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.429</v>
+        <v>0.982</v>
       </c>
       <c r="C26">
-        <v>0.352</v>
+        <v>0.712</v>
       </c>
       <c r="D26">
-        <v>0.869</v>
+        <v>0.781</v>
       </c>
       <c r="E26">
-        <v>0.2</v>
+        <v>0.116</v>
       </c>
       <c r="F26">
-        <v>0.103</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2652,19 +2652,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.394</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.098</v>
       </c>
       <c r="D27">
-        <v>0.53</v>
+        <v>0.463</v>
       </c>
       <c r="E27">
-        <v>0.184</v>
+        <v>0.244</v>
       </c>
       <c r="F27">
-        <v>0.105</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2672,19 +2672,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.536</v>
+        <v>0.649</v>
       </c>
       <c r="C28">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D28">
-        <v>0.8</v>
+        <v>0.336</v>
       </c>
       <c r="E28">
-        <v>0.2</v>
+        <v>0.014</v>
       </c>
       <c r="F28">
-        <v>0.106</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2692,19 +2692,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.578</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.986</v>
       </c>
       <c r="E29">
         <v>0.2</v>
       </c>
       <c r="F29">
-        <v>0.062</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2712,7 +2712,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.351</v>
+        <v>0.8</v>
       </c>
       <c r="C30">
         <v>0.8</v>
@@ -2721,10 +2721,10 @@
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.149</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
-        <v>0.2</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2732,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.325</v>
+        <v>0.8</v>
       </c>
       <c r="C31">
         <v>0.8</v>
@@ -2744,7 +2744,7 @@
         <v>0.2</v>
       </c>
       <c r="F31">
-        <v>0.138</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2752,7 +2752,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.487</v>
+        <v>0.8</v>
       </c>
       <c r="C32">
         <v>0.8</v>
@@ -2761,10 +2761,10 @@
         <v>0.8</v>
       </c>
       <c r="E32">
-        <v>0.165</v>
+        <v>0.008</v>
       </c>
       <c r="F32">
-        <v>0.2</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2772,19 +2772,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="C33">
-        <v>0.78</v>
+        <v>0.542</v>
       </c>
       <c r="D33">
-        <v>0.8</v>
+        <v>0.989</v>
       </c>
       <c r="E33">
-        <v>0.113</v>
+        <v>0.2</v>
       </c>
       <c r="F33">
-        <v>0.2</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2792,10 +2792,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.299</v>
+        <v>0.8</v>
       </c>
       <c r="C34">
-        <v>0.8</v>
+        <v>0.535</v>
       </c>
       <c r="D34">
         <v>0.8</v>
@@ -2804,7 +2804,7 @@
         <v>0.2</v>
       </c>
       <c r="F34">
-        <v>0.2</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2812,7 +2812,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.297</v>
+        <v>0.8</v>
       </c>
       <c r="C35">
         <v>0.8</v>
@@ -2824,7 +2824,7 @@
         <v>0.2</v>
       </c>
       <c r="F35">
-        <v>0.122</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2832,19 +2832,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.251</v>
+        <v>0.8</v>
       </c>
       <c r="C36">
-        <v>0.772</v>
+        <v>0.8</v>
       </c>
       <c r="D36">
-        <v>0.8</v>
+        <v>0.983</v>
       </c>
       <c r="E36">
-        <v>0.099</v>
+        <v>0.2</v>
       </c>
       <c r="F36">
-        <v>0.014</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2852,19 +2852,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.427</v>
+        <v>0.8</v>
       </c>
       <c r="C37">
-        <v>0.8</v>
+        <v>0.508</v>
       </c>
       <c r="D37">
-        <v>0.8</v>
+        <v>0.966</v>
       </c>
       <c r="E37">
         <v>0.2</v>
       </c>
       <c r="F37">
-        <v>0.2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2872,7 +2872,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.649</v>
+        <v>0.8</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -2881,10 +2881,10 @@
         <v>0.8</v>
       </c>
       <c r="E38">
-        <v>0.2</v>
+        <v>0.022</v>
       </c>
       <c r="F38">
-        <v>0.016</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2892,7 +2892,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6909999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -2901,10 +2901,10 @@
         <v>0.8</v>
       </c>
       <c r="E39">
-        <v>0.2</v>
+        <v>0.022</v>
       </c>
       <c r="F39">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2912,7 +2912,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.695</v>
+        <v>0.8</v>
       </c>
       <c r="C40">
         <v>0.8</v>
@@ -2921,10 +2921,10 @@
         <v>0.8</v>
       </c>
       <c r="E40">
-        <v>0.2</v>
+        <v>0.126</v>
       </c>
       <c r="F40">
-        <v>0.181</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2932,7 +2932,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.663</v>
+        <v>0.8</v>
       </c>
       <c r="C41">
         <v>0.8</v>
@@ -2941,10 +2941,10 @@
         <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.2</v>
+        <v>0.101</v>
       </c>
       <c r="F41">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2952,7 +2952,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.629</v>
+        <v>0.8</v>
       </c>
       <c r="C42">
         <v>0.8</v>
@@ -2964,7 +2964,7 @@
         <v>0.2</v>
       </c>
       <c r="F42">
-        <v>0.2</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2972,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.697</v>
+        <v>0.8</v>
       </c>
       <c r="C43">
         <v>0.8</v>
@@ -2984,7 +2984,7 @@
         <v>0.2</v>
       </c>
       <c r="F43">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2992,7 +2992,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.697</v>
+        <v>0.8</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -3001,10 +3001,10 @@
         <v>0.8</v>
       </c>
       <c r="E44">
-        <v>0.2</v>
+        <v>0.073</v>
       </c>
       <c r="F44">
-        <v>0.169</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3012,7 +3012,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.704</v>
+        <v>0.8</v>
       </c>
       <c r="C45">
         <v>0.8</v>
@@ -3021,10 +3021,10 @@
         <v>0.8</v>
       </c>
       <c r="E45">
-        <v>0.066</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>0.03</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3032,7 +3032,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -3041,10 +3041,10 @@
         <v>0.8</v>
       </c>
       <c r="E46">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="F46">
-        <v>0.073</v>
+        <v>0.099</v>
       </c>
     </row>
   </sheetData>
@@ -3442,19 +3442,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.645</v>
+        <v>0.421</v>
       </c>
       <c r="C20">
-        <v>0.255</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.864</v>
+        <v>0.491</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>0.202</v>
       </c>
       <c r="F20">
-        <v>0.212</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.465</v>
+        <v>0.58</v>
       </c>
       <c r="C21">
-        <v>0.156</v>
+        <v>0.147</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E21">
-        <v>0.416</v>
+        <v>0.203</v>
       </c>
       <c r="F21">
-        <v>0.142</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.446</v>
+        <v>0.615</v>
       </c>
       <c r="C22">
-        <v>0.172</v>
+        <v>0.095</v>
       </c>
       <c r="D22">
-        <v>0.446</v>
+        <v>0.79</v>
       </c>
       <c r="E22">
-        <v>0.2</v>
+        <v>0.004</v>
       </c>
       <c r="F22">
-        <v>0.115</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.577</v>
+        <v>0.519</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.829</v>
       </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>0.597</v>
       </c>
       <c r="E23">
-        <v>0.455</v>
+        <v>0.402</v>
       </c>
       <c r="F23">
-        <v>0.109</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.722</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C24">
         <v>0.2</v>
       </c>
       <c r="D24">
-        <v>0.8</v>
+        <v>0.513</v>
       </c>
       <c r="E24">
-        <v>0.285</v>
+        <v>0.2</v>
       </c>
       <c r="F24">
-        <v>0.112</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.43</v>
+        <v>0.746</v>
       </c>
       <c r="C25">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D25">
-        <v>0.945</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E25">
         <v>0.2</v>
       </c>
       <c r="F25">
-        <v>0.109</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.429</v>
+        <v>0.982</v>
       </c>
       <c r="C26">
-        <v>0.352</v>
+        <v>0.712</v>
       </c>
       <c r="D26">
-        <v>0.869</v>
+        <v>0.781</v>
       </c>
       <c r="E26">
-        <v>0.2</v>
+        <v>0.116</v>
       </c>
       <c r="F26">
-        <v>0.103</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.394</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.098</v>
       </c>
       <c r="D27">
-        <v>0.53</v>
+        <v>0.463</v>
       </c>
       <c r="E27">
-        <v>0.184</v>
+        <v>0.244</v>
       </c>
       <c r="F27">
-        <v>0.105</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.536</v>
+        <v>0.649</v>
       </c>
       <c r="C28">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D28">
-        <v>0.8</v>
+        <v>0.336</v>
       </c>
       <c r="E28">
-        <v>0.2</v>
+        <v>0.014</v>
       </c>
       <c r="F28">
-        <v>0.106</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.578</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.986</v>
       </c>
       <c r="E29">
         <v>0.2</v>
       </c>
       <c r="F29">
-        <v>0.062</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3642,7 +3642,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.351</v>
+        <v>0.8</v>
       </c>
       <c r="C30">
         <v>0.8</v>
@@ -3651,10 +3651,10 @@
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.149</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
-        <v>0.2</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3662,7 +3662,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.325</v>
+        <v>0.8</v>
       </c>
       <c r="C31">
         <v>0.8</v>
@@ -3674,7 +3674,7 @@
         <v>0.2</v>
       </c>
       <c r="F31">
-        <v>0.138</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3682,7 +3682,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.487</v>
+        <v>0.8</v>
       </c>
       <c r="C32">
         <v>0.8</v>
@@ -3691,10 +3691,10 @@
         <v>0.8</v>
       </c>
       <c r="E32">
-        <v>0.165</v>
+        <v>0.008</v>
       </c>
       <c r="F32">
-        <v>0.2</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="C33">
-        <v>0.78</v>
+        <v>0.542</v>
       </c>
       <c r="D33">
-        <v>0.8</v>
+        <v>0.989</v>
       </c>
       <c r="E33">
-        <v>0.113</v>
+        <v>0.2</v>
       </c>
       <c r="F33">
-        <v>0.2</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3722,10 +3722,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.299</v>
+        <v>0.8</v>
       </c>
       <c r="C34">
-        <v>0.8</v>
+        <v>0.535</v>
       </c>
       <c r="D34">
         <v>0.8</v>
@@ -3734,7 +3734,7 @@
         <v>0.2</v>
       </c>
       <c r="F34">
-        <v>0.2</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3742,7 +3742,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.297</v>
+        <v>0.8</v>
       </c>
       <c r="C35">
         <v>0.8</v>
@@ -3754,7 +3754,7 @@
         <v>0.2</v>
       </c>
       <c r="F35">
-        <v>0.122</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.251</v>
+        <v>0.8</v>
       </c>
       <c r="C36">
-        <v>0.772</v>
+        <v>0.8</v>
       </c>
       <c r="D36">
-        <v>0.8</v>
+        <v>0.983</v>
       </c>
       <c r="E36">
-        <v>0.099</v>
+        <v>0.2</v>
       </c>
       <c r="F36">
-        <v>0.014</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.427</v>
+        <v>0.8</v>
       </c>
       <c r="C37">
-        <v>0.8</v>
+        <v>0.508</v>
       </c>
       <c r="D37">
-        <v>0.8</v>
+        <v>0.966</v>
       </c>
       <c r="E37">
         <v>0.2</v>
       </c>
       <c r="F37">
-        <v>0.2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.649</v>
+        <v>0.8</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -3811,10 +3811,10 @@
         <v>0.8</v>
       </c>
       <c r="E38">
-        <v>0.2</v>
+        <v>0.022</v>
       </c>
       <c r="F38">
-        <v>0.016</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3822,7 +3822,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6909999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -3831,10 +3831,10 @@
         <v>0.8</v>
       </c>
       <c r="E39">
-        <v>0.2</v>
+        <v>0.022</v>
       </c>
       <c r="F39">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3842,7 +3842,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.695</v>
+        <v>0.8</v>
       </c>
       <c r="C40">
         <v>0.8</v>
@@ -3851,10 +3851,10 @@
         <v>0.8</v>
       </c>
       <c r="E40">
-        <v>0.2</v>
+        <v>0.126</v>
       </c>
       <c r="F40">
-        <v>0.181</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3862,7 +3862,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.663</v>
+        <v>0.8</v>
       </c>
       <c r="C41">
         <v>0.8</v>
@@ -3871,10 +3871,10 @@
         <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.2</v>
+        <v>0.101</v>
       </c>
       <c r="F41">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3882,7 +3882,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.629</v>
+        <v>0.8</v>
       </c>
       <c r="C42">
         <v>0.8</v>
@@ -3894,7 +3894,7 @@
         <v>0.2</v>
       </c>
       <c r="F42">
-        <v>0.2</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3902,7 +3902,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.697</v>
+        <v>0.8</v>
       </c>
       <c r="C43">
         <v>0.8</v>
@@ -3914,7 +3914,7 @@
         <v>0.2</v>
       </c>
       <c r="F43">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3922,7 +3922,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.697</v>
+        <v>0.8</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -3931,10 +3931,10 @@
         <v>0.8</v>
       </c>
       <c r="E44">
-        <v>0.2</v>
+        <v>0.073</v>
       </c>
       <c r="F44">
-        <v>0.169</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3942,7 +3942,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.704</v>
+        <v>0.8</v>
       </c>
       <c r="C45">
         <v>0.8</v>
@@ -3951,10 +3951,10 @@
         <v>0.8</v>
       </c>
       <c r="E45">
-        <v>0.066</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>0.03</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3962,7 +3962,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -3971,10 +3971,10 @@
         <v>0.8</v>
       </c>
       <c r="E46">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="F46">
-        <v>0.073</v>
+        <v>0.099</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4072,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.479</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.455</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.502</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.305</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.432</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.437</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.426</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.528</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.364</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.435</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.396</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.276</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.488</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.424</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.497</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.391</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.283</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.488</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.488</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.46</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.453</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4240,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.49</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.512</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.46</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.444</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.387</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.485</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.493</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.538</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.535</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.513</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.526</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.503</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.533</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.48</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.509</v>
+        <v>0.525</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/PSO.xlsx
+++ b/Experimentos2/PSO.xlsx
@@ -500,7 +500,7 @@
         <v>2.5</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.551</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.571</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -570,7 +570,47 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.856</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +620,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.745</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -644,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.432</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -652,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.646</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -660,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.33</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -668,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.603</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -676,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.982</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -684,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.712</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -692,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.781</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -700,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.116</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -708,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.264</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -716,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -732,7 +772,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.983</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -740,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -748,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.34</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -756,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -780,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.101</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -788,7 +828,207 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.885</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.997</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -822,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -830,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -838,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -846,7 +1086,47 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1222,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.986</v>
+        <v>0.132</v>
       </c>
       <c r="C2">
-        <v>0.536</v>
+        <v>0.842</v>
       </c>
       <c r="D2">
-        <v>0.835</v>
+        <v>0.271</v>
       </c>
       <c r="E2">
-        <v>0.364</v>
+        <v>0.908</v>
       </c>
       <c r="F2">
-        <v>0.671</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1242,19 +1522,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.707</v>
+        <v>0.098</v>
       </c>
       <c r="C3">
         <v>0.377</v>
       </c>
       <c r="D3">
-        <v>0.616</v>
+        <v>0.132</v>
       </c>
       <c r="E3">
-        <v>0.352</v>
+        <v>0.742</v>
       </c>
       <c r="F3">
-        <v>0.706</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1262,19 +1542,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.649</v>
+        <v>0.374</v>
       </c>
       <c r="C4">
-        <v>0.418</v>
+        <v>0.738</v>
       </c>
       <c r="D4">
-        <v>0.512</v>
+        <v>0.727</v>
       </c>
       <c r="E4">
-        <v>0.539</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F4">
-        <v>0.555</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1282,19 +1562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.828</v>
+        <v>0.626</v>
       </c>
       <c r="C5">
-        <v>0.023</v>
+        <v>0.645</v>
       </c>
       <c r="D5">
-        <v>0.709</v>
+        <v>0.437</v>
       </c>
       <c r="E5">
-        <v>0.113</v>
+        <v>0.129</v>
       </c>
       <c r="F5">
-        <v>0.006</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1302,19 +1582,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.525</v>
+        <v>0.729</v>
       </c>
       <c r="C6">
-        <v>0.741</v>
+        <v>0.403</v>
       </c>
       <c r="D6">
-        <v>0.8120000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="E6">
-        <v>0.588</v>
+        <v>0.998</v>
       </c>
       <c r="F6">
-        <v>0.549</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1322,19 +1602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.431</v>
+        <v>0.79</v>
       </c>
       <c r="C7">
-        <v>0.755</v>
+        <v>0.246</v>
       </c>
       <c r="D7">
-        <v>0.355</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E7">
-        <v>0.944</v>
+        <v>0.269</v>
       </c>
       <c r="F7">
-        <v>0.802</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1342,19 +1622,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.013</v>
+        <v>0.805</v>
       </c>
       <c r="C8">
-        <v>0.118</v>
+        <v>0.029</v>
       </c>
       <c r="D8">
-        <v>0.521</v>
+        <v>0.849</v>
       </c>
       <c r="E8">
-        <v>0.375</v>
+        <v>0.111</v>
       </c>
       <c r="F8">
-        <v>0.571</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1362,19 +1642,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.331</v>
+        <v>0.135</v>
       </c>
       <c r="C9">
-        <v>0.468</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D9">
-        <v>0.857</v>
+        <v>0.639</v>
       </c>
       <c r="E9">
-        <v>0.227</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>0.177</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1382,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.622</v>
+        <v>0.505</v>
       </c>
       <c r="C10">
-        <v>0.797</v>
+        <v>0.522</v>
       </c>
       <c r="D10">
-        <v>0.992</v>
+        <v>0.026</v>
       </c>
       <c r="E10">
-        <v>0.483</v>
+        <v>0.485</v>
       </c>
       <c r="F10">
-        <v>0.657</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1402,19 +1682,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.697</v>
+        <v>0.099</v>
       </c>
       <c r="C11">
-        <v>0.385</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
-        <v>0.576</v>
+        <v>0.181</v>
       </c>
       <c r="E11">
-        <v>0.243</v>
+        <v>0.624</v>
       </c>
       <c r="F11">
-        <v>0.413</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1422,19 +1702,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.495</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C12">
         <v>0.264</v>
       </c>
       <c r="D12">
-        <v>0.431</v>
+        <v>0.092</v>
       </c>
       <c r="E12">
-        <v>0.246</v>
+        <v>0.519</v>
       </c>
       <c r="F12">
-        <v>0.494</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1442,19 +1722,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.449</v>
+        <v>0.256</v>
       </c>
       <c r="C13">
-        <v>0.282</v>
+        <v>0.506</v>
       </c>
       <c r="D13">
-        <v>0.358</v>
+        <v>0.509</v>
       </c>
       <c r="E13">
-        <v>0.387</v>
+        <v>0.059</v>
       </c>
       <c r="F13">
-        <v>0.404</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1462,19 +1742,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5679999999999999</v>
+        <v>0.426</v>
       </c>
       <c r="C14">
-        <v>-0.004</v>
+        <v>0.431</v>
       </c>
       <c r="D14">
-        <v>0.503</v>
+        <v>0.312</v>
       </c>
       <c r="E14">
-        <v>0.123</v>
+        <v>0.134</v>
       </c>
       <c r="F14">
-        <v>0.026</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1482,19 +1762,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.35</v>
+        <v>0.493</v>
       </c>
       <c r="C15">
-        <v>0.49</v>
+        <v>0.253</v>
       </c>
       <c r="D15">
-        <v>0.5600000000000001</v>
+        <v>0.517</v>
       </c>
       <c r="E15">
-        <v>0.404</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F15">
-        <v>0.407</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1502,19 +1782,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.279</v>
+        <v>0.53</v>
       </c>
       <c r="C16">
-        <v>0.49</v>
+        <v>0.133</v>
       </c>
       <c r="D16">
-        <v>0.248</v>
+        <v>0.006</v>
       </c>
       <c r="E16">
-        <v>0.705</v>
+        <v>0.232</v>
       </c>
       <c r="F16">
-        <v>0.585</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1522,19 +1802,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.02</v>
+        <v>0.534</v>
       </c>
       <c r="C17">
-        <v>0.036</v>
+        <v>-0.027</v>
       </c>
       <c r="D17">
-        <v>0.365</v>
+        <v>0.594</v>
       </c>
       <c r="E17">
-        <v>0.328</v>
+        <v>0.143</v>
       </c>
       <c r="F17">
-        <v>0.424</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1542,19 +1822,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.197</v>
+        <v>0.06</v>
       </c>
       <c r="C18">
-        <v>0.272</v>
+        <v>0.6</v>
       </c>
       <c r="D18">
-        <v>0.6</v>
+        <v>0.447</v>
       </c>
       <c r="E18">
-        <v>0.247</v>
+        <v>0.438</v>
       </c>
       <c r="F18">
-        <v>0.148</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1562,19 +1842,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.396</v>
+        <v>0.314</v>
       </c>
       <c r="C19">
-        <v>0.494</v>
+        <v>0.302</v>
       </c>
       <c r="D19">
-        <v>0.694</v>
+        <v>0.018</v>
       </c>
       <c r="E19">
-        <v>0.396</v>
+        <v>0.397</v>
       </c>
       <c r="F19">
-        <v>0.485</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1582,19 +1862,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.324</v>
+        <v>-0.057</v>
       </c>
       <c r="C20">
-        <v>-0.593</v>
+        <v>-0.858</v>
       </c>
       <c r="D20">
-        <v>-0.155</v>
+        <v>0.497</v>
       </c>
       <c r="E20">
-        <v>-0.128</v>
+        <v>-0.785</v>
       </c>
       <c r="F20">
-        <v>-0.231</v>
+        <v>-0.312</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1602,19 +1882,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.032</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="C21">
-        <v>-0.169</v>
+        <v>0.336</v>
       </c>
       <c r="D21">
-        <v>0.194</v>
+        <v>0.715</v>
       </c>
       <c r="E21">
-        <v>-0.124</v>
+        <v>-0.516</v>
       </c>
       <c r="F21">
-        <v>-0.255</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1622,19 +1902,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.109</v>
+        <v>-0.35</v>
       </c>
       <c r="C22">
-        <v>-0.244</v>
+        <v>-0.541</v>
       </c>
       <c r="D22">
-        <v>0.366</v>
+        <v>-0.266</v>
       </c>
       <c r="E22">
-        <v>-0.459</v>
+        <v>0.618</v>
       </c>
       <c r="F22">
-        <v>-0.151</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1642,19 +1922,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.111</v>
+        <v>-0.662</v>
       </c>
       <c r="C23">
-        <v>0.771</v>
+        <v>-0.283</v>
       </c>
       <c r="D23">
-        <v>0.031</v>
+        <v>0.203</v>
       </c>
       <c r="E23">
-        <v>0.221</v>
+        <v>0.469</v>
       </c>
       <c r="F23">
-        <v>0.229</v>
+        <v>-0.213</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1662,19 +1942,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.275</v>
+        <v>-0.787</v>
       </c>
       <c r="C24">
-        <v>-1.008</v>
+        <v>0.347</v>
       </c>
       <c r="D24">
-        <v>-0.117</v>
+        <v>-0.293</v>
       </c>
       <c r="E24">
-        <v>-0.517</v>
+        <v>-0.945</v>
       </c>
       <c r="F24">
-        <v>-0.146</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1682,19 +1962,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.397</v>
+        <v>-0.859</v>
       </c>
       <c r="C25">
-        <v>-1.018</v>
+        <v>0.767</v>
       </c>
       <c r="D25">
-        <v>0.625</v>
+        <v>0.917</v>
       </c>
       <c r="E25">
-        <v>-1.202</v>
+        <v>0.229</v>
       </c>
       <c r="F25">
-        <v>-0.321</v>
+        <v>-0.267</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1702,19 +1982,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.927</v>
+        <v>-0.873</v>
       </c>
       <c r="C26">
-        <v>0.601</v>
+        <v>1.333</v>
       </c>
       <c r="D26">
-        <v>0.35</v>
+        <v>-0.466</v>
       </c>
       <c r="E26">
-        <v>-0.259</v>
+        <v>0.468</v>
       </c>
       <c r="F26">
-        <v>-0.162</v>
+        <v>-0.345</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1722,19 +2002,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.532</v>
+        <v>-0.028</v>
       </c>
       <c r="C27">
-        <v>-0.253</v>
+        <v>-0.923</v>
       </c>
       <c r="D27">
-        <v>-0.203</v>
+        <v>-0.12</v>
       </c>
       <c r="E27">
-        <v>-0.038</v>
+        <v>-0.23</v>
       </c>
       <c r="F27">
-        <v>0.111</v>
+        <v>-0.371</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1742,19 +2022,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.17</v>
+        <v>-0.489</v>
       </c>
       <c r="C28">
-        <v>-1.057</v>
+        <v>0.137</v>
       </c>
       <c r="D28">
-        <v>-0.424</v>
+        <v>0.889</v>
       </c>
       <c r="E28">
-        <v>-0.433</v>
+        <v>-0.161</v>
       </c>
       <c r="F28">
-        <v>-0.221</v>
+        <v>-0.429</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1762,19 +2042,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.519</v>
+        <v>0.106</v>
       </c>
       <c r="C29">
-        <v>0.633</v>
+        <v>0.977</v>
       </c>
       <c r="D29">
-        <v>0.495</v>
+        <v>0.85</v>
       </c>
       <c r="E29">
-        <v>-0.255</v>
+        <v>0.063</v>
       </c>
       <c r="F29">
-        <v>-0.208</v>
+        <v>-0.264</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1782,19 +2062,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5570000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="C30">
-        <v>1.038</v>
+        <v>0.888</v>
       </c>
       <c r="D30">
-        <v>0.323</v>
+        <v>0.742</v>
       </c>
       <c r="E30">
-        <v>-0.254</v>
+        <v>0.474</v>
       </c>
       <c r="F30">
-        <v>-0.193</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1802,19 +2082,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5639999999999999</v>
+        <v>-0.245</v>
       </c>
       <c r="C31">
-        <v>1.092</v>
+        <v>1.563</v>
       </c>
       <c r="D31">
-        <v>0.237</v>
+        <v>1.23</v>
       </c>
       <c r="E31">
-        <v>-0.106</v>
+        <v>-0.017</v>
       </c>
       <c r="F31">
-        <v>-0.11</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1822,19 +2102,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.538</v>
+        <v>-0.463</v>
       </c>
       <c r="C32">
-        <v>0.3</v>
+        <v>1.359</v>
       </c>
       <c r="D32">
-        <v>0.405</v>
+        <v>0.998</v>
       </c>
       <c r="E32">
-        <v>-0.394</v>
+        <v>0.056</v>
       </c>
       <c r="F32">
-        <v>0.161</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1842,19 +2122,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.579</v>
+        <v>-0.551</v>
       </c>
       <c r="C33">
-        <v>0.342</v>
+        <v>0.867</v>
       </c>
       <c r="D33">
-        <v>0.476</v>
+        <v>1.242</v>
       </c>
       <c r="E33">
-        <v>-0.523</v>
+        <v>-0.049</v>
       </c>
       <c r="F33">
-        <v>-0.103</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1862,19 +2142,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.592</v>
+        <v>-0.601</v>
       </c>
       <c r="C34">
-        <v>0.335</v>
+        <v>0.537</v>
       </c>
       <c r="D34">
-        <v>0.108</v>
+        <v>0.642</v>
       </c>
       <c r="E34">
-        <v>-1.003</v>
+        <v>0.16</v>
       </c>
       <c r="F34">
-        <v>-0.226</v>
+        <v>-0.187</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1882,19 +2162,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.649</v>
+        <v>-0.611</v>
       </c>
       <c r="C35">
-        <v>0.421</v>
+        <v>1.283</v>
       </c>
       <c r="D35">
-        <v>0.245</v>
+        <v>1.33</v>
       </c>
       <c r="E35">
-        <v>-0.181</v>
+        <v>0.061</v>
       </c>
       <c r="F35">
-        <v>-0.113</v>
+        <v>-0.242</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1902,19 +2182,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.604</v>
+        <v>0.099</v>
       </c>
       <c r="C36">
-        <v>1.079</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D36">
-        <v>0.52</v>
+        <v>1.157</v>
       </c>
       <c r="E36">
-        <v>-0.272</v>
+        <v>0.369</v>
       </c>
       <c r="F36">
-        <v>0.079</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1922,19 +2202,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5620000000000001</v>
+        <v>-0.342</v>
       </c>
       <c r="C37">
-        <v>0.308</v>
+        <v>1.015</v>
       </c>
       <c r="D37">
-        <v>0.63</v>
+        <v>0.656</v>
       </c>
       <c r="E37">
-        <v>-0.107</v>
+        <v>0.333</v>
       </c>
       <c r="F37">
-        <v>-0.155</v>
+        <v>-0.301</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1942,19 +2222,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.177</v>
+        <v>0.08</v>
       </c>
       <c r="C38">
-        <v>0.376</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D38">
-        <v>0.34</v>
+        <v>0.595</v>
       </c>
       <c r="E38">
-        <v>-0.178</v>
+        <v>0.952</v>
       </c>
       <c r="F38">
-        <v>-0.07000000000000001</v>
+        <v>-0.068</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1962,19 +2242,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.39</v>
+        <v>0.047</v>
       </c>
       <c r="C39">
-        <v>0.727</v>
+        <v>0.622</v>
       </c>
       <c r="D39">
-        <v>0.607</v>
+        <v>0.519</v>
       </c>
       <c r="E39">
-        <v>-0.178</v>
+        <v>0.673</v>
       </c>
       <c r="F39">
-        <v>-0.034</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1982,19 +2262,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.395</v>
+        <v>-0.171</v>
       </c>
       <c r="C40">
-        <v>0.764</v>
+        <v>1.094</v>
       </c>
       <c r="D40">
-        <v>0.547</v>
+        <v>0.861</v>
       </c>
       <c r="E40">
-        <v>-0.074</v>
+        <v>-0.012</v>
       </c>
       <c r="F40">
-        <v>-0.002</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2002,19 +2282,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.377</v>
+        <v>-0.324</v>
       </c>
       <c r="C41">
-        <v>0.21</v>
+        <v>0.951</v>
       </c>
       <c r="D41">
-        <v>0.665</v>
+        <v>0.699</v>
       </c>
       <c r="E41">
-        <v>0.093</v>
+        <v>0.076</v>
       </c>
       <c r="F41">
-        <v>0.077</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2022,19 +2302,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.405</v>
+        <v>-0.386</v>
       </c>
       <c r="C42">
-        <v>0.767</v>
+        <v>0.607</v>
       </c>
       <c r="D42">
-        <v>0.321</v>
+        <v>0.869</v>
       </c>
       <c r="E42">
-        <v>-0.366</v>
+        <v>1.088</v>
       </c>
       <c r="F42">
-        <v>0.004</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2042,19 +2322,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.414</v>
+        <v>-0.421</v>
       </c>
       <c r="C43">
-        <v>0.777</v>
+        <v>0.376</v>
       </c>
       <c r="D43">
-        <v>0.457</v>
+        <v>0.449</v>
       </c>
       <c r="E43">
-        <v>-0.702</v>
+        <v>0.221</v>
       </c>
       <c r="F43">
-        <v>-0.031</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2062,19 +2342,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.454</v>
+        <v>-0.428</v>
       </c>
       <c r="C44">
-        <v>0.295</v>
+        <v>0.898</v>
       </c>
       <c r="D44">
-        <v>0.553</v>
+        <v>0.931</v>
       </c>
       <c r="E44">
-        <v>-0.127</v>
+        <v>0.075</v>
       </c>
       <c r="F44">
-        <v>0.002</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2082,19 +2362,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.423</v>
+        <v>0.056</v>
       </c>
       <c r="C45">
-        <v>0.755</v>
+        <v>0.652</v>
       </c>
       <c r="D45">
-        <v>0.364</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E45">
-        <v>-0.19</v>
+        <v>0.496</v>
       </c>
       <c r="F45">
-        <v>0.055</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2102,19 +2382,919 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.393</v>
+        <v>-0.239</v>
       </c>
       <c r="C46">
-        <v>0.8129999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="D46">
-        <v>0.476</v>
+        <v>0.459</v>
       </c>
       <c r="E46">
-        <v>-0.075</v>
+        <v>0.456</v>
       </c>
       <c r="F46">
+        <v>-0.121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.047</v>
+      </c>
+      <c r="C47">
+        <v>0.479</v>
+      </c>
+      <c r="D47">
+        <v>0.416</v>
+      </c>
+      <c r="E47">
+        <v>0.666</v>
+      </c>
+      <c r="F47">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.033</v>
+      </c>
+      <c r="C48">
+        <v>0.435</v>
+      </c>
+      <c r="D48">
+        <v>0.363</v>
+      </c>
+      <c r="E48">
+        <v>0.471</v>
+      </c>
+      <c r="F48">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.199</v>
+      </c>
+      <c r="C49">
+        <v>0.766</v>
+      </c>
+      <c r="D49">
+        <v>0.603</v>
+      </c>
+      <c r="E49">
+        <v>0.137</v>
+      </c>
+      <c r="F49">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-0.135</v>
+      </c>
+      <c r="C50">
+        <v>0.666</v>
+      </c>
+      <c r="D50">
+        <v>0.489</v>
+      </c>
+      <c r="E50">
+        <v>0.067</v>
+      </c>
+      <c r="F50">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-0.178</v>
+      </c>
+      <c r="C51">
+        <v>0.425</v>
+      </c>
+      <c r="D51">
+        <v>0.608</v>
+      </c>
+      <c r="E51">
+        <v>0.762</v>
+      </c>
+      <c r="F51">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-0.203</v>
+      </c>
+      <c r="C52">
+        <v>0.263</v>
+      </c>
+      <c r="D52">
+        <v>0.314</v>
+      </c>
+      <c r="E52">
+        <v>-0.037</v>
+      </c>
+      <c r="F52">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>-0.208</v>
+      </c>
+      <c r="C53">
+        <v>0.629</v>
+      </c>
+      <c r="D53">
+        <v>0.652</v>
+      </c>
+      <c r="E53">
+        <v>0.064</v>
+      </c>
+      <c r="F53">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.043</v>
+      </c>
+      <c r="C54">
+        <v>0.456</v>
+      </c>
+      <c r="D54">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E54">
+        <v>0.347</v>
+      </c>
+      <c r="F54">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-0.076</v>
+      </c>
+      <c r="C55">
+        <v>0.497</v>
+      </c>
+      <c r="D55">
+        <v>0.321</v>
+      </c>
+      <c r="E55">
+        <v>0.319</v>
+      </c>
+      <c r="F55">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.005</v>
+      </c>
+      <c r="C56">
+        <v>0.335</v>
+      </c>
+      <c r="D56">
+        <v>0.291</v>
+      </c>
+      <c r="E56">
+        <v>0.466</v>
+      </c>
+      <c r="F56">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.023</v>
+      </c>
+      <c r="C57">
+        <v>0.304</v>
+      </c>
+      <c r="D57">
+        <v>0.254</v>
+      </c>
+      <c r="E57">
+        <v>0.33</v>
+      </c>
+      <c r="F57">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.238</v>
+      </c>
+      <c r="C58">
+        <v>0.536</v>
+      </c>
+      <c r="D58">
+        <v>0.422</v>
+      </c>
+      <c r="E58">
+        <v>-0.021</v>
+      </c>
+      <c r="F58">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.221</v>
+      </c>
+      <c r="C59">
+        <v>0.466</v>
+      </c>
+      <c r="D59">
+        <v>0.342</v>
+      </c>
+      <c r="E59">
+        <v>-0.068</v>
+      </c>
+      <c r="F59">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.248</v>
+      </c>
+      <c r="C60">
+        <v>0.297</v>
+      </c>
+      <c r="D60">
+        <v>0.426</v>
+      </c>
+      <c r="E60">
+        <v>0.533</v>
+      </c>
+      <c r="F60">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-0.006</v>
+      </c>
+      <c r="C61">
+        <v>0.184</v>
+      </c>
+      <c r="D61">
+        <v>0.22</v>
+      </c>
+      <c r="E61">
+        <v>-0.147</v>
+      </c>
+      <c r="F61">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
         <v>-0.01</v>
+      </c>
+      <c r="C62">
+        <v>0.44</v>
+      </c>
+      <c r="D62">
+        <v>0.456</v>
+      </c>
+      <c r="E62">
+        <v>-0.067</v>
+      </c>
+      <c r="F62">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.021</v>
+      </c>
+      <c r="C63">
+        <v>0.319</v>
+      </c>
+      <c r="D63">
+        <v>0.397</v>
+      </c>
+      <c r="E63">
+        <v>0.243</v>
+      </c>
+      <c r="F63">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.183</v>
+      </c>
+      <c r="C64">
+        <v>0.348</v>
+      </c>
+      <c r="D64">
+        <v>0.225</v>
+      </c>
+      <c r="E64">
+        <v>0.223</v>
+      </c>
+      <c r="F64">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.187</v>
+      </c>
+      <c r="C65">
+        <v>0.234</v>
+      </c>
+      <c r="D65">
+        <v>0.204</v>
+      </c>
+      <c r="E65">
+        <v>0.403</v>
+      </c>
+      <c r="F65">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.204</v>
+      </c>
+      <c r="C66">
+        <v>0.213</v>
+      </c>
+      <c r="D66">
+        <v>0.178</v>
+      </c>
+      <c r="E66">
+        <v>0.308</v>
+      </c>
+      <c r="F66">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.167</v>
+      </c>
+      <c r="C67">
+        <v>0.375</v>
+      </c>
+      <c r="D67">
+        <v>0.295</v>
+      </c>
+      <c r="E67">
+        <v>-0.015</v>
+      </c>
+      <c r="F67">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.394</v>
+      </c>
+      <c r="C68">
+        <v>0.326</v>
+      </c>
+      <c r="D68">
+        <v>0.239</v>
+      </c>
+      <c r="E68">
+        <v>0.045</v>
+      </c>
+      <c r="F68">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.434</v>
+      </c>
+      <c r="C69">
+        <v>0.208</v>
+      </c>
+      <c r="D69">
+        <v>0.298</v>
+      </c>
+      <c r="E69">
+        <v>0.45</v>
+      </c>
+      <c r="F69">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.357</v>
+      </c>
+      <c r="C70">
+        <v>-0.248</v>
+      </c>
+      <c r="D70">
+        <v>0.154</v>
+      </c>
+      <c r="E70">
+        <v>0.135</v>
+      </c>
+      <c r="F70">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.36</v>
+      </c>
+      <c r="C71">
+        <v>0.308</v>
+      </c>
+      <c r="D71">
+        <v>0.319</v>
+      </c>
+      <c r="E71">
+        <v>0.047</v>
+      </c>
+      <c r="F71">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.196</v>
+      </c>
+      <c r="C72">
+        <v>0.223</v>
+      </c>
+      <c r="D72">
+        <v>0.278</v>
+      </c>
+      <c r="E72">
+        <v>0.247</v>
+      </c>
+      <c r="F72">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.34</v>
+      </c>
+      <c r="C73">
+        <v>0.244</v>
+      </c>
+      <c r="D73">
+        <v>0.158</v>
+      </c>
+      <c r="E73">
+        <v>0.233</v>
+      </c>
+      <c r="F73">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.306</v>
+      </c>
+      <c r="C74">
+        <v>0.164</v>
+      </c>
+      <c r="D74">
+        <v>0.472</v>
+      </c>
+      <c r="E74">
+        <v>0.282</v>
+      </c>
+      <c r="F74">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.3</v>
+      </c>
+      <c r="C75">
+        <v>0.149</v>
+      </c>
+      <c r="D75">
+        <v>0.083</v>
+      </c>
+      <c r="E75">
+        <v>0.216</v>
+      </c>
+      <c r="F75">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.136</v>
+      </c>
+      <c r="C76">
+        <v>0.262</v>
+      </c>
+      <c r="D76">
+        <v>0.536</v>
+      </c>
+      <c r="E76">
+        <v>-0.058</v>
+      </c>
+      <c r="F76">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.232</v>
+      </c>
+      <c r="C77">
+        <v>0.228</v>
+      </c>
+      <c r="D77">
+        <v>0.496</v>
+      </c>
+      <c r="E77">
+        <v>-0.04</v>
+      </c>
+      <c r="F77">
+        <v>0.117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.228</v>
+      </c>
+      <c r="C78">
+        <v>0.146</v>
+      </c>
+      <c r="D78">
+        <v>0.538</v>
+      </c>
+      <c r="E78">
+        <v>0.315</v>
+      </c>
+      <c r="F78">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.378</v>
+      </c>
+      <c r="C79">
+        <v>-0.043</v>
+      </c>
+      <c r="D79">
+        <v>0.116</v>
+      </c>
+      <c r="E79">
+        <v>-0.003</v>
+      </c>
+      <c r="F79">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.381</v>
+      </c>
+      <c r="C80">
+        <v>0.216</v>
+      </c>
+      <c r="D80">
+        <v>0.552</v>
+      </c>
+      <c r="E80">
+        <v>-0.04</v>
+      </c>
+      <c r="F80">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.298</v>
+      </c>
+      <c r="C81">
+        <v>0.156</v>
+      </c>
+      <c r="D81">
+        <v>0.524</v>
+      </c>
+      <c r="E81">
+        <v>0.173</v>
+      </c>
+      <c r="F81">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.238</v>
+      </c>
+      <c r="C82">
+        <v>0.171</v>
+      </c>
+      <c r="D82">
+        <v>0.111</v>
+      </c>
+      <c r="E82">
+        <v>0.163</v>
+      </c>
+      <c r="F82">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.299</v>
+      </c>
+      <c r="C83">
+        <v>0.129</v>
+      </c>
+      <c r="D83">
+        <v>0.33</v>
+      </c>
+      <c r="E83">
+        <v>0.51</v>
+      </c>
+      <c r="F83">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.284</v>
+      </c>
+      <c r="C84">
+        <v>0.149</v>
+      </c>
+      <c r="D84">
+        <v>0.058</v>
+      </c>
+      <c r="E84">
+        <v>0.464</v>
+      </c>
+      <c r="F84">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.249</v>
+      </c>
+      <c r="C85">
+        <v>0.533</v>
+      </c>
+      <c r="D85">
+        <v>0.375</v>
+      </c>
+      <c r="E85">
+        <v>0.336</v>
+      </c>
+      <c r="F85">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.126</v>
+      </c>
+      <c r="C86">
+        <v>0.51</v>
+      </c>
+      <c r="D86">
+        <v>0.347</v>
+      </c>
+      <c r="E86">
+        <v>0.291</v>
+      </c>
+      <c r="F86">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.097</v>
+      </c>
+      <c r="C87">
+        <v>0.153</v>
+      </c>
+      <c r="D87">
+        <v>0.377</v>
+      </c>
+      <c r="E87">
+        <v>0.533</v>
+      </c>
+      <c r="F87">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.206</v>
+      </c>
+      <c r="C88">
+        <v>0.539</v>
+      </c>
+      <c r="D88">
+        <v>0.081</v>
+      </c>
+      <c r="E88">
+        <v>0.219</v>
+      </c>
+      <c r="F88">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.206</v>
+      </c>
+      <c r="C89">
+        <v>0.501</v>
+      </c>
+      <c r="D89">
+        <v>0.386</v>
+      </c>
+      <c r="E89">
+        <v>0.289</v>
+      </c>
+      <c r="F89">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.29</v>
+      </c>
+      <c r="C90">
+        <v>0.14</v>
+      </c>
+      <c r="D90">
+        <v>0.367</v>
+      </c>
+      <c r="E90">
+        <v>0.102</v>
+      </c>
+      <c r="F90">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.167</v>
+      </c>
+      <c r="C91">
+        <v>0.12</v>
+      </c>
+      <c r="D91">
+        <v>0.078</v>
+      </c>
+      <c r="E91">
+        <v>0.114</v>
+      </c>
+      <c r="F91">
+        <v>0.128</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +3304,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2332,19 +3512,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.745</v>
+        <v>0.147</v>
       </c>
       <c r="C11">
-        <v>0.432</v>
+        <v>0.647</v>
       </c>
       <c r="D11">
-        <v>0.646</v>
+        <v>0.251</v>
       </c>
       <c r="E11">
-        <v>0.33</v>
+        <v>0.711</v>
       </c>
       <c r="F11">
-        <v>0.603</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2352,19 +3532,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.548</v>
+        <v>0.122</v>
       </c>
       <c r="C12">
         <v>0.316</v>
       </c>
       <c r="D12">
-        <v>0.497</v>
+        <v>0.158</v>
       </c>
       <c r="E12">
-        <v>0.327</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
-        <v>0.552</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2372,19 +3552,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.506</v>
+        <v>0.313</v>
       </c>
       <c r="C13">
-        <v>0.339</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D13">
-        <v>0.424</v>
+        <v>0.575</v>
       </c>
       <c r="E13">
-        <v>0.463</v>
+        <v>0.135</v>
       </c>
       <c r="F13">
-        <v>0.426</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2392,19 +3572,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.63</v>
+        <v>0.488</v>
       </c>
       <c r="C14">
-        <v>0.058</v>
+        <v>0.493</v>
       </c>
       <c r="D14">
-        <v>0.5659999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="E14">
-        <v>0.181</v>
+        <v>0.192</v>
       </c>
       <c r="F14">
-        <v>0.033</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2412,19 +3592,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.416</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C15">
-        <v>0.556</v>
+        <v>0.319</v>
       </c>
       <c r="D15">
-        <v>0.63</v>
+        <v>0.587</v>
       </c>
       <c r="E15">
-        <v>0.489</v>
+        <v>0.776</v>
       </c>
       <c r="F15">
-        <v>0.411</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2432,19 +3612,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.349</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>0.5610000000000001</v>
+        <v>0.204</v>
       </c>
       <c r="D16">
-        <v>0.314</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E16">
-        <v>0.763</v>
+        <v>0.29</v>
       </c>
       <c r="F16">
-        <v>0.588</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2452,19 +3632,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.055</v>
+        <v>0.609</v>
       </c>
       <c r="C17">
-        <v>0.111</v>
+        <v>0.048</v>
       </c>
       <c r="D17">
-        <v>0.431</v>
+        <v>0.66</v>
       </c>
       <c r="E17">
-        <v>0.375</v>
+        <v>0.19</v>
       </c>
       <c r="F17">
-        <v>0.426</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2472,19 +3652,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.276</v>
+        <v>0.139</v>
       </c>
       <c r="C18">
-        <v>0.351</v>
+        <v>0.679</v>
       </c>
       <c r="D18">
-        <v>0.666</v>
+        <v>0.513</v>
       </c>
       <c r="E18">
-        <v>0.282</v>
+        <v>0.473</v>
       </c>
       <c r="F18">
-        <v>0.15</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2492,19 +3672,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.479</v>
+        <v>0.397</v>
       </c>
       <c r="C19">
-        <v>0.577</v>
+        <v>0.385</v>
       </c>
       <c r="D19">
-        <v>0.76</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E19">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="F19">
-        <v>0.485</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2512,19 +3692,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.421</v>
+        <v>0.09</v>
       </c>
       <c r="C20">
         <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.491</v>
+        <v>0.748</v>
       </c>
       <c r="E20">
-        <v>0.202</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
-        <v>0.372</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2532,19 +3712,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.58</v>
+        <v>0.113</v>
       </c>
       <c r="C21">
-        <v>0.147</v>
+        <v>0.652</v>
       </c>
       <c r="D21">
-        <v>0.6909999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="E21">
-        <v>0.203</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F21">
-        <v>0.297</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2552,19 +3732,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.615</v>
+        <v>0.2</v>
       </c>
       <c r="C22">
-        <v>0.095</v>
+        <v>0.022</v>
       </c>
       <c r="D22">
-        <v>0.79</v>
+        <v>0.309</v>
       </c>
       <c r="E22">
-        <v>0.004</v>
+        <v>0.753</v>
       </c>
       <c r="F22">
-        <v>0.275</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2572,19 +3752,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.519</v>
+        <v>0.2</v>
       </c>
       <c r="C23">
-        <v>0.829</v>
+        <v>0.21</v>
       </c>
       <c r="D23">
-        <v>0.597</v>
+        <v>0.578</v>
       </c>
       <c r="E23">
-        <v>0.402</v>
+        <v>0.661</v>
       </c>
       <c r="F23">
-        <v>0.262</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2592,19 +3772,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6909999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.666</v>
       </c>
       <c r="D24">
-        <v>0.513</v>
+        <v>0.294</v>
       </c>
       <c r="E24">
         <v>0.2</v>
       </c>
       <c r="F24">
-        <v>0.265</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2612,19 +3792,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.746</v>
+        <v>0.2</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>0.971</v>
       </c>
       <c r="D25">
-        <v>0.9389999999999999</v>
+        <v>0.989</v>
       </c>
       <c r="E25">
-        <v>0.2</v>
+        <v>0.519</v>
       </c>
       <c r="F25">
-        <v>0.267</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2632,19 +3812,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.982</v>
+        <v>0.2</v>
       </c>
       <c r="C26">
-        <v>0.712</v>
+        <v>0.8</v>
       </c>
       <c r="D26">
-        <v>0.781</v>
+        <v>0.194</v>
       </c>
       <c r="E26">
-        <v>0.116</v>
+        <v>0.658</v>
       </c>
       <c r="F26">
-        <v>0.264</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2652,19 +3832,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8080000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="C27">
-        <v>0.098</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.463</v>
+        <v>0.393</v>
       </c>
       <c r="E27">
-        <v>0.244</v>
+        <v>0.243</v>
       </c>
       <c r="F27">
-        <v>0.261</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2672,19 +3852,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.649</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
-        <v>0.2</v>
+        <v>0.522</v>
       </c>
       <c r="D28">
-        <v>0.336</v>
+        <v>0.973</v>
       </c>
       <c r="E28">
-        <v>0.014</v>
+        <v>0.287</v>
       </c>
       <c r="F28">
-        <v>0.264</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2692,19 +3872,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9399999999999999</v>
+        <v>0.196</v>
       </c>
       <c r="C29">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
-        <v>0.986</v>
+        <v>0.8</v>
       </c>
       <c r="E29">
-        <v>0.2</v>
+        <v>0.263</v>
       </c>
       <c r="F29">
-        <v>0.164</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2712,7 +3892,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="C30">
         <v>0.8</v>
@@ -2721,10 +3901,10 @@
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.2</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F30">
-        <v>0.104</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2732,7 +3912,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C31">
         <v>0.8</v>
@@ -2741,10 +3921,10 @@
         <v>0.8</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>0.736</v>
       </c>
       <c r="F31">
-        <v>0.165</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2752,7 +3932,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C32">
         <v>0.8</v>
@@ -2761,10 +3941,10 @@
         <v>0.8</v>
       </c>
       <c r="E32">
-        <v>0.008</v>
+        <v>0.717</v>
       </c>
       <c r="F32">
-        <v>0.423</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2772,19 +3952,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C33">
-        <v>0.542</v>
+        <v>0.8</v>
       </c>
       <c r="D33">
-        <v>0.989</v>
+        <v>0.8</v>
       </c>
       <c r="E33">
-        <v>0.2</v>
+        <v>0.151</v>
       </c>
       <c r="F33">
-        <v>0.162</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2792,19 +3972,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
-        <v>0.535</v>
+        <v>0.8</v>
       </c>
       <c r="D34">
         <v>0.8</v>
       </c>
       <c r="E34">
-        <v>0.2</v>
+        <v>0.679</v>
       </c>
       <c r="F34">
-        <v>0.041</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2812,7 +3992,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C35">
         <v>0.8</v>
@@ -2821,10 +4001,10 @@
         <v>0.8</v>
       </c>
       <c r="E35">
-        <v>0.2</v>
+        <v>0.719</v>
       </c>
       <c r="F35">
-        <v>0.151</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2832,19 +4012,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8</v>
+        <v>0.21</v>
       </c>
       <c r="C36">
         <v>0.8</v>
       </c>
       <c r="D36">
-        <v>0.983</v>
+        <v>0.8</v>
       </c>
       <c r="E36">
-        <v>0.2</v>
+        <v>0.612</v>
       </c>
       <c r="F36">
-        <v>0.34</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2852,19 +4032,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
-        <v>0.508</v>
+        <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.966</v>
+        <v>0.8</v>
       </c>
       <c r="E37">
+        <v>0.62</v>
+      </c>
+      <c r="F37">
         <v>0.2</v>
-      </c>
-      <c r="F37">
-        <v>0.109</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2872,7 +4052,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8</v>
+        <v>0.276</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -2881,10 +4061,10 @@
         <v>0.8</v>
       </c>
       <c r="E38">
-        <v>0.022</v>
+        <v>0.8</v>
       </c>
       <c r="F38">
-        <v>0.094</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2892,7 +4072,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8</v>
+        <v>0.269</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -2901,10 +4081,10 @@
         <v>0.8</v>
       </c>
       <c r="E39">
-        <v>0.022</v>
+        <v>0.8</v>
       </c>
       <c r="F39">
-        <v>0.07000000000000001</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2912,7 +4092,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8</v>
+        <v>0.029</v>
       </c>
       <c r="C40">
         <v>0.8</v>
@@ -2921,10 +4101,10 @@
         <v>0.8</v>
       </c>
       <c r="E40">
-        <v>0.126</v>
+        <v>0.724</v>
       </c>
       <c r="F40">
-        <v>0.163</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2932,7 +4112,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C41">
         <v>0.8</v>
@@ -2941,10 +4121,10 @@
         <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.101</v>
+        <v>0.793</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2952,7 +4132,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C42">
         <v>0.8</v>
@@ -2961,10 +4141,10 @@
         <v>0.8</v>
       </c>
       <c r="E42">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F42">
-        <v>0.166</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2972,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
         <v>0.8</v>
@@ -2981,10 +4161,10 @@
         <v>0.8</v>
       </c>
       <c r="E43">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F43">
-        <v>0.01</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2992,7 +4172,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -3001,10 +4181,10 @@
         <v>0.8</v>
       </c>
       <c r="E44">
-        <v>0.073</v>
+        <v>0.794</v>
       </c>
       <c r="F44">
-        <v>0.153</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3012,7 +4192,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8</v>
+        <v>0.266</v>
       </c>
       <c r="C45">
         <v>0.8</v>
@@ -3021,10 +4201,10 @@
         <v>0.8</v>
       </c>
       <c r="E45">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.395</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3032,7 +4212,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -3041,10 +4221,910 @@
         <v>0.8</v>
       </c>
       <c r="E46">
-        <v>0.125</v>
+        <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.099</v>
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.323</v>
+      </c>
+      <c r="C47">
+        <v>0.8</v>
+      </c>
+      <c r="D47">
+        <v>0.8</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+      <c r="F47">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.302</v>
+      </c>
+      <c r="C48">
+        <v>0.8</v>
+      </c>
+      <c r="D48">
+        <v>0.8</v>
+      </c>
+      <c r="E48">
+        <v>0.8</v>
+      </c>
+      <c r="F48">
+        <v>0.611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.228</v>
+      </c>
+      <c r="C49">
+        <v>0.8</v>
+      </c>
+      <c r="D49">
+        <v>0.8</v>
+      </c>
+      <c r="E49">
+        <v>0.861</v>
+      </c>
+      <c r="F49">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.065</v>
+      </c>
+      <c r="C50">
+        <v>0.8</v>
+      </c>
+      <c r="D50">
+        <v>0.8</v>
+      </c>
+      <c r="E50">
+        <v>0.86</v>
+      </c>
+      <c r="F50">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.022</v>
+      </c>
+      <c r="C51">
+        <v>0.8</v>
+      </c>
+      <c r="D51">
+        <v>0.8</v>
+      </c>
+      <c r="E51">
+        <v>0.8</v>
+      </c>
+      <c r="F51">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.2</v>
+      </c>
+      <c r="C52">
+        <v>0.8</v>
+      </c>
+      <c r="D52">
+        <v>0.8</v>
+      </c>
+      <c r="E52">
+        <v>0.863</v>
+      </c>
+      <c r="F52">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.2</v>
+      </c>
+      <c r="C53">
+        <v>0.8</v>
+      </c>
+      <c r="D53">
+        <v>0.8</v>
+      </c>
+      <c r="E53">
+        <v>0.858</v>
+      </c>
+      <c r="F53">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.309</v>
+      </c>
+      <c r="C54">
+        <v>0.8</v>
+      </c>
+      <c r="D54">
+        <v>0.8</v>
+      </c>
+      <c r="E54">
+        <v>0.8</v>
+      </c>
+      <c r="F54">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.124</v>
+      </c>
+      <c r="C55">
+        <v>0.8</v>
+      </c>
+      <c r="D55">
+        <v>0.8</v>
+      </c>
+      <c r="E55">
+        <v>0.8</v>
+      </c>
+      <c r="F55">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.328</v>
+      </c>
+      <c r="C56">
+        <v>0.8</v>
+      </c>
+      <c r="D56">
+        <v>0.8</v>
+      </c>
+      <c r="E56">
+        <v>0.8</v>
+      </c>
+      <c r="F56">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.325</v>
+      </c>
+      <c r="C57">
+        <v>0.8</v>
+      </c>
+      <c r="D57">
+        <v>0.8</v>
+      </c>
+      <c r="E57">
+        <v>0.8</v>
+      </c>
+      <c r="F57">
+        <v>0.651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.466</v>
+      </c>
+      <c r="C58">
+        <v>0.8</v>
+      </c>
+      <c r="D58">
+        <v>0.8</v>
+      </c>
+      <c r="E58">
+        <v>0.84</v>
+      </c>
+      <c r="F58">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.286</v>
+      </c>
+      <c r="C59">
+        <v>0.8</v>
+      </c>
+      <c r="D59">
+        <v>0.8</v>
+      </c>
+      <c r="E59">
+        <v>0.792</v>
+      </c>
+      <c r="F59">
+        <v>0.574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.27</v>
+      </c>
+      <c r="C60">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>0.8</v>
+      </c>
+      <c r="E60">
+        <v>0.8</v>
+      </c>
+      <c r="F60">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.194</v>
+      </c>
+      <c r="C61">
+        <v>0.984</v>
+      </c>
+      <c r="D61">
+        <v>0.8</v>
+      </c>
+      <c r="E61">
+        <v>0.716</v>
+      </c>
+      <c r="F61">
+        <v>0.5639999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.19</v>
+      </c>
+      <c r="C62">
+        <v>0.8</v>
+      </c>
+      <c r="D62">
+        <v>0.8</v>
+      </c>
+      <c r="E62">
+        <v>0.791</v>
+      </c>
+      <c r="F62">
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.33</v>
+      </c>
+      <c r="C63">
+        <v>0.8</v>
+      </c>
+      <c r="D63">
+        <v>0.8</v>
+      </c>
+      <c r="E63">
+        <v>0.8</v>
+      </c>
+      <c r="F63">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.307</v>
+      </c>
+      <c r="C64">
+        <v>0.8</v>
+      </c>
+      <c r="D64">
+        <v>0.8</v>
+      </c>
+      <c r="E64">
+        <v>0.8</v>
+      </c>
+      <c r="F64">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.515</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
+      <c r="D65">
+        <v>0.8</v>
+      </c>
+      <c r="E65">
+        <v>0.8</v>
+      </c>
+      <c r="F65">
+        <v>0.758</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.529</v>
+      </c>
+      <c r="C66">
+        <v>0.8</v>
+      </c>
+      <c r="D66">
+        <v>0.978</v>
+      </c>
+      <c r="E66">
+        <v>0.8</v>
+      </c>
+      <c r="F66">
+        <v>0.677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.633</v>
+      </c>
+      <c r="C67">
+        <v>0.8</v>
+      </c>
+      <c r="D67">
+        <v>0.8</v>
+      </c>
+      <c r="E67">
+        <v>0.825</v>
+      </c>
+      <c r="F67">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.68</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>0.8</v>
+      </c>
+      <c r="E68">
+        <v>0.837</v>
+      </c>
+      <c r="F68">
+        <v>0.776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.704</v>
+      </c>
+      <c r="C69">
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>0.8</v>
+      </c>
+      <c r="E69">
+        <v>0.8</v>
+      </c>
+      <c r="F69">
+        <v>0.6840000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.551</v>
+      </c>
+      <c r="C70">
+        <v>0.736</v>
+      </c>
+      <c r="D70">
+        <v>0.954</v>
+      </c>
+      <c r="E70">
+        <v>0.851</v>
+      </c>
+      <c r="F70">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.55</v>
+      </c>
+      <c r="C71">
+        <v>0.8</v>
+      </c>
+      <c r="D71">
+        <v>0.8</v>
+      </c>
+      <c r="E71">
+        <v>0.838</v>
+      </c>
+      <c r="F71">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.526</v>
+      </c>
+      <c r="C72">
+        <v>0.8</v>
+      </c>
+      <c r="D72">
+        <v>0.8</v>
+      </c>
+      <c r="E72">
+        <v>0.8</v>
+      </c>
+      <c r="F72">
+        <v>0.8070000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.647</v>
+      </c>
+      <c r="C73">
+        <v>0.8</v>
+      </c>
+      <c r="D73">
+        <v>0.958</v>
+      </c>
+      <c r="E73">
+        <v>0.8</v>
+      </c>
+      <c r="F73">
+        <v>0.718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.821</v>
+      </c>
+      <c r="C74">
+        <v>0.964</v>
+      </c>
+      <c r="D74">
+        <v>0.8</v>
+      </c>
+      <c r="E74">
+        <v>0.8</v>
+      </c>
+      <c r="F74">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.829</v>
+      </c>
+      <c r="C75">
+        <v>0.949</v>
+      </c>
+      <c r="D75">
+        <v>0.8</v>
+      </c>
+      <c r="E75">
+        <v>0.8</v>
+      </c>
+      <c r="F75">
+        <v>0.713</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.769</v>
+      </c>
+      <c r="C76">
+        <v>0.8</v>
+      </c>
+      <c r="D76">
+        <v>0.8</v>
+      </c>
+      <c r="E76">
+        <v>0.767</v>
+      </c>
+      <c r="F76">
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.912</v>
+      </c>
+      <c r="C77">
+        <v>0.8</v>
+      </c>
+      <c r="D77">
+        <v>0.8</v>
+      </c>
+      <c r="E77">
+        <v>0.797</v>
+      </c>
+      <c r="F77">
+        <v>0.893</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="C78">
+        <v>0.946</v>
+      </c>
+      <c r="D78">
+        <v>0.8</v>
+      </c>
+      <c r="E78">
+        <v>0.8</v>
+      </c>
+      <c r="F78">
+        <v>0.708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.929</v>
+      </c>
+      <c r="C79">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="D79">
+        <v>0.8</v>
+      </c>
+      <c r="E79">
+        <v>0.848</v>
+      </c>
+      <c r="F79">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.931</v>
+      </c>
+      <c r="C80">
+        <v>0.8</v>
+      </c>
+      <c r="D80">
+        <v>0.8</v>
+      </c>
+      <c r="E80">
+        <v>0.798</v>
+      </c>
+      <c r="F80">
+        <v>0.944</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.824</v>
+      </c>
+      <c r="C81">
+        <v>0.956</v>
+      </c>
+      <c r="D81">
+        <v>0.8</v>
+      </c>
+      <c r="E81">
+        <v>0.973</v>
+      </c>
+      <c r="F81">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.885</v>
+      </c>
+      <c r="C82">
+        <v>0.971</v>
+      </c>
+      <c r="D82">
+        <v>0.8</v>
+      </c>
+      <c r="E82">
+        <v>0.963</v>
+      </c>
+      <c r="F82">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.8</v>
+      </c>
+      <c r="C83">
+        <v>0.8</v>
+      </c>
+      <c r="D83">
+        <v>0.8</v>
+      </c>
+      <c r="E83">
+        <v>0.8</v>
+      </c>
+      <c r="F83">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.8</v>
+      </c>
+      <c r="C84">
+        <v>0.8</v>
+      </c>
+      <c r="D84">
+        <v>0.858</v>
+      </c>
+      <c r="E84">
+        <v>0.8</v>
+      </c>
+      <c r="F84">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.8</v>
+      </c>
+      <c r="C85">
+        <v>0.8</v>
+      </c>
+      <c r="D85">
+        <v>0.8</v>
+      </c>
+      <c r="E85">
+        <v>0.8</v>
+      </c>
+      <c r="F85">
+        <v>0.843</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.8</v>
+      </c>
+      <c r="C86">
+        <v>0.8</v>
+      </c>
+      <c r="D86">
+        <v>0.8</v>
+      </c>
+      <c r="E86">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.8</v>
+      </c>
+      <c r="C87">
+        <v>0.8</v>
+      </c>
+      <c r="D87">
+        <v>0.8</v>
+      </c>
+      <c r="E87">
+        <v>0.8</v>
+      </c>
+      <c r="F87">
+        <v>0.8070000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.8</v>
+      </c>
+      <c r="C88">
+        <v>0.8</v>
+      </c>
+      <c r="D88">
+        <v>0.881</v>
+      </c>
+      <c r="E88">
+        <v>0.8</v>
+      </c>
+      <c r="F88">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.8</v>
+      </c>
+      <c r="C89">
+        <v>0.8</v>
+      </c>
+      <c r="D89">
+        <v>0.8</v>
+      </c>
+      <c r="E89">
+        <v>0.8</v>
+      </c>
+      <c r="F89">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.8</v>
+      </c>
+      <c r="C90">
+        <v>0.8</v>
+      </c>
+      <c r="D90">
+        <v>0.8</v>
+      </c>
+      <c r="E90">
+        <v>0.8</v>
+      </c>
+      <c r="F90">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.8</v>
+      </c>
+      <c r="C91">
+        <v>0.8</v>
+      </c>
+      <c r="D91">
+        <v>0.878</v>
+      </c>
+      <c r="E91">
+        <v>0.8</v>
+      </c>
+      <c r="F91">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +5134,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3442,19 +5522,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.421</v>
+        <v>0.09</v>
       </c>
       <c r="C20">
         <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.491</v>
+        <v>0.748</v>
       </c>
       <c r="E20">
-        <v>0.202</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
-        <v>0.372</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3462,19 +5542,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.58</v>
+        <v>0.113</v>
       </c>
       <c r="C21">
-        <v>0.147</v>
+        <v>0.652</v>
       </c>
       <c r="D21">
-        <v>0.6909999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="E21">
-        <v>0.203</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F21">
-        <v>0.297</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3482,19 +5562,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.615</v>
+        <v>0.2</v>
       </c>
       <c r="C22">
-        <v>0.095</v>
+        <v>0.022</v>
       </c>
       <c r="D22">
-        <v>0.79</v>
+        <v>0.309</v>
       </c>
       <c r="E22">
-        <v>0.004</v>
+        <v>0.753</v>
       </c>
       <c r="F22">
-        <v>0.275</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3502,19 +5582,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.519</v>
+        <v>0.2</v>
       </c>
       <c r="C23">
-        <v>0.829</v>
+        <v>0.21</v>
       </c>
       <c r="D23">
-        <v>0.597</v>
+        <v>0.578</v>
       </c>
       <c r="E23">
-        <v>0.402</v>
+        <v>0.661</v>
       </c>
       <c r="F23">
-        <v>0.262</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3522,19 +5602,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6909999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.666</v>
       </c>
       <c r="D24">
-        <v>0.513</v>
+        <v>0.294</v>
       </c>
       <c r="E24">
         <v>0.2</v>
       </c>
       <c r="F24">
-        <v>0.265</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3542,19 +5622,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.746</v>
+        <v>0.2</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>0.971</v>
       </c>
       <c r="D25">
-        <v>0.9389999999999999</v>
+        <v>0.989</v>
       </c>
       <c r="E25">
-        <v>0.2</v>
+        <v>0.519</v>
       </c>
       <c r="F25">
-        <v>0.267</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3562,19 +5642,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.982</v>
+        <v>0.2</v>
       </c>
       <c r="C26">
-        <v>0.712</v>
+        <v>0.8</v>
       </c>
       <c r="D26">
-        <v>0.781</v>
+        <v>0.194</v>
       </c>
       <c r="E26">
-        <v>0.116</v>
+        <v>0.658</v>
       </c>
       <c r="F26">
-        <v>0.264</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3582,19 +5662,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8080000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="C27">
-        <v>0.098</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.463</v>
+        <v>0.393</v>
       </c>
       <c r="E27">
-        <v>0.244</v>
+        <v>0.243</v>
       </c>
       <c r="F27">
-        <v>0.261</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3602,19 +5682,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.649</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
-        <v>0.2</v>
+        <v>0.522</v>
       </c>
       <c r="D28">
-        <v>0.336</v>
+        <v>0.973</v>
       </c>
       <c r="E28">
-        <v>0.014</v>
+        <v>0.287</v>
       </c>
       <c r="F28">
-        <v>0.264</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3622,19 +5702,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9399999999999999</v>
+        <v>0.196</v>
       </c>
       <c r="C29">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
-        <v>0.986</v>
+        <v>0.8</v>
       </c>
       <c r="E29">
-        <v>0.2</v>
+        <v>0.263</v>
       </c>
       <c r="F29">
-        <v>0.164</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3642,7 +5722,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="C30">
         <v>0.8</v>
@@ -3651,10 +5731,10 @@
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.2</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F30">
-        <v>0.104</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3662,7 +5742,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C31">
         <v>0.8</v>
@@ -3671,10 +5751,10 @@
         <v>0.8</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>0.736</v>
       </c>
       <c r="F31">
-        <v>0.165</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3682,7 +5762,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C32">
         <v>0.8</v>
@@ -3691,10 +5771,10 @@
         <v>0.8</v>
       </c>
       <c r="E32">
-        <v>0.008</v>
+        <v>0.717</v>
       </c>
       <c r="F32">
-        <v>0.423</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3702,19 +5782,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C33">
-        <v>0.542</v>
+        <v>0.8</v>
       </c>
       <c r="D33">
-        <v>0.989</v>
+        <v>0.8</v>
       </c>
       <c r="E33">
-        <v>0.2</v>
+        <v>0.151</v>
       </c>
       <c r="F33">
-        <v>0.162</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3722,19 +5802,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
-        <v>0.535</v>
+        <v>0.8</v>
       </c>
       <c r="D34">
         <v>0.8</v>
       </c>
       <c r="E34">
-        <v>0.2</v>
+        <v>0.679</v>
       </c>
       <c r="F34">
-        <v>0.041</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3742,7 +5822,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C35">
         <v>0.8</v>
@@ -3751,10 +5831,10 @@
         <v>0.8</v>
       </c>
       <c r="E35">
-        <v>0.2</v>
+        <v>0.719</v>
       </c>
       <c r="F35">
-        <v>0.151</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3762,19 +5842,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8</v>
+        <v>0.21</v>
       </c>
       <c r="C36">
         <v>0.8</v>
       </c>
       <c r="D36">
-        <v>0.983</v>
+        <v>0.8</v>
       </c>
       <c r="E36">
-        <v>0.2</v>
+        <v>0.612</v>
       </c>
       <c r="F36">
-        <v>0.34</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3782,19 +5862,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
-        <v>0.508</v>
+        <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.966</v>
+        <v>0.8</v>
       </c>
       <c r="E37">
+        <v>0.62</v>
+      </c>
+      <c r="F37">
         <v>0.2</v>
-      </c>
-      <c r="F37">
-        <v>0.109</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3802,7 +5882,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8</v>
+        <v>0.276</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -3811,10 +5891,10 @@
         <v>0.8</v>
       </c>
       <c r="E38">
-        <v>0.022</v>
+        <v>0.8</v>
       </c>
       <c r="F38">
-        <v>0.094</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3822,7 +5902,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8</v>
+        <v>0.269</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -3831,10 +5911,10 @@
         <v>0.8</v>
       </c>
       <c r="E39">
-        <v>0.022</v>
+        <v>0.8</v>
       </c>
       <c r="F39">
-        <v>0.07000000000000001</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3842,7 +5922,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8</v>
+        <v>0.029</v>
       </c>
       <c r="C40">
         <v>0.8</v>
@@ -3851,10 +5931,10 @@
         <v>0.8</v>
       </c>
       <c r="E40">
-        <v>0.126</v>
+        <v>0.724</v>
       </c>
       <c r="F40">
-        <v>0.163</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3862,7 +5942,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C41">
         <v>0.8</v>
@@ -3871,10 +5951,10 @@
         <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.101</v>
+        <v>0.793</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3882,7 +5962,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C42">
         <v>0.8</v>
@@ -3891,10 +5971,10 @@
         <v>0.8</v>
       </c>
       <c r="E42">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F42">
-        <v>0.166</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3902,7 +5982,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
         <v>0.8</v>
@@ -3911,10 +5991,10 @@
         <v>0.8</v>
       </c>
       <c r="E43">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F43">
-        <v>0.01</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3922,7 +6002,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -3931,10 +6011,10 @@
         <v>0.8</v>
       </c>
       <c r="E44">
-        <v>0.073</v>
+        <v>0.794</v>
       </c>
       <c r="F44">
-        <v>0.153</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3942,7 +6022,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8</v>
+        <v>0.266</v>
       </c>
       <c r="C45">
         <v>0.8</v>
@@ -3951,10 +6031,10 @@
         <v>0.8</v>
       </c>
       <c r="E45">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.395</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3962,7 +6042,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -3971,10 +6051,910 @@
         <v>0.8</v>
       </c>
       <c r="E46">
-        <v>0.125</v>
+        <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.099</v>
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.323</v>
+      </c>
+      <c r="C47">
+        <v>0.8</v>
+      </c>
+      <c r="D47">
+        <v>0.8</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+      <c r="F47">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.302</v>
+      </c>
+      <c r="C48">
+        <v>0.8</v>
+      </c>
+      <c r="D48">
+        <v>0.8</v>
+      </c>
+      <c r="E48">
+        <v>0.8</v>
+      </c>
+      <c r="F48">
+        <v>0.611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.228</v>
+      </c>
+      <c r="C49">
+        <v>0.8</v>
+      </c>
+      <c r="D49">
+        <v>0.8</v>
+      </c>
+      <c r="E49">
+        <v>0.861</v>
+      </c>
+      <c r="F49">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.065</v>
+      </c>
+      <c r="C50">
+        <v>0.8</v>
+      </c>
+      <c r="D50">
+        <v>0.8</v>
+      </c>
+      <c r="E50">
+        <v>0.86</v>
+      </c>
+      <c r="F50">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.022</v>
+      </c>
+      <c r="C51">
+        <v>0.8</v>
+      </c>
+      <c r="D51">
+        <v>0.8</v>
+      </c>
+      <c r="E51">
+        <v>0.8</v>
+      </c>
+      <c r="F51">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.2</v>
+      </c>
+      <c r="C52">
+        <v>0.8</v>
+      </c>
+      <c r="D52">
+        <v>0.8</v>
+      </c>
+      <c r="E52">
+        <v>0.863</v>
+      </c>
+      <c r="F52">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.2</v>
+      </c>
+      <c r="C53">
+        <v>0.8</v>
+      </c>
+      <c r="D53">
+        <v>0.8</v>
+      </c>
+      <c r="E53">
+        <v>0.858</v>
+      </c>
+      <c r="F53">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.309</v>
+      </c>
+      <c r="C54">
+        <v>0.8</v>
+      </c>
+      <c r="D54">
+        <v>0.8</v>
+      </c>
+      <c r="E54">
+        <v>0.8</v>
+      </c>
+      <c r="F54">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.124</v>
+      </c>
+      <c r="C55">
+        <v>0.8</v>
+      </c>
+      <c r="D55">
+        <v>0.8</v>
+      </c>
+      <c r="E55">
+        <v>0.8</v>
+      </c>
+      <c r="F55">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.328</v>
+      </c>
+      <c r="C56">
+        <v>0.8</v>
+      </c>
+      <c r="D56">
+        <v>0.8</v>
+      </c>
+      <c r="E56">
+        <v>0.8</v>
+      </c>
+      <c r="F56">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.325</v>
+      </c>
+      <c r="C57">
+        <v>0.8</v>
+      </c>
+      <c r="D57">
+        <v>0.8</v>
+      </c>
+      <c r="E57">
+        <v>0.8</v>
+      </c>
+      <c r="F57">
+        <v>0.651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.466</v>
+      </c>
+      <c r="C58">
+        <v>0.8</v>
+      </c>
+      <c r="D58">
+        <v>0.8</v>
+      </c>
+      <c r="E58">
+        <v>0.84</v>
+      </c>
+      <c r="F58">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.286</v>
+      </c>
+      <c r="C59">
+        <v>0.8</v>
+      </c>
+      <c r="D59">
+        <v>0.8</v>
+      </c>
+      <c r="E59">
+        <v>0.792</v>
+      </c>
+      <c r="F59">
+        <v>0.574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.27</v>
+      </c>
+      <c r="C60">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>0.8</v>
+      </c>
+      <c r="E60">
+        <v>0.8</v>
+      </c>
+      <c r="F60">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.194</v>
+      </c>
+      <c r="C61">
+        <v>0.984</v>
+      </c>
+      <c r="D61">
+        <v>0.8</v>
+      </c>
+      <c r="E61">
+        <v>0.716</v>
+      </c>
+      <c r="F61">
+        <v>0.5639999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.19</v>
+      </c>
+      <c r="C62">
+        <v>0.8</v>
+      </c>
+      <c r="D62">
+        <v>0.8</v>
+      </c>
+      <c r="E62">
+        <v>0.791</v>
+      </c>
+      <c r="F62">
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.33</v>
+      </c>
+      <c r="C63">
+        <v>0.8</v>
+      </c>
+      <c r="D63">
+        <v>0.8</v>
+      </c>
+      <c r="E63">
+        <v>0.8</v>
+      </c>
+      <c r="F63">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.307</v>
+      </c>
+      <c r="C64">
+        <v>0.8</v>
+      </c>
+      <c r="D64">
+        <v>0.8</v>
+      </c>
+      <c r="E64">
+        <v>0.8</v>
+      </c>
+      <c r="F64">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.515</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
+      <c r="D65">
+        <v>0.8</v>
+      </c>
+      <c r="E65">
+        <v>0.8</v>
+      </c>
+      <c r="F65">
+        <v>0.758</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.529</v>
+      </c>
+      <c r="C66">
+        <v>0.8</v>
+      </c>
+      <c r="D66">
+        <v>0.978</v>
+      </c>
+      <c r="E66">
+        <v>0.8</v>
+      </c>
+      <c r="F66">
+        <v>0.677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.633</v>
+      </c>
+      <c r="C67">
+        <v>0.8</v>
+      </c>
+      <c r="D67">
+        <v>0.8</v>
+      </c>
+      <c r="E67">
+        <v>0.825</v>
+      </c>
+      <c r="F67">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.68</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>0.8</v>
+      </c>
+      <c r="E68">
+        <v>0.837</v>
+      </c>
+      <c r="F68">
+        <v>0.776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.704</v>
+      </c>
+      <c r="C69">
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>0.8</v>
+      </c>
+      <c r="E69">
+        <v>0.8</v>
+      </c>
+      <c r="F69">
+        <v>0.6840000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.551</v>
+      </c>
+      <c r="C70">
+        <v>0.736</v>
+      </c>
+      <c r="D70">
+        <v>0.954</v>
+      </c>
+      <c r="E70">
+        <v>0.851</v>
+      </c>
+      <c r="F70">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.55</v>
+      </c>
+      <c r="C71">
+        <v>0.8</v>
+      </c>
+      <c r="D71">
+        <v>0.8</v>
+      </c>
+      <c r="E71">
+        <v>0.838</v>
+      </c>
+      <c r="F71">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.526</v>
+      </c>
+      <c r="C72">
+        <v>0.8</v>
+      </c>
+      <c r="D72">
+        <v>0.8</v>
+      </c>
+      <c r="E72">
+        <v>0.8</v>
+      </c>
+      <c r="F72">
+        <v>0.8070000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.647</v>
+      </c>
+      <c r="C73">
+        <v>0.8</v>
+      </c>
+      <c r="D73">
+        <v>0.958</v>
+      </c>
+      <c r="E73">
+        <v>0.8</v>
+      </c>
+      <c r="F73">
+        <v>0.718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.821</v>
+      </c>
+      <c r="C74">
+        <v>0.964</v>
+      </c>
+      <c r="D74">
+        <v>0.8</v>
+      </c>
+      <c r="E74">
+        <v>0.8</v>
+      </c>
+      <c r="F74">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.829</v>
+      </c>
+      <c r="C75">
+        <v>0.949</v>
+      </c>
+      <c r="D75">
+        <v>0.8</v>
+      </c>
+      <c r="E75">
+        <v>0.8</v>
+      </c>
+      <c r="F75">
+        <v>0.713</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.769</v>
+      </c>
+      <c r="C76">
+        <v>0.8</v>
+      </c>
+      <c r="D76">
+        <v>0.8</v>
+      </c>
+      <c r="E76">
+        <v>0.767</v>
+      </c>
+      <c r="F76">
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.912</v>
+      </c>
+      <c r="C77">
+        <v>0.8</v>
+      </c>
+      <c r="D77">
+        <v>0.8</v>
+      </c>
+      <c r="E77">
+        <v>0.797</v>
+      </c>
+      <c r="F77">
+        <v>0.893</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="C78">
+        <v>0.946</v>
+      </c>
+      <c r="D78">
+        <v>0.8</v>
+      </c>
+      <c r="E78">
+        <v>0.8</v>
+      </c>
+      <c r="F78">
+        <v>0.708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.929</v>
+      </c>
+      <c r="C79">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="D79">
+        <v>0.8</v>
+      </c>
+      <c r="E79">
+        <v>0.848</v>
+      </c>
+      <c r="F79">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.931</v>
+      </c>
+      <c r="C80">
+        <v>0.8</v>
+      </c>
+      <c r="D80">
+        <v>0.8</v>
+      </c>
+      <c r="E80">
+        <v>0.798</v>
+      </c>
+      <c r="F80">
+        <v>0.944</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.824</v>
+      </c>
+      <c r="C81">
+        <v>0.956</v>
+      </c>
+      <c r="D81">
+        <v>0.8</v>
+      </c>
+      <c r="E81">
+        <v>0.973</v>
+      </c>
+      <c r="F81">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.885</v>
+      </c>
+      <c r="C82">
+        <v>0.971</v>
+      </c>
+      <c r="D82">
+        <v>0.8</v>
+      </c>
+      <c r="E82">
+        <v>0.963</v>
+      </c>
+      <c r="F82">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.8</v>
+      </c>
+      <c r="C83">
+        <v>0.8</v>
+      </c>
+      <c r="D83">
+        <v>0.8</v>
+      </c>
+      <c r="E83">
+        <v>0.8</v>
+      </c>
+      <c r="F83">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.8</v>
+      </c>
+      <c r="C84">
+        <v>0.8</v>
+      </c>
+      <c r="D84">
+        <v>0.858</v>
+      </c>
+      <c r="E84">
+        <v>0.8</v>
+      </c>
+      <c r="F84">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.8</v>
+      </c>
+      <c r="C85">
+        <v>0.8</v>
+      </c>
+      <c r="D85">
+        <v>0.8</v>
+      </c>
+      <c r="E85">
+        <v>0.8</v>
+      </c>
+      <c r="F85">
+        <v>0.843</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.8</v>
+      </c>
+      <c r="C86">
+        <v>0.8</v>
+      </c>
+      <c r="D86">
+        <v>0.8</v>
+      </c>
+      <c r="E86">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.8</v>
+      </c>
+      <c r="C87">
+        <v>0.8</v>
+      </c>
+      <c r="D87">
+        <v>0.8</v>
+      </c>
+      <c r="E87">
+        <v>0.8</v>
+      </c>
+      <c r="F87">
+        <v>0.8070000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.8</v>
+      </c>
+      <c r="C88">
+        <v>0.8</v>
+      </c>
+      <c r="D88">
+        <v>0.881</v>
+      </c>
+      <c r="E88">
+        <v>0.8</v>
+      </c>
+      <c r="F88">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.8</v>
+      </c>
+      <c r="C89">
+        <v>0.8</v>
+      </c>
+      <c r="D89">
+        <v>0.8</v>
+      </c>
+      <c r="E89">
+        <v>0.8</v>
+      </c>
+      <c r="F89">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.8</v>
+      </c>
+      <c r="C90">
+        <v>0.8</v>
+      </c>
+      <c r="D90">
+        <v>0.8</v>
+      </c>
+      <c r="E90">
+        <v>0.8</v>
+      </c>
+      <c r="F90">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.8</v>
+      </c>
+      <c r="C91">
+        <v>0.8</v>
+      </c>
+      <c r="D91">
+        <v>0.878</v>
+      </c>
+      <c r="E91">
+        <v>0.8</v>
+      </c>
+      <c r="F91">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -3984,7 +6964,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4072,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.551</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4080,7 +7060,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.448</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4088,7 +7068,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.432</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4096,7 +7076,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.294</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4104,7 +7084,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4112,7 +7092,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.515</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4120,7 +7100,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.28</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4128,7 +7108,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.345</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4136,7 +7116,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.55</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4144,7 +7124,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.337</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4152,7 +7132,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.384</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4160,7 +7140,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.356</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4168,7 +7148,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.522</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4176,7 +7156,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.374</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4184,7 +7164,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.47</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4192,7 +7172,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4200,7 +7180,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.375</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4208,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.293</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4216,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.625</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4224,7 +7204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.541</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4232,7 +7212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.553</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4240,7 +7220,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5659999999999999</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4248,7 +7228,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.539</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4256,7 +7236,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.475</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4264,7 +7244,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.55</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4272,7 +7252,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.625</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4280,7 +7260,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.517</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4288,7 +7268,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.503</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4296,7 +7276,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.498</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4304,7 +7284,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.538</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4312,7 +7292,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4320,7 +7300,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.553</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4328,7 +7308,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.522</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4336,7 +7316,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.525</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4344,7 +7324,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5610000000000001</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4352,7 +7332,367 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.525</v>
+        <v>0.536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.633</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.779</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.758</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.8090000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.8159999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/PSO.xlsx
+++ b/Experimentos2/PSO.xlsx
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.494</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.594</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.589</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.645</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.663</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.71</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.785</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.904</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.856</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.139</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.679</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.513</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.473</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -708,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.665</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.971</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -732,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.989</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -740,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.519</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -748,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.293</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -764,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -780,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.736</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.409</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -796,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.269</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -804,7 +804,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -828,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.554</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -836,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.302</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -852,7 +852,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.8</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -860,7 +860,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -868,7 +868,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.611</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -876,7 +876,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.466</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -884,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -900,7 +900,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -908,7 +908,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.646</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -916,7 +916,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.647</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -932,7 +932,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.958</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -940,7 +940,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -948,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.718</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -956,7 +956,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.885</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -964,7 +964,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.971</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -972,7 +972,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.963</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -988,7 +988,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.901</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.881</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.997</v>
+        <v>0.387</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.132</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C2">
-        <v>0.842</v>
+        <v>0.41</v>
       </c>
       <c r="D2">
-        <v>0.271</v>
+        <v>0.504</v>
       </c>
       <c r="E2">
-        <v>0.908</v>
+        <v>0.852</v>
       </c>
       <c r="F2">
-        <v>0.826</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.098</v>
+        <v>0.121</v>
       </c>
       <c r="C3">
-        <v>0.377</v>
+        <v>0.17</v>
       </c>
       <c r="D3">
-        <v>0.132</v>
+        <v>0.225</v>
       </c>
       <c r="E3">
-        <v>0.742</v>
+        <v>0.872</v>
       </c>
       <c r="F3">
-        <v>0.034</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.374</v>
+        <v>0.698</v>
       </c>
       <c r="C4">
-        <v>0.738</v>
+        <v>0.12</v>
       </c>
       <c r="D4">
-        <v>0.727</v>
+        <v>0.073</v>
       </c>
       <c r="E4">
-        <v>0.07099999999999999</v>
+        <v>0.221</v>
       </c>
       <c r="F4">
-        <v>0.141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.626</v>
+        <v>0.458</v>
       </c>
       <c r="C5">
-        <v>0.645</v>
+        <v>0.363</v>
       </c>
       <c r="D5">
-        <v>0.437</v>
+        <v>0.748</v>
       </c>
       <c r="E5">
-        <v>0.129</v>
+        <v>0.31</v>
       </c>
       <c r="F5">
-        <v>0.6840000000000001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.729</v>
+        <v>0.899</v>
       </c>
       <c r="C6">
-        <v>0.403</v>
+        <v>0.422</v>
       </c>
       <c r="D6">
-        <v>0.751</v>
+        <v>0.288</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.894</v>
       </c>
       <c r="F6">
-        <v>0.006</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.79</v>
+        <v>0.008</v>
       </c>
       <c r="C7">
-        <v>0.246</v>
+        <v>0.629</v>
       </c>
       <c r="D7">
-        <v>0.008999999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="E7">
-        <v>0.269</v>
+        <v>0.307</v>
       </c>
       <c r="F7">
-        <v>0.762</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.805</v>
+        <v>0.528</v>
       </c>
       <c r="C8">
-        <v>0.029</v>
+        <v>0.793</v>
       </c>
       <c r="D8">
-        <v>0.849</v>
+        <v>0.474</v>
       </c>
       <c r="E8">
-        <v>0.111</v>
+        <v>0.218</v>
       </c>
       <c r="F8">
-        <v>0.876</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.135</v>
+        <v>0.37</v>
       </c>
       <c r="C9">
-        <v>0.9360000000000001</v>
+        <v>0.916</v>
       </c>
       <c r="D9">
-        <v>0.639</v>
+        <v>0.33</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.658</v>
       </c>
       <c r="F9">
-        <v>0.913</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.505</v>
+        <v>0.545</v>
       </c>
       <c r="C10">
-        <v>0.522</v>
+        <v>0.914</v>
       </c>
       <c r="D10">
-        <v>0.026</v>
+        <v>0.79</v>
       </c>
       <c r="E10">
-        <v>0.485</v>
+        <v>0.001</v>
       </c>
       <c r="F10">
-        <v>0.998</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.099</v>
+        <v>0.667</v>
       </c>
       <c r="C11">
-        <v>0.6</v>
+        <v>0.297</v>
       </c>
       <c r="D11">
-        <v>0.181</v>
+        <v>0.344</v>
       </c>
       <c r="E11">
-        <v>0.624</v>
+        <v>0.585</v>
       </c>
       <c r="F11">
-        <v>0.522</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.06900000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C12">
-        <v>0.264</v>
+        <v>0.119</v>
       </c>
       <c r="D12">
-        <v>0.092</v>
+        <v>0.158</v>
       </c>
       <c r="E12">
-        <v>0.519</v>
+        <v>0.61</v>
       </c>
       <c r="F12">
-        <v>0.024</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.256</v>
+        <v>0.483</v>
       </c>
       <c r="C13">
-        <v>0.506</v>
+        <v>0.074</v>
       </c>
       <c r="D13">
-        <v>0.509</v>
+        <v>0.051</v>
       </c>
       <c r="E13">
-        <v>0.059</v>
+        <v>0.164</v>
       </c>
       <c r="F13">
-        <v>0.114</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.426</v>
+        <v>0.309</v>
       </c>
       <c r="C14">
-        <v>0.431</v>
+        <v>0.234</v>
       </c>
       <c r="D14">
-        <v>0.312</v>
+        <v>0.53</v>
       </c>
       <c r="E14">
-        <v>0.134</v>
+        <v>0.261</v>
       </c>
       <c r="F14">
-        <v>0.501</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.493</v>
+        <v>0.612</v>
       </c>
       <c r="C15">
-        <v>0.253</v>
+        <v>0.267</v>
       </c>
       <c r="D15">
-        <v>0.517</v>
+        <v>0.193</v>
       </c>
       <c r="E15">
-        <v>0.6909999999999999</v>
+        <v>0.618</v>
       </c>
       <c r="F15">
-        <v>0.027</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.53</v>
+        <v>-0.017</v>
       </c>
       <c r="C16">
-        <v>0.133</v>
+        <v>0.401</v>
       </c>
       <c r="D16">
-        <v>0.006</v>
+        <v>0.062</v>
       </c>
       <c r="E16">
-        <v>0.232</v>
+        <v>0.259</v>
       </c>
       <c r="F16">
-        <v>0.5570000000000001</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.534</v>
+        <v>0.34</v>
       </c>
       <c r="C17">
-        <v>-0.027</v>
+        <v>0.508</v>
       </c>
       <c r="D17">
-        <v>0.594</v>
+        <v>0.332</v>
       </c>
       <c r="E17">
-        <v>0.143</v>
+        <v>0.218</v>
       </c>
       <c r="F17">
-        <v>0.637</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.06</v>
+        <v>0.224</v>
       </c>
       <c r="C18">
-        <v>0.6</v>
+        <v>0.586</v>
       </c>
       <c r="D18">
-        <v>0.447</v>
+        <v>0.231</v>
       </c>
       <c r="E18">
-        <v>0.438</v>
+        <v>0.549</v>
       </c>
       <c r="F18">
-        <v>0.663</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.314</v>
+        <v>0.342</v>
       </c>
       <c r="C19">
-        <v>0.302</v>
+        <v>0.576</v>
       </c>
       <c r="D19">
-        <v>0.018</v>
+        <v>0.553</v>
       </c>
       <c r="E19">
-        <v>0.397</v>
+        <v>0.058</v>
       </c>
       <c r="F19">
-        <v>0.723</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.057</v>
+        <v>-0.31</v>
       </c>
       <c r="C20">
-        <v>-0.858</v>
+        <v>-0.457</v>
       </c>
       <c r="D20">
-        <v>0.497</v>
+        <v>-0.093</v>
       </c>
       <c r="E20">
-        <v>-0.785</v>
+        <v>-0.307</v>
       </c>
       <c r="F20">
-        <v>-0.312</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.008999999999999999</v>
+        <v>0.728</v>
       </c>
       <c r="C21">
-        <v>0.336</v>
+        <v>0.171</v>
       </c>
       <c r="D21">
-        <v>0.715</v>
+        <v>0.353</v>
       </c>
       <c r="E21">
-        <v>-0.516</v>
+        <v>-0.357</v>
       </c>
       <c r="F21">
-        <v>0.236</v>
+        <v>-0.153</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.35</v>
+        <v>0.008</v>
       </c>
       <c r="C22">
-        <v>-0.541</v>
+        <v>0.322</v>
       </c>
       <c r="D22">
-        <v>-0.266</v>
+        <v>0.605</v>
       </c>
       <c r="E22">
-        <v>0.618</v>
+        <v>0.743</v>
       </c>
       <c r="F22">
-        <v>0.162</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.662</v>
+        <v>0.314</v>
       </c>
       <c r="C23">
-        <v>-0.283</v>
+        <v>-0.262</v>
       </c>
       <c r="D23">
-        <v>0.203</v>
+        <v>-0.516</v>
       </c>
       <c r="E23">
-        <v>0.469</v>
+        <v>0.54</v>
       </c>
       <c r="F23">
-        <v>-0.213</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.787</v>
+        <v>-0.235</v>
       </c>
       <c r="C24">
-        <v>0.347</v>
+        <v>-0.388</v>
       </c>
       <c r="D24">
-        <v>-0.293</v>
+        <v>0.263</v>
       </c>
       <c r="E24">
-        <v>-0.945</v>
+        <v>-0.384</v>
       </c>
       <c r="F24">
-        <v>0.256</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.859</v>
+        <v>0.888</v>
       </c>
       <c r="C25">
-        <v>0.767</v>
+        <v>-0.879</v>
       </c>
       <c r="D25">
-        <v>0.917</v>
+        <v>0.579</v>
       </c>
       <c r="E25">
-        <v>0.229</v>
+        <v>0.545</v>
       </c>
       <c r="F25">
-        <v>-0.267</v>
+        <v>-0.408</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.873</v>
+        <v>0.241</v>
       </c>
       <c r="C26">
-        <v>1.333</v>
+        <v>-1.271</v>
       </c>
       <c r="D26">
-        <v>-0.466</v>
+        <v>-0.056</v>
       </c>
       <c r="E26">
-        <v>0.468</v>
+        <v>0.667</v>
       </c>
       <c r="F26">
-        <v>-0.345</v>
+        <v>-0.454</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.028</v>
+        <v>0.444</v>
       </c>
       <c r="C27">
-        <v>-0.923</v>
+        <v>-1.559</v>
       </c>
       <c r="D27">
+        <v>0.181</v>
+      </c>
+      <c r="E27">
         <v>-0.12</v>
       </c>
-      <c r="E27">
-        <v>-0.23</v>
-      </c>
       <c r="F27">
-        <v>-0.371</v>
+        <v>-0.495</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.489</v>
+        <v>0.227</v>
       </c>
       <c r="C28">
-        <v>0.137</v>
+        <v>-1.531</v>
       </c>
       <c r="D28">
-        <v>0.889</v>
+        <v>-0.576</v>
       </c>
       <c r="E28">
-        <v>-0.161</v>
+        <v>1.05</v>
       </c>
       <c r="F28">
-        <v>-0.429</v>
+        <v>-0.436</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.106</v>
+        <v>0.496</v>
       </c>
       <c r="C29">
-        <v>0.977</v>
+        <v>-0.32</v>
       </c>
       <c r="D29">
-        <v>0.85</v>
+        <v>0.739</v>
       </c>
       <c r="E29">
-        <v>0.063</v>
+        <v>0.739</v>
       </c>
       <c r="F29">
-        <v>-0.264</v>
+        <v>-0.121</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.109</v>
+        <v>0.609</v>
       </c>
       <c r="C30">
-        <v>0.888</v>
+        <v>-0.171</v>
       </c>
       <c r="D30">
-        <v>0.742</v>
+        <v>0.518</v>
       </c>
       <c r="E30">
-        <v>0.474</v>
+        <v>0.763</v>
       </c>
       <c r="F30">
-        <v>0.155</v>
+        <v>-0.119</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.245</v>
+        <v>0.528</v>
       </c>
       <c r="C31">
-        <v>1.563</v>
+        <v>-0.292</v>
       </c>
       <c r="D31">
-        <v>1.23</v>
+        <v>0.392</v>
       </c>
       <c r="E31">
-        <v>-0.017</v>
+        <v>0.288</v>
       </c>
       <c r="F31">
-        <v>0.111</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.463</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C32">
-        <v>1.359</v>
+        <v>0.156</v>
       </c>
       <c r="D32">
-        <v>0.998</v>
+        <v>0.951</v>
       </c>
       <c r="E32">
-        <v>0.056</v>
+        <v>0.384</v>
       </c>
       <c r="F32">
-        <v>-0.15</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.551</v>
+        <v>0.498</v>
       </c>
       <c r="C33">
-        <v>0.867</v>
+        <v>-0.272</v>
       </c>
       <c r="D33">
-        <v>1.242</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E33">
-        <v>-0.049</v>
+        <v>0.773</v>
       </c>
       <c r="F33">
-        <v>0.182</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.601</v>
+        <v>0.622</v>
       </c>
       <c r="C34">
-        <v>0.537</v>
+        <v>-0.615</v>
       </c>
       <c r="D34">
-        <v>0.642</v>
+        <v>0.405</v>
       </c>
       <c r="E34">
-        <v>0.16</v>
+        <v>0.382</v>
       </c>
       <c r="F34">
-        <v>-0.187</v>
+        <v>-0.286</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.611</v>
+        <v>0.548</v>
       </c>
       <c r="C35">
-        <v>1.283</v>
+        <v>-0.89</v>
       </c>
       <c r="D35">
-        <v>1.33</v>
+        <v>0.721</v>
       </c>
       <c r="E35">
-        <v>0.061</v>
+        <v>0.333</v>
       </c>
       <c r="F35">
-        <v>-0.242</v>
+        <v>-0.318</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.099</v>
+        <v>0.569</v>
       </c>
       <c r="C36">
-        <v>0.9320000000000001</v>
+        <v>-1.091</v>
       </c>
       <c r="D36">
-        <v>1.157</v>
+        <v>0.604</v>
       </c>
       <c r="E36">
-        <v>0.369</v>
+        <v>0.68</v>
       </c>
       <c r="F36">
-        <v>-0.26</v>
+        <v>-0.347</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.342</v>
+        <v>0.543</v>
       </c>
       <c r="C37">
-        <v>1.015</v>
+        <v>-1.072</v>
       </c>
       <c r="D37">
-        <v>0.656</v>
+        <v>0.98</v>
       </c>
       <c r="E37">
-        <v>0.333</v>
+        <v>0.854</v>
       </c>
       <c r="F37">
-        <v>-0.301</v>
+        <v>-0.305</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
       <c r="C38">
-        <v>0.6840000000000001</v>
+        <v>-0.224</v>
       </c>
       <c r="D38">
-        <v>0.595</v>
+        <v>0.517</v>
       </c>
       <c r="E38">
-        <v>0.952</v>
+        <v>0.517</v>
       </c>
       <c r="F38">
-        <v>-0.068</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.047</v>
+        <v>0.614</v>
       </c>
       <c r="C39">
-        <v>0.622</v>
+        <v>-0.06</v>
       </c>
       <c r="D39">
-        <v>0.519</v>
+        <v>0.363</v>
       </c>
       <c r="E39">
-        <v>0.673</v>
+        <v>0.534</v>
       </c>
       <c r="F39">
-        <v>0.081</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.171</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="C40">
-        <v>1.094</v>
+        <v>-0.125</v>
       </c>
       <c r="D40">
-        <v>0.861</v>
+        <v>0.274</v>
       </c>
       <c r="E40">
-        <v>-0.012</v>
+        <v>0.202</v>
       </c>
       <c r="F40">
-        <v>0.078</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.324</v>
+        <v>0.579</v>
       </c>
       <c r="C41">
-        <v>0.951</v>
+        <v>0.13</v>
       </c>
       <c r="D41">
-        <v>0.699</v>
+        <v>0.666</v>
       </c>
       <c r="E41">
-        <v>0.076</v>
+        <v>0.269</v>
       </c>
       <c r="F41">
-        <v>0.008</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.386</v>
+        <v>0.349</v>
       </c>
       <c r="C42">
-        <v>0.607</v>
+        <v>-0.19</v>
       </c>
       <c r="D42">
-        <v>0.869</v>
+        <v>0.393</v>
       </c>
       <c r="E42">
-        <v>1.088</v>
+        <v>0.541</v>
       </c>
       <c r="F42">
-        <v>0.102</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.421</v>
+        <v>0.623</v>
       </c>
       <c r="C43">
-        <v>0.376</v>
+        <v>-0.43</v>
       </c>
       <c r="D43">
-        <v>0.449</v>
+        <v>0.283</v>
       </c>
       <c r="E43">
-        <v>0.221</v>
+        <v>0.267</v>
       </c>
       <c r="F43">
-        <v>-0.002</v>
+        <v>-0.197</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.428</v>
+        <v>0.571</v>
       </c>
       <c r="C44">
-        <v>0.898</v>
+        <v>-0.623</v>
       </c>
       <c r="D44">
-        <v>0.931</v>
+        <v>0.505</v>
       </c>
       <c r="E44">
-        <v>0.075</v>
+        <v>0.233</v>
       </c>
       <c r="F44">
-        <v>-0.017</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.056</v>
+        <v>0.586</v>
       </c>
       <c r="C45">
-        <v>0.652</v>
+        <v>-0.764</v>
       </c>
       <c r="D45">
-        <v>0.8100000000000001</v>
+        <v>0.423</v>
       </c>
       <c r="E45">
-        <v>0.496</v>
+        <v>0.476</v>
       </c>
       <c r="F45">
-        <v>-0.022</v>
+        <v>-0.239</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.239</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C46">
-        <v>0.71</v>
+        <v>-0.75</v>
       </c>
       <c r="D46">
-        <v>0.459</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E46">
-        <v>0.456</v>
+        <v>0.598</v>
       </c>
       <c r="F46">
-        <v>-0.121</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.047</v>
+        <v>0.28</v>
       </c>
       <c r="C47">
-        <v>0.479</v>
+        <v>0.089</v>
       </c>
       <c r="D47">
-        <v>0.416</v>
+        <v>0.362</v>
       </c>
       <c r="E47">
-        <v>0.666</v>
+        <v>0.362</v>
       </c>
       <c r="F47">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.033</v>
+        <v>0.43</v>
       </c>
       <c r="C48">
-        <v>0.435</v>
+        <v>0.386</v>
       </c>
       <c r="D48">
-        <v>0.363</v>
+        <v>0.254</v>
       </c>
       <c r="E48">
-        <v>0.471</v>
+        <v>0.374</v>
       </c>
       <c r="F48">
-        <v>0.057</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.199</v>
+        <v>0.39</v>
       </c>
       <c r="C49">
-        <v>0.766</v>
+        <v>0.494</v>
       </c>
       <c r="D49">
-        <v>0.603</v>
+        <v>0.192</v>
       </c>
       <c r="E49">
-        <v>0.137</v>
+        <v>0.141</v>
       </c>
       <c r="F49">
-        <v>0.083</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.135</v>
+        <v>0.405</v>
       </c>
       <c r="C50">
-        <v>0.666</v>
+        <v>0.091</v>
       </c>
       <c r="D50">
-        <v>0.489</v>
+        <v>0.466</v>
       </c>
       <c r="E50">
-        <v>0.067</v>
+        <v>0.188</v>
       </c>
       <c r="F50">
-        <v>0.177</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.178</v>
+        <v>0.244</v>
       </c>
       <c r="C51">
-        <v>0.425</v>
+        <v>0.501</v>
       </c>
       <c r="D51">
-        <v>0.608</v>
+        <v>0.275</v>
       </c>
       <c r="E51">
-        <v>0.762</v>
+        <v>0.379</v>
       </c>
       <c r="F51">
-        <v>0.064</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.203</v>
+        <v>0.436</v>
       </c>
       <c r="C52">
-        <v>0.263</v>
+        <v>-0.055</v>
       </c>
       <c r="D52">
-        <v>0.314</v>
+        <v>0.198</v>
       </c>
       <c r="E52">
-        <v>-0.037</v>
+        <v>0.187</v>
       </c>
       <c r="F52">
-        <v>0.191</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.208</v>
+        <v>0.4</v>
       </c>
       <c r="C53">
-        <v>0.629</v>
+        <v>-0.191</v>
       </c>
       <c r="D53">
-        <v>0.652</v>
+        <v>0.353</v>
       </c>
       <c r="E53">
-        <v>0.064</v>
+        <v>0.163</v>
       </c>
       <c r="F53">
-        <v>0.21</v>
+        <v>-0.105</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.043</v>
+        <v>0.41</v>
       </c>
       <c r="C54">
-        <v>0.456</v>
+        <v>-0.289</v>
       </c>
       <c r="D54">
-        <v>0.5669999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="E54">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="F54">
-        <v>0.216</v>
+        <v>-0.119</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.076</v>
+        <v>0.398</v>
       </c>
       <c r="C55">
-        <v>0.497</v>
+        <v>-0.279</v>
       </c>
       <c r="D55">
-        <v>0.321</v>
+        <v>0.48</v>
       </c>
       <c r="E55">
-        <v>0.319</v>
+        <v>0.419</v>
       </c>
       <c r="F55">
-        <v>0.118</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.005</v>
+        <v>0.196</v>
       </c>
       <c r="C56">
-        <v>0.335</v>
+        <v>0.555</v>
       </c>
       <c r="D56">
-        <v>0.291</v>
+        <v>0.653</v>
       </c>
       <c r="E56">
-        <v>0.466</v>
+        <v>0.524</v>
       </c>
       <c r="F56">
-        <v>0.276</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.023</v>
+        <v>0.301</v>
       </c>
       <c r="C57">
-        <v>0.304</v>
+        <v>0.338</v>
       </c>
       <c r="D57">
-        <v>0.254</v>
+        <v>0.578</v>
       </c>
       <c r="E57">
-        <v>0.33</v>
+        <v>0.532</v>
       </c>
       <c r="F57">
-        <v>0.04</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.238</v>
+        <v>0.273</v>
       </c>
       <c r="C58">
-        <v>0.536</v>
+        <v>0.346</v>
       </c>
       <c r="D58">
-        <v>0.422</v>
+        <v>0.134</v>
       </c>
       <c r="E58">
-        <v>-0.021</v>
+        <v>0.099</v>
       </c>
       <c r="F58">
-        <v>0.076</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.221</v>
+        <v>0.283</v>
       </c>
       <c r="C59">
-        <v>0.466</v>
+        <v>0.307</v>
       </c>
       <c r="D59">
-        <v>0.342</v>
+        <v>0.726</v>
       </c>
       <c r="E59">
-        <v>-0.068</v>
+        <v>0.041</v>
       </c>
       <c r="F59">
-        <v>0.244</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.248</v>
+        <v>0.171</v>
       </c>
       <c r="C60">
-        <v>0.297</v>
+        <v>0.39</v>
       </c>
       <c r="D60">
-        <v>0.426</v>
+        <v>0.592</v>
       </c>
       <c r="E60">
-        <v>0.533</v>
+        <v>0.536</v>
       </c>
       <c r="F60">
-        <v>0.035</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.006</v>
+        <v>0.305</v>
       </c>
       <c r="C61">
-        <v>0.184</v>
+        <v>0.749</v>
       </c>
       <c r="D61">
-        <v>0.22</v>
+        <v>0.126</v>
       </c>
       <c r="E61">
-        <v>-0.147</v>
+        <v>0.043</v>
       </c>
       <c r="F61">
-        <v>0.269</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.01</v>
+        <v>0.28</v>
       </c>
       <c r="C62">
-        <v>0.44</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D62">
-        <v>0.456</v>
+        <v>0.647</v>
       </c>
       <c r="E62">
-        <v>-0.067</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F62">
-        <v>0.303</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.021</v>
+        <v>0.287</v>
       </c>
       <c r="C63">
-        <v>0.319</v>
+        <v>0.473</v>
       </c>
       <c r="D63">
-        <v>0.397</v>
+        <v>0.607</v>
       </c>
       <c r="E63">
-        <v>0.243</v>
+        <v>0.504</v>
       </c>
       <c r="F63">
-        <v>0.315</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.183</v>
+        <v>0.279</v>
       </c>
       <c r="C64">
-        <v>0.348</v>
+        <v>0.48</v>
       </c>
       <c r="D64">
-        <v>0.225</v>
+        <v>0.736</v>
       </c>
       <c r="E64">
-        <v>0.223</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F64">
-        <v>0.259</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.187</v>
+        <v>0.104</v>
       </c>
       <c r="C65">
-        <v>0.234</v>
+        <v>0.505</v>
       </c>
       <c r="D65">
-        <v>0.204</v>
+        <v>0.457</v>
       </c>
       <c r="E65">
-        <v>0.403</v>
+        <v>0.367</v>
       </c>
       <c r="F65">
-        <v>0.254</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.204</v>
+        <v>0.438</v>
       </c>
       <c r="C66">
-        <v>0.213</v>
+        <v>0.372</v>
       </c>
       <c r="D66">
-        <v>0.178</v>
+        <v>0.405</v>
       </c>
       <c r="E66">
-        <v>0.308</v>
+        <v>0.372</v>
       </c>
       <c r="F66">
-        <v>0.026</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.167</v>
+        <v>0.418</v>
       </c>
       <c r="C67">
-        <v>0.375</v>
+        <v>0.293</v>
       </c>
       <c r="D67">
-        <v>0.295</v>
+        <v>0.094</v>
       </c>
       <c r="E67">
-        <v>-0.015</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="F67">
-        <v>0.053</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.394</v>
+        <v>0.425</v>
       </c>
       <c r="C68">
-        <v>0.326</v>
+        <v>0.589</v>
       </c>
       <c r="D68">
-        <v>0.239</v>
+        <v>0.508</v>
       </c>
       <c r="E68">
-        <v>0.045</v>
+        <v>0.029</v>
       </c>
       <c r="F68">
-        <v>0.202</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.434</v>
+        <v>0.12</v>
       </c>
       <c r="C69">
-        <v>0.208</v>
+        <v>0.273</v>
       </c>
       <c r="D69">
-        <v>0.298</v>
+        <v>0.414</v>
       </c>
       <c r="E69">
-        <v>0.45</v>
+        <v>0.375</v>
       </c>
       <c r="F69">
-        <v>0.014</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.357</v>
+        <v>0.441</v>
       </c>
       <c r="C70">
-        <v>-0.248</v>
+        <v>0.539</v>
       </c>
       <c r="D70">
-        <v>0.154</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E70">
-        <v>0.135</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>0.223</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.36</v>
+        <v>0.423</v>
       </c>
       <c r="C71">
-        <v>0.308</v>
+        <v>0.571</v>
       </c>
       <c r="D71">
-        <v>0.319</v>
+        <v>0.453</v>
       </c>
       <c r="E71">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="F71">
-        <v>0.254</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.196</v>
+        <v>0.428</v>
       </c>
       <c r="C72">
-        <v>0.223</v>
+        <v>0.798</v>
       </c>
       <c r="D72">
-        <v>0.278</v>
+        <v>0.425</v>
       </c>
       <c r="E72">
-        <v>0.247</v>
+        <v>0.353</v>
       </c>
       <c r="F72">
-        <v>0.264</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.34</v>
+        <v>0.423</v>
       </c>
       <c r="C73">
-        <v>0.244</v>
+        <v>0.788</v>
       </c>
       <c r="D73">
-        <v>0.158</v>
+        <v>0.515</v>
       </c>
       <c r="E73">
-        <v>0.233</v>
+        <v>0.395</v>
       </c>
       <c r="F73">
-        <v>0.262</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.306</v>
+        <v>0.073</v>
       </c>
       <c r="C74">
-        <v>0.164</v>
+        <v>0.353</v>
       </c>
       <c r="D74">
-        <v>0.472</v>
+        <v>0.516</v>
       </c>
       <c r="E74">
-        <v>0.282</v>
+        <v>0.389</v>
       </c>
       <c r="F74">
-        <v>0.161</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="C75">
-        <v>0.149</v>
+        <v>0.26</v>
       </c>
       <c r="D75">
-        <v>0.083</v>
+        <v>0.479</v>
       </c>
       <c r="E75">
-        <v>0.216</v>
+        <v>0.393</v>
       </c>
       <c r="F75">
-        <v>0.036</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.136</v>
+        <v>0.293</v>
       </c>
       <c r="C76">
-        <v>0.262</v>
+        <v>0.205</v>
       </c>
       <c r="D76">
-        <v>0.536</v>
+        <v>0.066</v>
       </c>
       <c r="E76">
-        <v>-0.058</v>
+        <v>0.048</v>
       </c>
       <c r="F76">
-        <v>0.045</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.232</v>
+        <v>0.297</v>
       </c>
       <c r="C77">
-        <v>0.228</v>
+        <v>0.412</v>
       </c>
       <c r="D77">
-        <v>0.496</v>
+        <v>0.551</v>
       </c>
       <c r="E77">
-        <v>-0.04</v>
+        <v>0.097</v>
       </c>
       <c r="F77">
-        <v>0.117</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.228</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C78">
-        <v>0.146</v>
+        <v>0.191</v>
       </c>
       <c r="D78">
-        <v>0.538</v>
+        <v>0.486</v>
       </c>
       <c r="E78">
-        <v>0.315</v>
+        <v>0.395</v>
       </c>
       <c r="F78">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.378</v>
+        <v>0.309</v>
       </c>
       <c r="C79">
-        <v>-0.043</v>
+        <v>0.377</v>
       </c>
       <c r="D79">
-        <v>0.116</v>
+        <v>0.074</v>
       </c>
       <c r="E79">
-        <v>-0.003</v>
+        <v>0.096</v>
       </c>
       <c r="F79">
-        <v>0.127</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.381</v>
+        <v>0.296</v>
       </c>
       <c r="C80">
-        <v>0.216</v>
+        <v>0.4</v>
       </c>
       <c r="D80">
-        <v>0.552</v>
+        <v>0.513</v>
       </c>
       <c r="E80">
-        <v>-0.04</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F80">
-        <v>0.142</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.298</v>
+        <v>0.3</v>
       </c>
       <c r="C81">
-        <v>0.156</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D81">
-        <v>0.524</v>
+        <v>0.493</v>
       </c>
       <c r="E81">
-        <v>0.173</v>
+        <v>0.38</v>
       </c>
       <c r="F81">
-        <v>0.147</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.238</v>
+        <v>0.296</v>
       </c>
       <c r="C82">
-        <v>0.171</v>
+        <v>0.552</v>
       </c>
       <c r="D82">
-        <v>0.111</v>
+        <v>0.556</v>
       </c>
       <c r="E82">
-        <v>0.163</v>
+        <v>0.409</v>
       </c>
       <c r="F82">
-        <v>0.183</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.299</v>
+        <v>-0.046</v>
       </c>
       <c r="C83">
-        <v>0.129</v>
+        <v>0.247</v>
       </c>
       <c r="D83">
-        <v>0.33</v>
+        <v>0.699</v>
       </c>
       <c r="E83">
-        <v>0.51</v>
+        <v>0.514</v>
       </c>
       <c r="F83">
-        <v>0.105</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.284</v>
+        <v>0.215</v>
       </c>
       <c r="C84">
-        <v>0.149</v>
+        <v>0.182</v>
       </c>
       <c r="D84">
-        <v>0.058</v>
+        <v>0.673</v>
       </c>
       <c r="E84">
-        <v>0.464</v>
+        <v>0.517</v>
       </c>
       <c r="F84">
-        <v>0.105</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.249</v>
+        <v>0.205</v>
       </c>
       <c r="C85">
-        <v>0.533</v>
+        <v>0.143</v>
       </c>
       <c r="D85">
-        <v>0.375</v>
+        <v>0.05</v>
       </c>
       <c r="E85">
-        <v>0.336</v>
+        <v>0.051</v>
       </c>
       <c r="F85">
-        <v>0.099</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.126</v>
+        <v>0.208</v>
       </c>
       <c r="C86">
-        <v>0.51</v>
+        <v>0.288</v>
       </c>
       <c r="D86">
-        <v>0.347</v>
+        <v>0.723</v>
       </c>
       <c r="E86">
-        <v>0.291</v>
+        <v>0.068</v>
       </c>
       <c r="F86">
-        <v>0.08500000000000001</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.097</v>
+        <v>-0.053</v>
       </c>
       <c r="C87">
-        <v>0.153</v>
+        <v>-0.257</v>
       </c>
       <c r="D87">
-        <v>0.377</v>
+        <v>0.678</v>
       </c>
       <c r="E87">
-        <v>0.533</v>
+        <v>0.518</v>
       </c>
       <c r="F87">
-        <v>0.099</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.206</v>
+        <v>0.216</v>
       </c>
       <c r="C88">
-        <v>0.539</v>
+        <v>0.264</v>
       </c>
       <c r="D88">
-        <v>0.081</v>
+        <v>0.052</v>
       </c>
       <c r="E88">
-        <v>0.219</v>
+        <v>0.067</v>
       </c>
       <c r="F88">
-        <v>0.083</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.206</v>
+        <v>0.207</v>
       </c>
       <c r="C89">
-        <v>0.501</v>
+        <v>0.28</v>
       </c>
       <c r="D89">
-        <v>0.386</v>
+        <v>0.697</v>
       </c>
       <c r="E89">
-        <v>0.289</v>
+        <v>0.059</v>
       </c>
       <c r="F89">
-        <v>0.081</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="C90">
-        <v>0.14</v>
+        <v>0.391</v>
       </c>
       <c r="D90">
-        <v>0.367</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="E90">
-        <v>0.102</v>
+        <v>0.508</v>
       </c>
       <c r="F90">
-        <v>0.08</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.167</v>
+        <v>0.207</v>
       </c>
       <c r="C91">
-        <v>0.12</v>
+        <v>0.386</v>
       </c>
       <c r="D91">
-        <v>0.078</v>
+        <v>0.727</v>
       </c>
       <c r="E91">
-        <v>0.114</v>
+        <v>0.528</v>
       </c>
       <c r="F91">
-        <v>0.128</v>
+        <v>0.101</v>
       </c>
     </row>
   </sheetData>
@@ -3512,19 +3512,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.147</v>
+        <v>0.715</v>
       </c>
       <c r="C11">
-        <v>0.647</v>
+        <v>0.344</v>
       </c>
       <c r="D11">
-        <v>0.251</v>
+        <v>0.414</v>
       </c>
       <c r="E11">
-        <v>0.711</v>
+        <v>0.672</v>
       </c>
       <c r="F11">
-        <v>0.712</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3532,19 +3532,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.122</v>
+        <v>0.138</v>
       </c>
       <c r="C12">
-        <v>0.316</v>
+        <v>0.171</v>
       </c>
       <c r="D12">
-        <v>0.158</v>
+        <v>0.224</v>
       </c>
       <c r="E12">
-        <v>0.6</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F12">
-        <v>0.082</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3552,19 +3552,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.313</v>
+        <v>0.54</v>
       </c>
       <c r="C13">
-        <v>0.5629999999999999</v>
+        <v>0.131</v>
       </c>
       <c r="D13">
-        <v>0.575</v>
+        <v>0.117</v>
       </c>
       <c r="E13">
-        <v>0.135</v>
+        <v>0.24</v>
       </c>
       <c r="F13">
-        <v>0.136</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3572,19 +3572,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.488</v>
+        <v>0.371</v>
       </c>
       <c r="C14">
-        <v>0.493</v>
+        <v>0.296</v>
       </c>
       <c r="D14">
-        <v>0.375</v>
+        <v>0.593</v>
       </c>
       <c r="E14">
-        <v>0.192</v>
+        <v>0.319</v>
       </c>
       <c r="F14">
-        <v>0.508</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3592,19 +3592,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5590000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="C15">
-        <v>0.319</v>
+        <v>0.333</v>
       </c>
       <c r="D15">
-        <v>0.587</v>
+        <v>0.263</v>
       </c>
       <c r="E15">
-        <v>0.776</v>
+        <v>0.703</v>
       </c>
       <c r="F15">
-        <v>0.031</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3612,19 +3612,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.053</v>
       </c>
       <c r="C16">
-        <v>0.204</v>
+        <v>0.472</v>
       </c>
       <c r="D16">
-        <v>0.07199999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="E16">
-        <v>0.29</v>
+        <v>0.317</v>
       </c>
       <c r="F16">
-        <v>0.5600000000000001</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3632,19 +3632,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.609</v>
+        <v>0.415</v>
       </c>
       <c r="C17">
-        <v>0.048</v>
+        <v>0.583</v>
       </c>
       <c r="D17">
-        <v>0.66</v>
+        <v>0.398</v>
       </c>
       <c r="E17">
-        <v>0.19</v>
+        <v>0.265</v>
       </c>
       <c r="F17">
-        <v>0.639</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3652,19 +3652,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.139</v>
+        <v>0.303</v>
       </c>
       <c r="C18">
-        <v>0.679</v>
+        <v>0.665</v>
       </c>
       <c r="D18">
-        <v>0.513</v>
+        <v>0.297</v>
       </c>
       <c r="E18">
-        <v>0.473</v>
+        <v>0.584</v>
       </c>
       <c r="F18">
-        <v>0.665</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3672,19 +3672,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.397</v>
+        <v>0.425</v>
       </c>
       <c r="C19">
-        <v>0.385</v>
+        <v>0.659</v>
       </c>
       <c r="D19">
-        <v>0.08400000000000001</v>
+        <v>0.619</v>
       </c>
       <c r="E19">
-        <v>0.448</v>
+        <v>0.109</v>
       </c>
       <c r="F19">
-        <v>0.723</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3692,19 +3692,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09</v>
+        <v>0.405</v>
       </c>
       <c r="C20">
         <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.748</v>
+        <v>0.321</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>0.365</v>
       </c>
       <c r="F20">
-        <v>0.4</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3712,19 +3712,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.113</v>
+        <v>0.866</v>
       </c>
       <c r="C21">
-        <v>0.652</v>
+        <v>0.342</v>
       </c>
       <c r="D21">
-        <v>0.873</v>
+        <v>0.577</v>
       </c>
       <c r="E21">
-        <v>0.08400000000000001</v>
+        <v>0.334</v>
       </c>
       <c r="F21">
-        <v>0.318</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3732,19 +3732,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2</v>
+        <v>0.548</v>
       </c>
       <c r="C22">
-        <v>0.022</v>
+        <v>0.453</v>
       </c>
       <c r="D22">
-        <v>0.309</v>
+        <v>0.722</v>
       </c>
       <c r="E22">
-        <v>0.753</v>
+        <v>0.983</v>
       </c>
       <c r="F22">
-        <v>0.298</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3752,19 +3752,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C23">
-        <v>0.21</v>
+        <v>0.034</v>
       </c>
       <c r="D23">
-        <v>0.578</v>
+        <v>0.077</v>
       </c>
       <c r="E23">
-        <v>0.661</v>
+        <v>0.859</v>
       </c>
       <c r="F23">
-        <v>0.295</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3772,19 +3772,19 @@
         <v>22</v>
       </c>
       <c r="B24">
+        <v>0.443</v>
+      </c>
+      <c r="C24">
         <v>0.2</v>
       </c>
-      <c r="C24">
-        <v>0.666</v>
-      </c>
       <c r="D24">
-        <v>0.294</v>
+        <v>0.526</v>
       </c>
       <c r="E24">
-        <v>0.2</v>
+        <v>0.319</v>
       </c>
       <c r="F24">
-        <v>0.287</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3792,19 +3792,19 @@
         <v>23</v>
       </c>
       <c r="B25">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="C25">
         <v>0.2</v>
       </c>
-      <c r="C25">
-        <v>0.971</v>
-      </c>
       <c r="D25">
-        <v>0.989</v>
+        <v>0.707</v>
       </c>
       <c r="E25">
-        <v>0.519</v>
+        <v>0.862</v>
       </c>
       <c r="F25">
-        <v>0.293</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3812,19 +3812,19 @@
         <v>24</v>
       </c>
       <c r="B26">
+        <v>0.656</v>
+      </c>
+      <c r="C26">
         <v>0.2</v>
       </c>
-      <c r="C26">
-        <v>0.8</v>
-      </c>
       <c r="D26">
-        <v>0.194</v>
+        <v>0.342</v>
       </c>
       <c r="E26">
-        <v>0.658</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F26">
-        <v>0.294</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3832,19 +3832,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.111</v>
+        <v>0.747</v>
       </c>
       <c r="C27">
         <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.393</v>
+        <v>0.478</v>
       </c>
       <c r="E27">
-        <v>0.243</v>
+        <v>0.464</v>
       </c>
       <c r="F27">
-        <v>0.294</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3852,19 +3852,19 @@
         <v>26</v>
       </c>
       <c r="B28">
+        <v>0.652</v>
+      </c>
+      <c r="C28">
         <v>0.2</v>
       </c>
-      <c r="C28">
-        <v>0.522</v>
-      </c>
       <c r="D28">
-        <v>0.973</v>
+        <v>0.043</v>
       </c>
       <c r="E28">
-        <v>0.287</v>
+        <v>0.8</v>
       </c>
       <c r="F28">
-        <v>0.294</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3872,19 +3872,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.196</v>
+        <v>0.901</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D29">
         <v>0.8</v>
       </c>
       <c r="E29">
-        <v>0.263</v>
+        <v>0.8</v>
       </c>
       <c r="F29">
-        <v>0.136</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3892,19 +3892,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="C30">
-        <v>0.8</v>
+        <v>0.171</v>
       </c>
       <c r="D30">
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.5580000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F30">
-        <v>0.473</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3912,19 +3912,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C31">
-        <v>0.8</v>
+        <v>0.161</v>
       </c>
       <c r="D31">
         <v>0.8</v>
       </c>
       <c r="E31">
-        <v>0.736</v>
+        <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.409</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3932,19 +3932,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0.19</v>
       </c>
       <c r="D32">
         <v>0.8</v>
       </c>
       <c r="E32">
-        <v>0.717</v>
+        <v>0.8</v>
       </c>
       <c r="F32">
-        <v>0.145</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3952,19 +3952,19 @@
         <v>31</v>
       </c>
       <c r="B33">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="C33">
         <v>0.2</v>
       </c>
-      <c r="C33">
-        <v>0.8</v>
-      </c>
       <c r="D33">
         <v>0.8</v>
       </c>
       <c r="E33">
-        <v>0.151</v>
+        <v>0.8</v>
       </c>
       <c r="F33">
-        <v>0.469</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3972,19 +3972,19 @@
         <v>32</v>
       </c>
       <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34">
         <v>0.2</v>
       </c>
-      <c r="C34">
-        <v>0.8</v>
-      </c>
       <c r="D34">
         <v>0.8</v>
       </c>
       <c r="E34">
-        <v>0.679</v>
+        <v>0.8</v>
       </c>
       <c r="F34">
-        <v>0.106</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3992,19 +3992,19 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>0.8</v>
+      </c>
+      <c r="C35">
         <v>0.2</v>
       </c>
-      <c r="C35">
-        <v>0.8</v>
-      </c>
       <c r="D35">
         <v>0.8</v>
       </c>
       <c r="E35">
-        <v>0.719</v>
+        <v>0.8</v>
       </c>
       <c r="F35">
-        <v>0.052</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4012,19 +4012,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.21</v>
+        <v>0.8</v>
       </c>
       <c r="C36">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
         <v>0.8</v>
       </c>
       <c r="E36">
-        <v>0.612</v>
+        <v>0.8</v>
       </c>
       <c r="F36">
-        <v>0.034</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4032,16 +4032,16 @@
         <v>35</v>
       </c>
       <c r="B37">
+        <v>0.8</v>
+      </c>
+      <c r="C37">
         <v>0.2</v>
       </c>
-      <c r="C37">
-        <v>0.8</v>
-      </c>
       <c r="D37">
         <v>0.8</v>
       </c>
       <c r="E37">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="F37">
         <v>0.2</v>
@@ -4052,10 +4052,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.276</v>
+        <v>0.8</v>
       </c>
       <c r="C38">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D38">
         <v>0.8</v>
@@ -4064,7 +4064,7 @@
         <v>0.8</v>
       </c>
       <c r="F38">
-        <v>0.068</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4072,10 +4072,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.269</v>
+        <v>0.8</v>
       </c>
       <c r="C39">
-        <v>0.8</v>
+        <v>0.111</v>
       </c>
       <c r="D39">
         <v>0.8</v>
@@ -4084,7 +4084,7 @@
         <v>0.8</v>
       </c>
       <c r="F39">
-        <v>0.554</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4092,19 +4092,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.029</v>
+        <v>0.8</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>0.036</v>
       </c>
       <c r="D40">
         <v>0.8</v>
       </c>
       <c r="E40">
-        <v>0.724</v>
+        <v>0.8</v>
       </c>
       <c r="F40">
-        <v>0.487</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4112,19 +4112,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C41">
-        <v>0.8</v>
+        <v>0.32</v>
       </c>
       <c r="D41">
         <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.793</v>
+        <v>0.8</v>
       </c>
       <c r="F41">
-        <v>0.153</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4132,10 +4132,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C42">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="D42">
         <v>0.8</v>
@@ -4144,7 +4144,7 @@
         <v>0.8</v>
       </c>
       <c r="F42">
-        <v>0.571</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4152,19 +4152,19 @@
         <v>41</v>
       </c>
       <c r="B43">
+        <v>0.8</v>
+      </c>
+      <c r="C43">
         <v>0.2</v>
       </c>
-      <c r="C43">
-        <v>0.8</v>
-      </c>
       <c r="D43">
         <v>0.8</v>
       </c>
       <c r="E43">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F43">
-        <v>0.104</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4172,19 +4172,19 @@
         <v>42</v>
       </c>
       <c r="B44">
+        <v>0.8</v>
+      </c>
+      <c r="C44">
         <v>0.2</v>
       </c>
-      <c r="C44">
-        <v>0.8</v>
-      </c>
       <c r="D44">
         <v>0.8</v>
       </c>
       <c r="E44">
-        <v>0.794</v>
+        <v>0.8</v>
       </c>
       <c r="F44">
-        <v>0.035</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4192,10 +4192,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.266</v>
+        <v>0.8</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D45">
         <v>0.8</v>
@@ -4204,7 +4204,7 @@
         <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.012</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4212,11 +4212,11 @@
         <v>44</v>
       </c>
       <c r="B46">
+        <v>0.8</v>
+      </c>
+      <c r="C46">
         <v>0.2</v>
       </c>
-      <c r="C46">
-        <v>0.8</v>
-      </c>
       <c r="D46">
         <v>0.8</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.079</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4232,10 +4232,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.323</v>
+        <v>0.8</v>
       </c>
       <c r="C47">
-        <v>0.8</v>
+        <v>0.289</v>
       </c>
       <c r="D47">
         <v>0.8</v>
@@ -4244,7 +4244,7 @@
         <v>0.8</v>
       </c>
       <c r="F47">
-        <v>0.228</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4252,10 +4252,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.302</v>
+        <v>0.8</v>
       </c>
       <c r="C48">
-        <v>0.8</v>
+        <v>0.497</v>
       </c>
       <c r="D48">
         <v>0.8</v>
@@ -4264,7 +4264,7 @@
         <v>0.8</v>
       </c>
       <c r="F48">
-        <v>0.611</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4272,19 +4272,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.228</v>
+        <v>0.8</v>
       </c>
       <c r="C49">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="D49">
-        <v>0.8</v>
+        <v>0.992</v>
       </c>
       <c r="E49">
-        <v>0.861</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F49">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4292,19 +4292,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.065</v>
+        <v>0.8</v>
       </c>
       <c r="C50">
-        <v>0.8</v>
+        <v>0.411</v>
       </c>
       <c r="D50">
         <v>0.8</v>
       </c>
       <c r="E50">
-        <v>0.86</v>
+        <v>0.988</v>
       </c>
       <c r="F50">
-        <v>0.33</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4312,10 +4312,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.022</v>
+        <v>0.8</v>
       </c>
       <c r="C51">
-        <v>0.8</v>
+        <v>0.511</v>
       </c>
       <c r="D51">
         <v>0.8</v>
@@ -4324,7 +4324,7 @@
         <v>0.8</v>
       </c>
       <c r="F51">
-        <v>0.635</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4332,19 +4332,19 @@
         <v>50</v>
       </c>
       <c r="B52">
+        <v>0.8</v>
+      </c>
+      <c r="C52">
+        <v>0.145</v>
+      </c>
+      <c r="D52">
+        <v>0.998</v>
+      </c>
+      <c r="E52">
+        <v>0.987</v>
+      </c>
+      <c r="F52">
         <v>0.2</v>
-      </c>
-      <c r="C52">
-        <v>0.8</v>
-      </c>
-      <c r="D52">
-        <v>0.8</v>
-      </c>
-      <c r="E52">
-        <v>0.863</v>
-      </c>
-      <c r="F52">
-        <v>0.295</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4352,19 +4352,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C53">
-        <v>0.8</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D53">
         <v>0.8</v>
       </c>
       <c r="E53">
-        <v>0.858</v>
+        <v>0.963</v>
       </c>
       <c r="F53">
-        <v>0.245</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4372,10 +4372,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.309</v>
+        <v>0.8</v>
       </c>
       <c r="C54">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D54">
         <v>0.8</v>
@@ -4384,7 +4384,7 @@
         <v>0.8</v>
       </c>
       <c r="F54">
-        <v>0.228</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4392,10 +4392,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.124</v>
+        <v>0.8</v>
       </c>
       <c r="C55">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D55">
         <v>0.8</v>
@@ -4404,7 +4404,7 @@
         <v>0.8</v>
       </c>
       <c r="F55">
-        <v>0.197</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4412,10 +4412,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.328</v>
+        <v>0.996</v>
       </c>
       <c r="C56">
-        <v>0.8</v>
+        <v>0.844</v>
       </c>
       <c r="D56">
         <v>0.8</v>
@@ -4424,7 +4424,7 @@
         <v>0.8</v>
       </c>
       <c r="F56">
-        <v>0.504</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4432,10 +4432,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.325</v>
+        <v>0.8</v>
       </c>
       <c r="C57">
-        <v>0.8</v>
+        <v>0.835</v>
       </c>
       <c r="D57">
         <v>0.8</v>
@@ -4444,7 +4444,7 @@
         <v>0.8</v>
       </c>
       <c r="F57">
-        <v>0.651</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4452,19 +4452,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.466</v>
+        <v>0.8</v>
       </c>
       <c r="C58">
-        <v>0.8</v>
+        <v>0.876</v>
       </c>
       <c r="D58">
         <v>0.8</v>
       </c>
       <c r="E58">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="F58">
-        <v>0.646</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4472,19 +4472,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.286</v>
+        <v>0.8</v>
       </c>
       <c r="C59">
-        <v>0.8</v>
+        <v>0.718</v>
       </c>
       <c r="D59">
         <v>0.8</v>
       </c>
       <c r="E59">
-        <v>0.792</v>
+        <v>0.8</v>
       </c>
       <c r="F59">
-        <v>0.574</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4492,10 +4492,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.27</v>
+        <v>0.971</v>
       </c>
       <c r="C60">
-        <v>0.8</v>
+        <v>0.901</v>
       </c>
       <c r="D60">
         <v>0.8</v>
@@ -4504,7 +4504,7 @@
         <v>0.8</v>
       </c>
       <c r="F60">
-        <v>0.67</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4512,19 +4512,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.194</v>
+        <v>0.8</v>
       </c>
       <c r="C61">
-        <v>0.984</v>
+        <v>0.894</v>
       </c>
       <c r="D61">
         <v>0.8</v>
       </c>
       <c r="E61">
-        <v>0.716</v>
+        <v>0.8</v>
       </c>
       <c r="F61">
-        <v>0.5639999999999999</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4532,19 +4532,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="C62">
-        <v>0.8</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D62">
         <v>0.8</v>
       </c>
       <c r="E62">
-        <v>0.791</v>
+        <v>0.8</v>
       </c>
       <c r="F62">
-        <v>0.548</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4552,10 +4552,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="C63">
-        <v>0.8</v>
+        <v>0.673</v>
       </c>
       <c r="D63">
         <v>0.8</v>
@@ -4564,7 +4564,7 @@
         <v>0.8</v>
       </c>
       <c r="F63">
-        <v>0.543</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4572,10 +4572,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.307</v>
+        <v>0.8</v>
       </c>
       <c r="C64">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="D64">
         <v>0.8</v>
@@ -4584,7 +4584,7 @@
         <v>0.8</v>
       </c>
       <c r="F64">
-        <v>0.456</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4592,7 +4592,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.515</v>
+        <v>0.8</v>
       </c>
       <c r="C65">
         <v>0.8</v>
@@ -4604,7 +4604,7 @@
         <v>0.8</v>
       </c>
       <c r="F65">
-        <v>0.758</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4612,19 +4612,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.529</v>
+        <v>0.8</v>
       </c>
       <c r="C66">
         <v>0.8</v>
       </c>
       <c r="D66">
-        <v>0.978</v>
+        <v>0.8</v>
       </c>
       <c r="E66">
         <v>0.8</v>
       </c>
       <c r="F66">
-        <v>0.677</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4632,19 +4632,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.633</v>
+        <v>0.8</v>
       </c>
       <c r="C67">
         <v>0.8</v>
       </c>
       <c r="D67">
-        <v>0.8</v>
+        <v>0.894</v>
       </c>
       <c r="E67">
-        <v>0.825</v>
+        <v>0.869</v>
       </c>
       <c r="F67">
-        <v>0.699</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4652,7 +4652,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="C68">
         <v>0.8</v>
@@ -4661,10 +4661,10 @@
         <v>0.8</v>
       </c>
       <c r="E68">
-        <v>0.837</v>
+        <v>0.829</v>
       </c>
       <c r="F68">
-        <v>0.776</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4672,7 +4672,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.704</v>
+        <v>0.8</v>
       </c>
       <c r="C69">
         <v>0.8</v>
@@ -4684,7 +4684,7 @@
         <v>0.8</v>
       </c>
       <c r="F69">
-        <v>0.6840000000000001</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4692,19 +4692,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.551</v>
+        <v>0.8</v>
       </c>
       <c r="C70">
-        <v>0.736</v>
+        <v>0.8</v>
       </c>
       <c r="D70">
-        <v>0.954</v>
+        <v>0.888</v>
       </c>
       <c r="E70">
-        <v>0.851</v>
+        <v>0.83</v>
       </c>
       <c r="F70">
-        <v>0.787</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4712,7 +4712,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="C71">
         <v>0.8</v>
@@ -4721,10 +4721,10 @@
         <v>0.8</v>
       </c>
       <c r="E71">
-        <v>0.838</v>
+        <v>0.85</v>
       </c>
       <c r="F71">
-        <v>0.802</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4732,7 +4732,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.526</v>
+        <v>0.8</v>
       </c>
       <c r="C72">
         <v>0.8</v>
@@ -4744,7 +4744,7 @@
         <v>0.8</v>
       </c>
       <c r="F72">
-        <v>0.8070000000000001</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4752,19 +4752,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.647</v>
+        <v>0.8</v>
       </c>
       <c r="C73">
         <v>0.8</v>
       </c>
       <c r="D73">
-        <v>0.958</v>
+        <v>0.8</v>
       </c>
       <c r="E73">
         <v>0.8</v>
       </c>
       <c r="F73">
-        <v>0.718</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4772,10 +4772,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.821</v>
+        <v>0.873</v>
       </c>
       <c r="C74">
-        <v>0.964</v>
+        <v>0.8</v>
       </c>
       <c r="D74">
         <v>0.8</v>
@@ -4784,7 +4784,7 @@
         <v>0.8</v>
       </c>
       <c r="F74">
-        <v>0.919</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4792,10 +4792,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.829</v>
+        <v>0.8</v>
       </c>
       <c r="C75">
-        <v>0.949</v>
+        <v>0.8</v>
       </c>
       <c r="D75">
         <v>0.8</v>
@@ -4804,7 +4804,7 @@
         <v>0.8</v>
       </c>
       <c r="F75">
-        <v>0.713</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4812,19 +4812,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.769</v>
+        <v>0.8</v>
       </c>
       <c r="C76">
         <v>0.8</v>
       </c>
       <c r="D76">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="E76">
-        <v>0.767</v>
+        <v>0.917</v>
       </c>
       <c r="F76">
-        <v>0.744</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4832,7 +4832,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.912</v>
+        <v>0.8</v>
       </c>
       <c r="C77">
         <v>0.8</v>
@@ -4841,10 +4841,10 @@
         <v>0.8</v>
       </c>
       <c r="E77">
-        <v>0.797</v>
+        <v>0.926</v>
       </c>
       <c r="F77">
-        <v>0.893</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4852,10 +4852,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9320000000000001</v>
+        <v>0.884</v>
       </c>
       <c r="C78">
-        <v>0.946</v>
+        <v>0.991</v>
       </c>
       <c r="D78">
         <v>0.8</v>
@@ -4864,7 +4864,7 @@
         <v>0.8</v>
       </c>
       <c r="F78">
-        <v>0.708</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4872,19 +4872,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.929</v>
+        <v>0.8</v>
       </c>
       <c r="C79">
-        <v>0.6929999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D79">
-        <v>0.8</v>
+        <v>0.962</v>
       </c>
       <c r="E79">
-        <v>0.848</v>
+        <v>0.926</v>
       </c>
       <c r="F79">
-        <v>0.914</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4892,7 +4892,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.931</v>
+        <v>0.8</v>
       </c>
       <c r="C80">
         <v>0.8</v>
@@ -4901,10 +4901,10 @@
         <v>0.8</v>
       </c>
       <c r="E80">
-        <v>0.798</v>
+        <v>0.921</v>
       </c>
       <c r="F80">
-        <v>0.944</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4912,19 +4912,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.824</v>
+        <v>0.8</v>
       </c>
       <c r="C81">
-        <v>0.956</v>
+        <v>0.8</v>
       </c>
       <c r="D81">
         <v>0.8</v>
       </c>
       <c r="E81">
-        <v>0.973</v>
+        <v>0.8</v>
       </c>
       <c r="F81">
-        <v>0.954</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4932,19 +4932,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.885</v>
+        <v>0.8</v>
       </c>
       <c r="C82">
-        <v>0.971</v>
+        <v>0.8</v>
       </c>
       <c r="D82">
         <v>0.8</v>
       </c>
       <c r="E82">
-        <v>0.963</v>
+        <v>0.8</v>
       </c>
       <c r="F82">
-        <v>0.901</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4952,7 +4952,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.8</v>
+        <v>0.827</v>
       </c>
       <c r="C83">
         <v>0.8</v>
@@ -4964,7 +4964,7 @@
         <v>0.8</v>
       </c>
       <c r="F83">
-        <v>0.8</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4975,16 +4975,16 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>0.8</v>
+        <v>0.982</v>
       </c>
       <c r="D84">
-        <v>0.858</v>
+        <v>0.8</v>
       </c>
       <c r="E84">
         <v>0.8</v>
       </c>
       <c r="F84">
-        <v>0.8179999999999999</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4995,16 +4995,16 @@
         <v>0.8</v>
       </c>
       <c r="C85">
-        <v>0.8</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="D85">
         <v>0.8</v>
       </c>
       <c r="E85">
-        <v>0.8</v>
+        <v>0.968</v>
       </c>
       <c r="F85">
-        <v>0.843</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5021,10 +5021,10 @@
         <v>0.8</v>
       </c>
       <c r="E86">
-        <v>0.8</v>
+        <v>0.994</v>
       </c>
       <c r="F86">
-        <v>0.978</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5032,10 +5032,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.8</v>
+        <v>0.831</v>
       </c>
       <c r="C87">
-        <v>0.8</v>
+        <v>0.734</v>
       </c>
       <c r="D87">
         <v>0.8</v>
@@ -5044,7 +5044,7 @@
         <v>0.8</v>
       </c>
       <c r="F87">
-        <v>0.8070000000000001</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5058,13 +5058,13 @@
         <v>0.8</v>
       </c>
       <c r="D88">
-        <v>0.881</v>
+        <v>0.8</v>
       </c>
       <c r="E88">
-        <v>0.8</v>
+        <v>0.993</v>
       </c>
       <c r="F88">
-        <v>0.997</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5081,10 +5081,10 @@
         <v>0.8</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F89">
-        <v>0.8</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5104,7 +5104,7 @@
         <v>0.8</v>
       </c>
       <c r="F90">
-        <v>0.8</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5118,13 +5118,13 @@
         <v>0.8</v>
       </c>
       <c r="D91">
-        <v>0.878</v>
+        <v>0.8</v>
       </c>
       <c r="E91">
         <v>0.8</v>
       </c>
       <c r="F91">
-        <v>0.8</v>
+        <v>0.479</v>
       </c>
     </row>
   </sheetData>
@@ -5522,19 +5522,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09</v>
+        <v>0.405</v>
       </c>
       <c r="C20">
         <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.748</v>
+        <v>0.321</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>0.365</v>
       </c>
       <c r="F20">
-        <v>0.4</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5542,19 +5542,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.113</v>
+        <v>0.866</v>
       </c>
       <c r="C21">
-        <v>0.652</v>
+        <v>0.342</v>
       </c>
       <c r="D21">
-        <v>0.873</v>
+        <v>0.577</v>
       </c>
       <c r="E21">
-        <v>0.08400000000000001</v>
+        <v>0.334</v>
       </c>
       <c r="F21">
-        <v>0.318</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5562,19 +5562,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2</v>
+        <v>0.548</v>
       </c>
       <c r="C22">
-        <v>0.022</v>
+        <v>0.453</v>
       </c>
       <c r="D22">
-        <v>0.309</v>
+        <v>0.722</v>
       </c>
       <c r="E22">
-        <v>0.753</v>
+        <v>0.983</v>
       </c>
       <c r="F22">
-        <v>0.298</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5582,19 +5582,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C23">
-        <v>0.21</v>
+        <v>0.034</v>
       </c>
       <c r="D23">
-        <v>0.578</v>
+        <v>0.077</v>
       </c>
       <c r="E23">
-        <v>0.661</v>
+        <v>0.859</v>
       </c>
       <c r="F23">
-        <v>0.295</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5602,19 +5602,19 @@
         <v>22</v>
       </c>
       <c r="B24">
+        <v>0.443</v>
+      </c>
+      <c r="C24">
         <v>0.2</v>
       </c>
-      <c r="C24">
-        <v>0.666</v>
-      </c>
       <c r="D24">
-        <v>0.294</v>
+        <v>0.526</v>
       </c>
       <c r="E24">
-        <v>0.2</v>
+        <v>0.319</v>
       </c>
       <c r="F24">
-        <v>0.287</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5622,19 +5622,19 @@
         <v>23</v>
       </c>
       <c r="B25">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="C25">
         <v>0.2</v>
       </c>
-      <c r="C25">
-        <v>0.971</v>
-      </c>
       <c r="D25">
-        <v>0.989</v>
+        <v>0.707</v>
       </c>
       <c r="E25">
-        <v>0.519</v>
+        <v>0.862</v>
       </c>
       <c r="F25">
-        <v>0.293</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5642,19 +5642,19 @@
         <v>24</v>
       </c>
       <c r="B26">
+        <v>0.656</v>
+      </c>
+      <c r="C26">
         <v>0.2</v>
       </c>
-      <c r="C26">
-        <v>0.8</v>
-      </c>
       <c r="D26">
-        <v>0.194</v>
+        <v>0.342</v>
       </c>
       <c r="E26">
-        <v>0.658</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F26">
-        <v>0.294</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5662,19 +5662,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.111</v>
+        <v>0.747</v>
       </c>
       <c r="C27">
         <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.393</v>
+        <v>0.478</v>
       </c>
       <c r="E27">
-        <v>0.243</v>
+        <v>0.464</v>
       </c>
       <c r="F27">
-        <v>0.294</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5682,19 +5682,19 @@
         <v>26</v>
       </c>
       <c r="B28">
+        <v>0.652</v>
+      </c>
+      <c r="C28">
         <v>0.2</v>
       </c>
-      <c r="C28">
-        <v>0.522</v>
-      </c>
       <c r="D28">
-        <v>0.973</v>
+        <v>0.043</v>
       </c>
       <c r="E28">
-        <v>0.287</v>
+        <v>0.8</v>
       </c>
       <c r="F28">
-        <v>0.294</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5702,19 +5702,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.196</v>
+        <v>0.901</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D29">
         <v>0.8</v>
       </c>
       <c r="E29">
-        <v>0.263</v>
+        <v>0.8</v>
       </c>
       <c r="F29">
-        <v>0.136</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5722,19 +5722,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="C30">
-        <v>0.8</v>
+        <v>0.171</v>
       </c>
       <c r="D30">
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.5580000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F30">
-        <v>0.473</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5742,19 +5742,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C31">
-        <v>0.8</v>
+        <v>0.161</v>
       </c>
       <c r="D31">
         <v>0.8</v>
       </c>
       <c r="E31">
-        <v>0.736</v>
+        <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.409</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5762,19 +5762,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0.19</v>
       </c>
       <c r="D32">
         <v>0.8</v>
       </c>
       <c r="E32">
-        <v>0.717</v>
+        <v>0.8</v>
       </c>
       <c r="F32">
-        <v>0.145</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5782,19 +5782,19 @@
         <v>31</v>
       </c>
       <c r="B33">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="C33">
         <v>0.2</v>
       </c>
-      <c r="C33">
-        <v>0.8</v>
-      </c>
       <c r="D33">
         <v>0.8</v>
       </c>
       <c r="E33">
-        <v>0.151</v>
+        <v>0.8</v>
       </c>
       <c r="F33">
-        <v>0.469</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5802,19 +5802,19 @@
         <v>32</v>
       </c>
       <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34">
         <v>0.2</v>
       </c>
-      <c r="C34">
-        <v>0.8</v>
-      </c>
       <c r="D34">
         <v>0.8</v>
       </c>
       <c r="E34">
-        <v>0.679</v>
+        <v>0.8</v>
       </c>
       <c r="F34">
-        <v>0.106</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5822,19 +5822,19 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>0.8</v>
+      </c>
+      <c r="C35">
         <v>0.2</v>
       </c>
-      <c r="C35">
-        <v>0.8</v>
-      </c>
       <c r="D35">
         <v>0.8</v>
       </c>
       <c r="E35">
-        <v>0.719</v>
+        <v>0.8</v>
       </c>
       <c r="F35">
-        <v>0.052</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5842,19 +5842,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.21</v>
+        <v>0.8</v>
       </c>
       <c r="C36">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
         <v>0.8</v>
       </c>
       <c r="E36">
-        <v>0.612</v>
+        <v>0.8</v>
       </c>
       <c r="F36">
-        <v>0.034</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5862,16 +5862,16 @@
         <v>35</v>
       </c>
       <c r="B37">
+        <v>0.8</v>
+      </c>
+      <c r="C37">
         <v>0.2</v>
       </c>
-      <c r="C37">
-        <v>0.8</v>
-      </c>
       <c r="D37">
         <v>0.8</v>
       </c>
       <c r="E37">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="F37">
         <v>0.2</v>
@@ -5882,10 +5882,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.276</v>
+        <v>0.8</v>
       </c>
       <c r="C38">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D38">
         <v>0.8</v>
@@ -5894,7 +5894,7 @@
         <v>0.8</v>
       </c>
       <c r="F38">
-        <v>0.068</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5902,10 +5902,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.269</v>
+        <v>0.8</v>
       </c>
       <c r="C39">
-        <v>0.8</v>
+        <v>0.111</v>
       </c>
       <c r="D39">
         <v>0.8</v>
@@ -5914,7 +5914,7 @@
         <v>0.8</v>
       </c>
       <c r="F39">
-        <v>0.554</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5922,19 +5922,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.029</v>
+        <v>0.8</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>0.036</v>
       </c>
       <c r="D40">
         <v>0.8</v>
       </c>
       <c r="E40">
-        <v>0.724</v>
+        <v>0.8</v>
       </c>
       <c r="F40">
-        <v>0.487</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5942,19 +5942,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C41">
-        <v>0.8</v>
+        <v>0.32</v>
       </c>
       <c r="D41">
         <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.793</v>
+        <v>0.8</v>
       </c>
       <c r="F41">
-        <v>0.153</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5962,10 +5962,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C42">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="D42">
         <v>0.8</v>
@@ -5974,7 +5974,7 @@
         <v>0.8</v>
       </c>
       <c r="F42">
-        <v>0.571</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5982,19 +5982,19 @@
         <v>41</v>
       </c>
       <c r="B43">
+        <v>0.8</v>
+      </c>
+      <c r="C43">
         <v>0.2</v>
       </c>
-      <c r="C43">
-        <v>0.8</v>
-      </c>
       <c r="D43">
         <v>0.8</v>
       </c>
       <c r="E43">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F43">
-        <v>0.104</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6002,19 +6002,19 @@
         <v>42</v>
       </c>
       <c r="B44">
+        <v>0.8</v>
+      </c>
+      <c r="C44">
         <v>0.2</v>
       </c>
-      <c r="C44">
-        <v>0.8</v>
-      </c>
       <c r="D44">
         <v>0.8</v>
       </c>
       <c r="E44">
-        <v>0.794</v>
+        <v>0.8</v>
       </c>
       <c r="F44">
-        <v>0.035</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6022,10 +6022,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.266</v>
+        <v>0.8</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D45">
         <v>0.8</v>
@@ -6034,7 +6034,7 @@
         <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.012</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6042,11 +6042,11 @@
         <v>44</v>
       </c>
       <c r="B46">
+        <v>0.8</v>
+      </c>
+      <c r="C46">
         <v>0.2</v>
       </c>
-      <c r="C46">
-        <v>0.8</v>
-      </c>
       <c r="D46">
         <v>0.8</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.079</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6062,10 +6062,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.323</v>
+        <v>0.8</v>
       </c>
       <c r="C47">
-        <v>0.8</v>
+        <v>0.289</v>
       </c>
       <c r="D47">
         <v>0.8</v>
@@ -6074,7 +6074,7 @@
         <v>0.8</v>
       </c>
       <c r="F47">
-        <v>0.228</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.302</v>
+        <v>0.8</v>
       </c>
       <c r="C48">
-        <v>0.8</v>
+        <v>0.497</v>
       </c>
       <c r="D48">
         <v>0.8</v>
@@ -6094,7 +6094,7 @@
         <v>0.8</v>
       </c>
       <c r="F48">
-        <v>0.611</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6102,19 +6102,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.228</v>
+        <v>0.8</v>
       </c>
       <c r="C49">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="D49">
-        <v>0.8</v>
+        <v>0.992</v>
       </c>
       <c r="E49">
-        <v>0.861</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F49">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6122,19 +6122,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.065</v>
+        <v>0.8</v>
       </c>
       <c r="C50">
-        <v>0.8</v>
+        <v>0.411</v>
       </c>
       <c r="D50">
         <v>0.8</v>
       </c>
       <c r="E50">
-        <v>0.86</v>
+        <v>0.988</v>
       </c>
       <c r="F50">
-        <v>0.33</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6142,10 +6142,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.022</v>
+        <v>0.8</v>
       </c>
       <c r="C51">
-        <v>0.8</v>
+        <v>0.511</v>
       </c>
       <c r="D51">
         <v>0.8</v>
@@ -6154,7 +6154,7 @@
         <v>0.8</v>
       </c>
       <c r="F51">
-        <v>0.635</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6162,19 +6162,19 @@
         <v>50</v>
       </c>
       <c r="B52">
+        <v>0.8</v>
+      </c>
+      <c r="C52">
+        <v>0.145</v>
+      </c>
+      <c r="D52">
+        <v>0.998</v>
+      </c>
+      <c r="E52">
+        <v>0.987</v>
+      </c>
+      <c r="F52">
         <v>0.2</v>
-      </c>
-      <c r="C52">
-        <v>0.8</v>
-      </c>
-      <c r="D52">
-        <v>0.8</v>
-      </c>
-      <c r="E52">
-        <v>0.863</v>
-      </c>
-      <c r="F52">
-        <v>0.295</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6182,19 +6182,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C53">
-        <v>0.8</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D53">
         <v>0.8</v>
       </c>
       <c r="E53">
-        <v>0.858</v>
+        <v>0.963</v>
       </c>
       <c r="F53">
-        <v>0.245</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6202,10 +6202,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.309</v>
+        <v>0.8</v>
       </c>
       <c r="C54">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D54">
         <v>0.8</v>
@@ -6214,7 +6214,7 @@
         <v>0.8</v>
       </c>
       <c r="F54">
-        <v>0.228</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6222,10 +6222,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.124</v>
+        <v>0.8</v>
       </c>
       <c r="C55">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D55">
         <v>0.8</v>
@@ -6234,7 +6234,7 @@
         <v>0.8</v>
       </c>
       <c r="F55">
-        <v>0.197</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6242,10 +6242,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.328</v>
+        <v>0.996</v>
       </c>
       <c r="C56">
-        <v>0.8</v>
+        <v>0.844</v>
       </c>
       <c r="D56">
         <v>0.8</v>
@@ -6254,7 +6254,7 @@
         <v>0.8</v>
       </c>
       <c r="F56">
-        <v>0.504</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6262,10 +6262,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.325</v>
+        <v>0.8</v>
       </c>
       <c r="C57">
-        <v>0.8</v>
+        <v>0.835</v>
       </c>
       <c r="D57">
         <v>0.8</v>
@@ -6274,7 +6274,7 @@
         <v>0.8</v>
       </c>
       <c r="F57">
-        <v>0.651</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6282,19 +6282,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.466</v>
+        <v>0.8</v>
       </c>
       <c r="C58">
-        <v>0.8</v>
+        <v>0.876</v>
       </c>
       <c r="D58">
         <v>0.8</v>
       </c>
       <c r="E58">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="F58">
-        <v>0.646</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6302,19 +6302,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.286</v>
+        <v>0.8</v>
       </c>
       <c r="C59">
-        <v>0.8</v>
+        <v>0.718</v>
       </c>
       <c r="D59">
         <v>0.8</v>
       </c>
       <c r="E59">
-        <v>0.792</v>
+        <v>0.8</v>
       </c>
       <c r="F59">
-        <v>0.574</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6322,10 +6322,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.27</v>
+        <v>0.971</v>
       </c>
       <c r="C60">
-        <v>0.8</v>
+        <v>0.901</v>
       </c>
       <c r="D60">
         <v>0.8</v>
@@ -6334,7 +6334,7 @@
         <v>0.8</v>
       </c>
       <c r="F60">
-        <v>0.67</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6342,19 +6342,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.194</v>
+        <v>0.8</v>
       </c>
       <c r="C61">
-        <v>0.984</v>
+        <v>0.894</v>
       </c>
       <c r="D61">
         <v>0.8</v>
       </c>
       <c r="E61">
-        <v>0.716</v>
+        <v>0.8</v>
       </c>
       <c r="F61">
-        <v>0.5639999999999999</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6362,19 +6362,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="C62">
-        <v>0.8</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D62">
         <v>0.8</v>
       </c>
       <c r="E62">
-        <v>0.791</v>
+        <v>0.8</v>
       </c>
       <c r="F62">
-        <v>0.548</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6382,10 +6382,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="C63">
-        <v>0.8</v>
+        <v>0.673</v>
       </c>
       <c r="D63">
         <v>0.8</v>
@@ -6394,7 +6394,7 @@
         <v>0.8</v>
       </c>
       <c r="F63">
-        <v>0.543</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6402,10 +6402,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.307</v>
+        <v>0.8</v>
       </c>
       <c r="C64">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="D64">
         <v>0.8</v>
@@ -6414,7 +6414,7 @@
         <v>0.8</v>
       </c>
       <c r="F64">
-        <v>0.456</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6422,7 +6422,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.515</v>
+        <v>0.8</v>
       </c>
       <c r="C65">
         <v>0.8</v>
@@ -6434,7 +6434,7 @@
         <v>0.8</v>
       </c>
       <c r="F65">
-        <v>0.758</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6442,19 +6442,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.529</v>
+        <v>0.8</v>
       </c>
       <c r="C66">
         <v>0.8</v>
       </c>
       <c r="D66">
-        <v>0.978</v>
+        <v>0.8</v>
       </c>
       <c r="E66">
         <v>0.8</v>
       </c>
       <c r="F66">
-        <v>0.677</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6462,19 +6462,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.633</v>
+        <v>0.8</v>
       </c>
       <c r="C67">
         <v>0.8</v>
       </c>
       <c r="D67">
-        <v>0.8</v>
+        <v>0.894</v>
       </c>
       <c r="E67">
-        <v>0.825</v>
+        <v>0.869</v>
       </c>
       <c r="F67">
-        <v>0.699</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6482,7 +6482,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="C68">
         <v>0.8</v>
@@ -6491,10 +6491,10 @@
         <v>0.8</v>
       </c>
       <c r="E68">
-        <v>0.837</v>
+        <v>0.829</v>
       </c>
       <c r="F68">
-        <v>0.776</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6502,7 +6502,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.704</v>
+        <v>0.8</v>
       </c>
       <c r="C69">
         <v>0.8</v>
@@ -6514,7 +6514,7 @@
         <v>0.8</v>
       </c>
       <c r="F69">
-        <v>0.6840000000000001</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6522,19 +6522,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.551</v>
+        <v>0.8</v>
       </c>
       <c r="C70">
-        <v>0.736</v>
+        <v>0.8</v>
       </c>
       <c r="D70">
-        <v>0.954</v>
+        <v>0.888</v>
       </c>
       <c r="E70">
-        <v>0.851</v>
+        <v>0.83</v>
       </c>
       <c r="F70">
-        <v>0.787</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6542,7 +6542,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="C71">
         <v>0.8</v>
@@ -6551,10 +6551,10 @@
         <v>0.8</v>
       </c>
       <c r="E71">
-        <v>0.838</v>
+        <v>0.85</v>
       </c>
       <c r="F71">
-        <v>0.802</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6562,7 +6562,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.526</v>
+        <v>0.8</v>
       </c>
       <c r="C72">
         <v>0.8</v>
@@ -6574,7 +6574,7 @@
         <v>0.8</v>
       </c>
       <c r="F72">
-        <v>0.8070000000000001</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6582,19 +6582,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.647</v>
+        <v>0.8</v>
       </c>
       <c r="C73">
         <v>0.8</v>
       </c>
       <c r="D73">
-        <v>0.958</v>
+        <v>0.8</v>
       </c>
       <c r="E73">
         <v>0.8</v>
       </c>
       <c r="F73">
-        <v>0.718</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6602,10 +6602,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.821</v>
+        <v>0.873</v>
       </c>
       <c r="C74">
-        <v>0.964</v>
+        <v>0.8</v>
       </c>
       <c r="D74">
         <v>0.8</v>
@@ -6614,7 +6614,7 @@
         <v>0.8</v>
       </c>
       <c r="F74">
-        <v>0.919</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6622,10 +6622,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.829</v>
+        <v>0.8</v>
       </c>
       <c r="C75">
-        <v>0.949</v>
+        <v>0.8</v>
       </c>
       <c r="D75">
         <v>0.8</v>
@@ -6634,7 +6634,7 @@
         <v>0.8</v>
       </c>
       <c r="F75">
-        <v>0.713</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6642,19 +6642,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.769</v>
+        <v>0.8</v>
       </c>
       <c r="C76">
         <v>0.8</v>
       </c>
       <c r="D76">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="E76">
-        <v>0.767</v>
+        <v>0.917</v>
       </c>
       <c r="F76">
-        <v>0.744</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6662,7 +6662,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.912</v>
+        <v>0.8</v>
       </c>
       <c r="C77">
         <v>0.8</v>
@@ -6671,10 +6671,10 @@
         <v>0.8</v>
       </c>
       <c r="E77">
-        <v>0.797</v>
+        <v>0.926</v>
       </c>
       <c r="F77">
-        <v>0.893</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6682,10 +6682,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9320000000000001</v>
+        <v>0.884</v>
       </c>
       <c r="C78">
-        <v>0.946</v>
+        <v>0.991</v>
       </c>
       <c r="D78">
         <v>0.8</v>
@@ -6694,7 +6694,7 @@
         <v>0.8</v>
       </c>
       <c r="F78">
-        <v>0.708</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6702,19 +6702,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.929</v>
+        <v>0.8</v>
       </c>
       <c r="C79">
-        <v>0.6929999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D79">
-        <v>0.8</v>
+        <v>0.962</v>
       </c>
       <c r="E79">
-        <v>0.848</v>
+        <v>0.926</v>
       </c>
       <c r="F79">
-        <v>0.914</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6722,7 +6722,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.931</v>
+        <v>0.8</v>
       </c>
       <c r="C80">
         <v>0.8</v>
@@ -6731,10 +6731,10 @@
         <v>0.8</v>
       </c>
       <c r="E80">
-        <v>0.798</v>
+        <v>0.921</v>
       </c>
       <c r="F80">
-        <v>0.944</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6742,19 +6742,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.824</v>
+        <v>0.8</v>
       </c>
       <c r="C81">
-        <v>0.956</v>
+        <v>0.8</v>
       </c>
       <c r="D81">
         <v>0.8</v>
       </c>
       <c r="E81">
-        <v>0.973</v>
+        <v>0.8</v>
       </c>
       <c r="F81">
-        <v>0.954</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6762,19 +6762,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.885</v>
+        <v>0.8</v>
       </c>
       <c r="C82">
-        <v>0.971</v>
+        <v>0.8</v>
       </c>
       <c r="D82">
         <v>0.8</v>
       </c>
       <c r="E82">
-        <v>0.963</v>
+        <v>0.8</v>
       </c>
       <c r="F82">
-        <v>0.901</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6782,7 +6782,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.8</v>
+        <v>0.827</v>
       </c>
       <c r="C83">
         <v>0.8</v>
@@ -6794,7 +6794,7 @@
         <v>0.8</v>
       </c>
       <c r="F83">
-        <v>0.8</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6805,16 +6805,16 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>0.8</v>
+        <v>0.982</v>
       </c>
       <c r="D84">
-        <v>0.858</v>
+        <v>0.8</v>
       </c>
       <c r="E84">
         <v>0.8</v>
       </c>
       <c r="F84">
-        <v>0.8179999999999999</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6825,16 +6825,16 @@
         <v>0.8</v>
       </c>
       <c r="C85">
-        <v>0.8</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="D85">
         <v>0.8</v>
       </c>
       <c r="E85">
-        <v>0.8</v>
+        <v>0.968</v>
       </c>
       <c r="F85">
-        <v>0.843</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6851,10 +6851,10 @@
         <v>0.8</v>
       </c>
       <c r="E86">
-        <v>0.8</v>
+        <v>0.994</v>
       </c>
       <c r="F86">
-        <v>0.978</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6862,10 +6862,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.8</v>
+        <v>0.831</v>
       </c>
       <c r="C87">
-        <v>0.8</v>
+        <v>0.734</v>
       </c>
       <c r="D87">
         <v>0.8</v>
@@ -6874,7 +6874,7 @@
         <v>0.8</v>
       </c>
       <c r="F87">
-        <v>0.8070000000000001</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6888,13 +6888,13 @@
         <v>0.8</v>
       </c>
       <c r="D88">
-        <v>0.881</v>
+        <v>0.8</v>
       </c>
       <c r="E88">
-        <v>0.8</v>
+        <v>0.993</v>
       </c>
       <c r="F88">
-        <v>0.997</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6911,10 +6911,10 @@
         <v>0.8</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F89">
-        <v>0.8</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6934,7 +6934,7 @@
         <v>0.8</v>
       </c>
       <c r="F90">
-        <v>0.8</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6948,13 +6948,13 @@
         <v>0.8</v>
       </c>
       <c r="D91">
-        <v>0.878</v>
+        <v>0.8</v>
       </c>
       <c r="E91">
         <v>0.8</v>
       </c>
       <c r="F91">
-        <v>0.8</v>
+        <v>0.479</v>
       </c>
     </row>
   </sheetData>
@@ -7052,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.494</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7060,7 +7060,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.256</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7068,7 +7068,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.344</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7076,7 +7076,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.411</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7084,7 +7084,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.454</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7092,7 +7092,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.345</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7100,7 +7100,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.429</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7108,7 +7108,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.494</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7116,7 +7116,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.407</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7124,7 +7124,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.328</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7132,7 +7132,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.408</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7140,7 +7140,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.316</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7148,7 +7148,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.389</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7156,7 +7156,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7164,7 +7164,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.594</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7172,7 +7172,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.429</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7180,7 +7180,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.248</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7188,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.455</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7196,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.439</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7204,7 +7204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.571</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7212,7 +7212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.589</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7220,7 +7220,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.532</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7228,7 +7228,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.484</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7236,7 +7236,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.517</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7244,7 +7244,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.514</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7252,7 +7252,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.491</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7260,7 +7260,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.524</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7268,7 +7268,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.549</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7276,7 +7276,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.645</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7284,7 +7284,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5679999999999999</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7292,7 +7292,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.549</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7300,7 +7300,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.634</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7308,7 +7308,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.5610000000000001</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7316,7 +7316,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.526</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7324,7 +7324,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.536</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7332,7 +7332,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.536</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7340,7 +7340,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.59</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7348,7 +7348,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.663</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7356,7 +7356,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.652</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7364,7 +7364,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.571</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7372,7 +7372,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.611</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7380,7 +7380,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.592</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7388,7 +7388,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.581</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7396,7 +7396,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.587</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7404,7 +7404,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.544</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7412,7 +7412,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.646</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7420,7 +7420,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.675</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7428,7 +7428,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.71</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7436,7 +7436,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.65</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7444,7 +7444,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.668</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7452,7 +7452,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.652</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -7460,7 +7460,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.626</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7468,7 +7468,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.655</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7476,7 +7476,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.633</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7484,7 +7484,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.735</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7492,7 +7492,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.757</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7500,7 +7500,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.751</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7508,7 +7508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.779</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7516,7 +7516,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.758</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7524,7 +7524,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.776</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7532,7 +7532,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.758</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7540,7 +7540,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.747</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7548,7 +7548,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.785</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7556,7 +7556,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.861</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7564,7 +7564,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.8179999999999999</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7572,7 +7572,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.776</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -7580,7 +7580,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7588,7 +7588,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.837</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7596,7 +7596,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.837</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -7604,7 +7604,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.855</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -7612,7 +7612,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.901</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7620,7 +7620,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.904</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7628,7 +7628,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.8</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7636,7 +7636,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8149999999999999</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7644,7 +7644,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8090000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7652,7 +7652,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.836</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7660,7 +7660,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.801</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7668,7 +7668,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.856</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7676,7 +7676,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.8</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7684,7 +7684,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7692,7 +7692,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8159999999999999</v>
+        <v>0.736</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/PSO.xlsx
+++ b/Experimentos2/PSO.xlsx
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.506</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.577</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.606</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.721</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.764</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.746</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.78</v>
+        <v>0.787</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.715</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.344</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.414</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.672</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -708,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.386</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9409999999999999</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -732,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.707</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -740,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.862</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -748,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.174</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9409999999999999</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -764,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -772,7 +772,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.208</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -796,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -804,7 +804,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -812,7 +812,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -820,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -828,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.312</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -836,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -852,7 +852,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.992</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -868,7 +868,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.34</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -876,7 +876,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.971</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -884,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.901</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -908,7 +908,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.346</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -916,7 +916,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -932,7 +932,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.894</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -940,7 +940,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.869</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -948,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.365</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -972,7 +972,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.962</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.926</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -988,7 +988,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.402</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9429999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.968</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.387</v>
+        <v>0.551</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9429999999999999</v>
+        <v>0.335</v>
       </c>
       <c r="C2">
-        <v>0.41</v>
+        <v>0.374</v>
       </c>
       <c r="D2">
-        <v>0.504</v>
+        <v>0.468</v>
       </c>
       <c r="E2">
-        <v>0.852</v>
+        <v>0.425</v>
       </c>
       <c r="F2">
-        <v>0.36</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.121</v>
+        <v>0.626</v>
       </c>
       <c r="C3">
-        <v>0.17</v>
+        <v>0.348</v>
       </c>
       <c r="D3">
-        <v>0.225</v>
+        <v>0.61</v>
       </c>
       <c r="E3">
-        <v>0.872</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F3">
-        <v>0.424</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.698</v>
+        <v>0.502</v>
       </c>
       <c r="C4">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D4">
-        <v>0.073</v>
+        <v>0.46</v>
       </c>
       <c r="E4">
-        <v>0.221</v>
+        <v>0.299</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.458</v>
+        <v>0.775</v>
       </c>
       <c r="C5">
-        <v>0.363</v>
+        <v>0.799</v>
       </c>
       <c r="D5">
-        <v>0.748</v>
+        <v>0.522</v>
       </c>
       <c r="E5">
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
       <c r="F5">
-        <v>0.002</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.899</v>
+        <v>0.736</v>
       </c>
       <c r="C6">
-        <v>0.422</v>
+        <v>0.599</v>
       </c>
       <c r="D6">
-        <v>0.288</v>
+        <v>0.524</v>
       </c>
       <c r="E6">
-        <v>0.894</v>
+        <v>0.678</v>
       </c>
       <c r="F6">
-        <v>0.127</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.008</v>
+        <v>0.044</v>
       </c>
       <c r="C7">
-        <v>0.629</v>
+        <v>0.281</v>
       </c>
       <c r="D7">
-        <v>0.089</v>
+        <v>0.733</v>
       </c>
       <c r="E7">
-        <v>0.307</v>
+        <v>0.291</v>
       </c>
       <c r="F7">
-        <v>0.794</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.528</v>
+        <v>0.245</v>
       </c>
       <c r="C8">
-        <v>0.793</v>
+        <v>0.726</v>
       </c>
       <c r="D8">
-        <v>0.474</v>
+        <v>0.104</v>
       </c>
       <c r="E8">
-        <v>0.218</v>
+        <v>0.961</v>
       </c>
       <c r="F8">
-        <v>0.86</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.37</v>
+        <v>0.828</v>
       </c>
       <c r="C9">
-        <v>0.916</v>
+        <v>0.279</v>
       </c>
       <c r="D9">
-        <v>0.33</v>
+        <v>0.681</v>
       </c>
       <c r="E9">
-        <v>0.658</v>
+        <v>0.843</v>
       </c>
       <c r="F9">
-        <v>0.92</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.545</v>
+        <v>0.962</v>
       </c>
       <c r="C10">
-        <v>0.914</v>
+        <v>0.355</v>
       </c>
       <c r="D10">
-        <v>0.79</v>
+        <v>0.309</v>
       </c>
       <c r="E10">
-        <v>0.001</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F10">
-        <v>0.835</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.667</v>
+        <v>0.241</v>
       </c>
       <c r="C11">
-        <v>0.297</v>
+        <v>0.272</v>
       </c>
       <c r="D11">
-        <v>0.344</v>
+        <v>0.319</v>
       </c>
       <c r="E11">
-        <v>0.585</v>
+        <v>0.286</v>
       </c>
       <c r="F11">
-        <v>0.196</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.08500000000000001</v>
+        <v>0.438</v>
       </c>
       <c r="C12">
-        <v>0.119</v>
+        <v>0.244</v>
       </c>
       <c r="D12">
-        <v>0.158</v>
+        <v>0.427</v>
       </c>
       <c r="E12">
-        <v>0.61</v>
+        <v>0.569</v>
       </c>
       <c r="F12">
-        <v>0.297</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.483</v>
+        <v>0.346</v>
       </c>
       <c r="C13">
-        <v>0.074</v>
+        <v>0.081</v>
       </c>
       <c r="D13">
-        <v>0.051</v>
+        <v>0.322</v>
       </c>
       <c r="E13">
-        <v>0.164</v>
+        <v>0.219</v>
       </c>
       <c r="F13">
-        <v>0.015</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.309</v>
+        <v>0.531</v>
       </c>
       <c r="C14">
-        <v>0.234</v>
+        <v>0.539</v>
       </c>
       <c r="D14">
-        <v>0.53</v>
+        <v>0.372</v>
       </c>
       <c r="E14">
-        <v>0.261</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F14">
-        <v>0.023</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.612</v>
+        <v>0.498</v>
       </c>
       <c r="C15">
-        <v>0.267</v>
+        <v>0.391</v>
       </c>
       <c r="D15">
-        <v>0.193</v>
+        <v>0.358</v>
       </c>
       <c r="E15">
-        <v>0.618</v>
+        <v>0.467</v>
       </c>
       <c r="F15">
-        <v>0.112</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.017</v>
+        <v>0.008</v>
       </c>
       <c r="C16">
-        <v>0.401</v>
+        <v>0.158</v>
       </c>
       <c r="D16">
-        <v>0.062</v>
+        <v>0.513</v>
       </c>
       <c r="E16">
-        <v>0.259</v>
+        <v>0.248</v>
       </c>
       <c r="F16">
-        <v>0.579</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.34</v>
+        <v>0.142</v>
       </c>
       <c r="C17">
-        <v>0.508</v>
+        <v>0.461</v>
       </c>
       <c r="D17">
-        <v>0.332</v>
+        <v>0.073</v>
       </c>
       <c r="E17">
-        <v>0.218</v>
+        <v>0.738</v>
       </c>
       <c r="F17">
-        <v>0.626</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.224</v>
+        <v>0.545</v>
       </c>
       <c r="C18">
-        <v>0.586</v>
+        <v>0.14</v>
       </c>
       <c r="D18">
-        <v>0.231</v>
+        <v>0.477</v>
       </c>
       <c r="E18">
-        <v>0.549</v>
+        <v>0.678</v>
       </c>
       <c r="F18">
-        <v>0.668</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.342</v>
+        <v>0.634</v>
       </c>
       <c r="C19">
-        <v>0.576</v>
+        <v>0.185</v>
       </c>
       <c r="D19">
-        <v>0.553</v>
+        <v>0.216</v>
       </c>
       <c r="E19">
-        <v>0.058</v>
+        <v>0.711</v>
       </c>
       <c r="F19">
-        <v>0.609</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.31</v>
+        <v>0.292</v>
       </c>
       <c r="C20">
-        <v>-0.457</v>
+        <v>0.158</v>
       </c>
       <c r="D20">
-        <v>-0.093</v>
+        <v>0.01</v>
       </c>
       <c r="E20">
-        <v>-0.307</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F20">
-        <v>-0.11</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.728</v>
+        <v>-0.068</v>
       </c>
       <c r="C21">
-        <v>0.171</v>
+        <v>0.249</v>
       </c>
       <c r="D21">
-        <v>0.353</v>
+        <v>-0.236</v>
       </c>
       <c r="E21">
-        <v>-0.357</v>
+        <v>-0.115</v>
       </c>
       <c r="F21">
-        <v>-0.153</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.008</v>
+        <v>0.092</v>
       </c>
       <c r="C22">
-        <v>0.322</v>
+        <v>0.823</v>
       </c>
       <c r="D22">
-        <v>0.605</v>
+        <v>0.011</v>
       </c>
       <c r="E22">
-        <v>0.743</v>
+        <v>0.75</v>
       </c>
       <c r="F22">
-        <v>0.141</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.314</v>
+        <v>-0.247</v>
       </c>
       <c r="C23">
-        <v>-0.262</v>
+        <v>-0.83</v>
       </c>
       <c r="D23">
-        <v>-0.516</v>
+        <v>-0.1</v>
       </c>
       <c r="E23">
-        <v>0.54</v>
+        <v>-0.362</v>
       </c>
       <c r="F23">
-        <v>0.139</v>
+        <v>-0.346</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.235</v>
+        <v>-0.193</v>
       </c>
       <c r="C24">
-        <v>-0.388</v>
+        <v>-0.307</v>
       </c>
       <c r="D24">
-        <v>0.263</v>
+        <v>-0.082</v>
       </c>
       <c r="E24">
-        <v>-0.384</v>
+        <v>0.127</v>
       </c>
       <c r="F24">
-        <v>0.053</v>
+        <v>-0.135</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.888</v>
+        <v>0.681</v>
       </c>
       <c r="C25">
-        <v>-0.879</v>
+        <v>0.518</v>
       </c>
       <c r="D25">
-        <v>0.579</v>
+        <v>-0.438</v>
       </c>
       <c r="E25">
-        <v>0.545</v>
+        <v>0.714</v>
       </c>
       <c r="F25">
-        <v>-0.408</v>
+        <v>-0.168</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.241</v>
+        <v>0.434</v>
       </c>
       <c r="C26">
-        <v>-1.271</v>
+        <v>-0.576</v>
       </c>
       <c r="D26">
-        <v>-0.056</v>
+        <v>0.597</v>
       </c>
       <c r="E26">
-        <v>0.667</v>
+        <v>-0.463</v>
       </c>
       <c r="F26">
-        <v>-0.454</v>
+        <v>-0.254</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.444</v>
+        <v>-0.294</v>
       </c>
       <c r="C27">
-        <v>-1.559</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D27">
-        <v>0.181</v>
+        <v>-0.353</v>
       </c>
       <c r="E27">
-        <v>-0.12</v>
+        <v>-0.293</v>
       </c>
       <c r="F27">
-        <v>-0.495</v>
+        <v>-0.056</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.227</v>
+        <v>-0.459</v>
       </c>
       <c r="C28">
-        <v>-1.531</v>
+        <v>0.397</v>
       </c>
       <c r="D28">
-        <v>-0.576</v>
+        <v>0.261</v>
       </c>
       <c r="E28">
-        <v>1.05</v>
+        <v>-0.404</v>
       </c>
       <c r="F28">
-        <v>-0.436</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.496</v>
+        <v>0.09</v>
       </c>
       <c r="C29">
-        <v>-0.32</v>
+        <v>1.101</v>
       </c>
       <c r="D29">
-        <v>0.739</v>
+        <v>0.007</v>
       </c>
       <c r="E29">
-        <v>0.739</v>
+        <v>0.129</v>
       </c>
       <c r="F29">
-        <v>-0.121</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.609</v>
+        <v>0.048</v>
       </c>
       <c r="C30">
-        <v>-0.171</v>
+        <v>1.026</v>
       </c>
       <c r="D30">
-        <v>0.518</v>
+        <v>0.131</v>
       </c>
       <c r="E30">
-        <v>0.763</v>
+        <v>0.428</v>
       </c>
       <c r="F30">
-        <v>-0.119</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.528</v>
+        <v>0.064</v>
       </c>
       <c r="C31">
-        <v>-0.292</v>
+        <v>0.576</v>
       </c>
       <c r="D31">
-        <v>0.392</v>
+        <v>0.008</v>
       </c>
       <c r="E31">
-        <v>0.288</v>
+        <v>0.525</v>
       </c>
       <c r="F31">
-        <v>0.097</v>
+        <v>-0.081</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5600000000000001</v>
+        <v>0.025</v>
       </c>
       <c r="C32">
-        <v>0.156</v>
+        <v>0.976</v>
       </c>
       <c r="D32">
-        <v>0.951</v>
+        <v>0.063</v>
       </c>
       <c r="E32">
-        <v>0.384</v>
+        <v>0.545</v>
       </c>
       <c r="F32">
-        <v>0.099</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.498</v>
+        <v>0.03</v>
       </c>
       <c r="C33">
-        <v>-0.272</v>
+        <v>1.445</v>
       </c>
       <c r="D33">
-        <v>0.5610000000000001</v>
+        <v>0.053</v>
       </c>
       <c r="E33">
-        <v>0.773</v>
+        <v>0.321</v>
       </c>
       <c r="F33">
-        <v>0.039</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.622</v>
+        <v>0.126</v>
       </c>
       <c r="C34">
-        <v>-0.615</v>
+        <v>0.8</v>
       </c>
       <c r="D34">
-        <v>0.405</v>
+        <v>0.231</v>
       </c>
       <c r="E34">
-        <v>0.382</v>
+        <v>0.5</v>
       </c>
       <c r="F34">
-        <v>-0.286</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.548</v>
+        <v>0.096</v>
       </c>
       <c r="C35">
-        <v>-0.89</v>
+        <v>1.154</v>
       </c>
       <c r="D35">
-        <v>0.721</v>
+        <v>-0.284</v>
       </c>
       <c r="E35">
-        <v>0.333</v>
+        <v>0.593</v>
       </c>
       <c r="F35">
-        <v>-0.318</v>
+        <v>-0.174</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.569</v>
+        <v>0.014</v>
       </c>
       <c r="C36">
-        <v>-1.091</v>
+        <v>0.756</v>
       </c>
       <c r="D36">
-        <v>0.604</v>
+        <v>0.188</v>
       </c>
       <c r="E36">
-        <v>0.68</v>
+        <v>0.524</v>
       </c>
       <c r="F36">
-        <v>-0.347</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.543</v>
+        <v>-0.006</v>
       </c>
       <c r="C37">
-        <v>-1.072</v>
+        <v>0.884</v>
       </c>
       <c r="D37">
-        <v>0.98</v>
+        <v>-0.117</v>
       </c>
       <c r="E37">
-        <v>0.854</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F37">
-        <v>-0.305</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.063</v>
       </c>
       <c r="C38">
-        <v>-0.224</v>
+        <v>0.771</v>
       </c>
       <c r="D38">
-        <v>0.517</v>
+        <v>0.005</v>
       </c>
       <c r="E38">
-        <v>0.517</v>
+        <v>0.09</v>
       </c>
       <c r="F38">
-        <v>-0.062</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.614</v>
+        <v>0.3</v>
       </c>
       <c r="C39">
-        <v>-0.06</v>
+        <v>0.718</v>
       </c>
       <c r="D39">
-        <v>0.363</v>
+        <v>0.129</v>
       </c>
       <c r="E39">
-        <v>0.534</v>
+        <v>-0.013</v>
       </c>
       <c r="F39">
-        <v>-0.03</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5570000000000001</v>
+        <v>0.194</v>
       </c>
       <c r="C40">
-        <v>-0.125</v>
+        <v>0.403</v>
       </c>
       <c r="D40">
-        <v>0.274</v>
+        <v>0.004</v>
       </c>
       <c r="E40">
-        <v>0.202</v>
+        <v>0.367</v>
       </c>
       <c r="F40">
-        <v>0.039</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.579</v>
+        <v>0.416</v>
       </c>
       <c r="C41">
-        <v>0.13</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D41">
-        <v>0.666</v>
+        <v>0.061</v>
       </c>
       <c r="E41">
-        <v>0.269</v>
+        <v>0.134</v>
       </c>
       <c r="F41">
-        <v>0.044</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.349</v>
+        <v>0.38</v>
       </c>
       <c r="C42">
-        <v>-0.19</v>
+        <v>1.012</v>
       </c>
       <c r="D42">
-        <v>0.393</v>
+        <v>0.052</v>
       </c>
       <c r="E42">
-        <v>0.541</v>
+        <v>-0.159</v>
       </c>
       <c r="F42">
-        <v>0.027</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.623</v>
+        <v>-0.196</v>
       </c>
       <c r="C43">
-        <v>-0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D43">
-        <v>0.283</v>
+        <v>0.233</v>
       </c>
       <c r="E43">
-        <v>0.267</v>
+        <v>0.35</v>
       </c>
       <c r="F43">
-        <v>-0.197</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.571</v>
+        <v>-0.034</v>
       </c>
       <c r="C44">
-        <v>-0.623</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D44">
-        <v>0.505</v>
+        <v>-0.295</v>
       </c>
       <c r="E44">
-        <v>0.233</v>
+        <v>0.194</v>
       </c>
       <c r="F44">
-        <v>-0.219</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.586</v>
+        <v>0.445</v>
       </c>
       <c r="C45">
-        <v>-0.764</v>
+        <v>0.529</v>
       </c>
       <c r="D45">
-        <v>0.423</v>
+        <v>0.19</v>
       </c>
       <c r="E45">
-        <v>0.476</v>
+        <v>0.09</v>
       </c>
       <c r="F45">
-        <v>-0.239</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5679999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="C46">
-        <v>-0.75</v>
+        <v>0.619</v>
       </c>
       <c r="D46">
-        <v>0.6860000000000001</v>
+        <v>-0.124</v>
       </c>
       <c r="E46">
-        <v>0.598</v>
+        <v>0.158</v>
       </c>
       <c r="F46">
-        <v>-0.21</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.28</v>
+        <v>0.093</v>
       </c>
       <c r="C47">
-        <v>0.089</v>
+        <v>0.54</v>
       </c>
       <c r="D47">
-        <v>0.362</v>
+        <v>0.224</v>
       </c>
       <c r="E47">
-        <v>0.362</v>
+        <v>0.178</v>
       </c>
       <c r="F47">
-        <v>0.05</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="C48">
-        <v>0.386</v>
+        <v>0.503</v>
       </c>
       <c r="D48">
-        <v>0.254</v>
+        <v>0.09</v>
       </c>
       <c r="E48">
-        <v>0.374</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="F48">
-        <v>0.09</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
       <c r="C49">
-        <v>0.494</v>
+        <v>0.282</v>
       </c>
       <c r="D49">
-        <v>0.192</v>
+        <v>0.224</v>
       </c>
       <c r="E49">
-        <v>0.141</v>
+        <v>0.545</v>
       </c>
       <c r="F49">
-        <v>0.026</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.405</v>
+        <v>0.27</v>
       </c>
       <c r="C50">
-        <v>0.091</v>
+        <v>0.478</v>
       </c>
       <c r="D50">
-        <v>0.466</v>
+        <v>0.163</v>
       </c>
       <c r="E50">
-        <v>0.188</v>
+        <v>0.382</v>
       </c>
       <c r="F50">
-        <v>0.031</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.244</v>
+        <v>0.253</v>
       </c>
       <c r="C51">
-        <v>0.501</v>
+        <v>0.708</v>
       </c>
       <c r="D51">
-        <v>0.275</v>
+        <v>0.174</v>
       </c>
       <c r="E51">
-        <v>0.379</v>
+        <v>0.098</v>
       </c>
       <c r="F51">
-        <v>0.052</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.436</v>
+        <v>-0.028</v>
       </c>
       <c r="C52">
-        <v>-0.055</v>
+        <v>0.392</v>
       </c>
       <c r="D52">
-        <v>0.198</v>
+        <v>-0.02</v>
       </c>
       <c r="E52">
-        <v>0.187</v>
+        <v>0.533</v>
       </c>
       <c r="F52">
-        <v>-0.006</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4</v>
+        <v>0.053</v>
       </c>
       <c r="C53">
-        <v>-0.191</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D53">
-        <v>0.353</v>
+        <v>0.543</v>
       </c>
       <c r="E53">
-        <v>0.163</v>
+        <v>0.424</v>
       </c>
       <c r="F53">
-        <v>-0.105</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.41</v>
+        <v>0.288</v>
       </c>
       <c r="C54">
-        <v>-0.289</v>
+        <v>0.37</v>
       </c>
       <c r="D54">
-        <v>0.296</v>
+        <v>0.027</v>
       </c>
       <c r="E54">
-        <v>0.333</v>
+        <v>0.351</v>
       </c>
       <c r="F54">
-        <v>-0.119</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>53</v>
       </c>
       <c r="B55">
+        <v>0.342</v>
+      </c>
+      <c r="C55">
+        <v>0.433</v>
+      </c>
+      <c r="D55">
+        <v>0.361</v>
+      </c>
+      <c r="E55">
         <v>0.398</v>
       </c>
-      <c r="C55">
-        <v>-0.279</v>
-      </c>
-      <c r="D55">
-        <v>0.48</v>
-      </c>
-      <c r="E55">
-        <v>0.419</v>
-      </c>
       <c r="F55">
-        <v>-0.099</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.196</v>
+        <v>0.27</v>
       </c>
       <c r="C56">
-        <v>0.555</v>
+        <v>0.378</v>
       </c>
       <c r="D56">
-        <v>0.653</v>
+        <v>0.098</v>
       </c>
       <c r="E56">
-        <v>0.524</v>
+        <v>0.395</v>
       </c>
       <c r="F56">
-        <v>0.119</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.301</v>
+        <v>0.147</v>
       </c>
       <c r="C57">
-        <v>0.338</v>
+        <v>0.352</v>
       </c>
       <c r="D57">
-        <v>0.578</v>
+        <v>0.063</v>
       </c>
       <c r="E57">
-        <v>0.532</v>
+        <v>-0.006</v>
       </c>
       <c r="F57">
-        <v>0.147</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.273</v>
+        <v>0.202</v>
       </c>
       <c r="C58">
-        <v>0.346</v>
+        <v>0.197</v>
       </c>
       <c r="D58">
-        <v>0.134</v>
+        <v>0.098</v>
       </c>
       <c r="E58">
-        <v>0.099</v>
+        <v>0.652</v>
       </c>
       <c r="F58">
-        <v>0.018</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.283</v>
+        <v>0.43</v>
       </c>
       <c r="C59">
-        <v>0.307</v>
+        <v>0.335</v>
       </c>
       <c r="D59">
-        <v>0.726</v>
+        <v>0.083</v>
       </c>
       <c r="E59">
-        <v>0.041</v>
+        <v>0.538</v>
       </c>
       <c r="F59">
-        <v>0.02</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.171</v>
+        <v>0.418</v>
       </c>
       <c r="C60">
-        <v>0.39</v>
+        <v>0.496</v>
       </c>
       <c r="D60">
-        <v>0.592</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E60">
-        <v>0.536</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F60">
-        <v>0.059</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.305</v>
+        <v>0.406</v>
       </c>
       <c r="C61">
-        <v>0.749</v>
+        <v>0.274</v>
       </c>
       <c r="D61">
-        <v>0.126</v>
+        <v>0.032</v>
       </c>
       <c r="E61">
-        <v>0.043</v>
+        <v>0.644</v>
       </c>
       <c r="F61">
-        <v>0.056</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.28</v>
+        <v>0.323</v>
       </c>
       <c r="C62">
-        <v>0.9320000000000001</v>
+        <v>0.396</v>
       </c>
       <c r="D62">
-        <v>0.647</v>
+        <v>0.186</v>
       </c>
       <c r="E62">
-        <v>0.07199999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F62">
-        <v>0.031</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.287</v>
+        <v>0.442</v>
       </c>
       <c r="C63">
-        <v>0.473</v>
+        <v>0.259</v>
       </c>
       <c r="D63">
-        <v>0.607</v>
+        <v>0.044</v>
       </c>
       <c r="E63">
-        <v>0.504</v>
+        <v>0.516</v>
       </c>
       <c r="F63">
-        <v>0.027</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.279</v>
+        <v>0.48</v>
       </c>
       <c r="C64">
-        <v>0.48</v>
+        <v>0.303</v>
       </c>
       <c r="D64">
-        <v>0.736</v>
+        <v>0.136</v>
       </c>
       <c r="E64">
-        <v>0.5639999999999999</v>
+        <v>0.549</v>
       </c>
       <c r="F64">
-        <v>0.033</v>
+        <v>-0.059</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.104</v>
+        <v>0.189</v>
       </c>
       <c r="C65">
-        <v>0.505</v>
+        <v>0.668</v>
       </c>
       <c r="D65">
-        <v>0.457</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E65">
-        <v>0.367</v>
+        <v>0.276</v>
       </c>
       <c r="F65">
-        <v>0.119</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.438</v>
+        <v>0.103</v>
       </c>
       <c r="C66">
-        <v>0.372</v>
+        <v>0.65</v>
       </c>
       <c r="D66">
-        <v>0.405</v>
+        <v>0.175</v>
       </c>
       <c r="E66">
-        <v>0.372</v>
+        <v>-0.263</v>
       </c>
       <c r="F66">
-        <v>0.127</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.418</v>
+        <v>0.141</v>
       </c>
       <c r="C67">
-        <v>0.293</v>
+        <v>0.138</v>
       </c>
       <c r="D67">
-        <v>0.094</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E67">
+        <v>0.456</v>
+      </c>
+      <c r="F67">
         <v>0.06900000000000001</v>
-      </c>
-      <c r="F67">
-        <v>0.007</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.425</v>
+        <v>0.301</v>
       </c>
       <c r="C68">
-        <v>0.589</v>
+        <v>0.638</v>
       </c>
       <c r="D68">
-        <v>0.508</v>
+        <v>0.116</v>
       </c>
       <c r="E68">
-        <v>0.029</v>
+        <v>0.377</v>
       </c>
       <c r="F68">
-        <v>0.007</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.12</v>
+        <v>0.293</v>
       </c>
       <c r="C69">
-        <v>0.273</v>
+        <v>0.75</v>
       </c>
       <c r="D69">
-        <v>0.414</v>
+        <v>0.109</v>
       </c>
       <c r="E69">
-        <v>0.375</v>
+        <v>0.05</v>
       </c>
       <c r="F69">
-        <v>0.041</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.441</v>
+        <v>0.284</v>
       </c>
       <c r="C70">
-        <v>0.539</v>
+        <v>0.595</v>
       </c>
       <c r="D70">
+        <v>0.264</v>
+      </c>
+      <c r="E70">
+        <v>0.451</v>
+      </c>
+      <c r="F70">
         <v>0.08799999999999999</v>
-      </c>
-      <c r="E70">
-        <v>0.03</v>
-      </c>
-      <c r="F70">
-        <v>0.078</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.423</v>
+        <v>0.226</v>
       </c>
       <c r="C71">
-        <v>0.571</v>
+        <v>0.68</v>
       </c>
       <c r="D71">
-        <v>0.453</v>
+        <v>-0.188</v>
       </c>
       <c r="E71">
-        <v>0.05</v>
+        <v>0.397</v>
       </c>
       <c r="F71">
-        <v>0.116</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.428</v>
+        <v>0.309</v>
       </c>
       <c r="C72">
-        <v>0.798</v>
+        <v>0.584</v>
       </c>
       <c r="D72">
-        <v>0.425</v>
+        <v>0.227</v>
       </c>
       <c r="E72">
-        <v>0.353</v>
+        <v>0.361</v>
       </c>
       <c r="F72">
-        <v>0.121</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.423</v>
+        <v>0.336</v>
       </c>
       <c r="C73">
-        <v>0.788</v>
+        <v>0.615</v>
       </c>
       <c r="D73">
-        <v>0.515</v>
+        <v>-0.042</v>
       </c>
       <c r="E73">
-        <v>0.395</v>
+        <v>0.384</v>
       </c>
       <c r="F73">
-        <v>0.114</v>
+        <v>-0.074</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.073</v>
+        <v>0.068</v>
       </c>
       <c r="C74">
-        <v>0.353</v>
+        <v>0.468</v>
       </c>
       <c r="D74">
-        <v>0.516</v>
+        <v>0.048</v>
       </c>
       <c r="E74">
-        <v>0.389</v>
+        <v>0.193</v>
       </c>
       <c r="F74">
-        <v>0.076</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.307</v>
+        <v>0.123</v>
       </c>
       <c r="C75">
-        <v>0.26</v>
+        <v>0.455</v>
       </c>
       <c r="D75">
-        <v>0.479</v>
+        <v>0.033</v>
       </c>
       <c r="E75">
-        <v>0.393</v>
+        <v>0.062</v>
       </c>
       <c r="F75">
-        <v>0.067</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.293</v>
+        <v>0.099</v>
       </c>
       <c r="C76">
-        <v>0.205</v>
+        <v>0.097</v>
       </c>
       <c r="D76">
-        <v>0.066</v>
+        <v>0.048</v>
       </c>
       <c r="E76">
+        <v>0.319</v>
+      </c>
+      <c r="F76">
         <v>0.048</v>
-      </c>
-      <c r="F76">
-        <v>0.005</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.297</v>
+        <v>0.398</v>
       </c>
       <c r="C77">
-        <v>0.412</v>
+        <v>0.447</v>
       </c>
       <c r="D77">
-        <v>0.551</v>
+        <v>0.042</v>
       </c>
       <c r="E77">
-        <v>0.097</v>
+        <v>0.264</v>
       </c>
       <c r="F77">
-        <v>0.003</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.08400000000000001</v>
+        <v>0.393</v>
       </c>
       <c r="C78">
-        <v>0.191</v>
+        <v>0.525</v>
       </c>
       <c r="D78">
-        <v>0.486</v>
+        <v>0.043</v>
       </c>
       <c r="E78">
-        <v>0.395</v>
+        <v>-0.061</v>
       </c>
       <c r="F78">
-        <v>0.019</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.309</v>
+        <v>0.386</v>
       </c>
       <c r="C79">
-        <v>0.377</v>
+        <v>0.416</v>
       </c>
       <c r="D79">
-        <v>0.074</v>
+        <v>0.02</v>
       </c>
       <c r="E79">
-        <v>0.096</v>
+        <v>0.316</v>
       </c>
       <c r="F79">
-        <v>0.068</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.296</v>
+        <v>0.346</v>
       </c>
       <c r="C80">
-        <v>0.4</v>
+        <v>0.476</v>
       </c>
       <c r="D80">
-        <v>0.513</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E80">
-        <v>0.07099999999999999</v>
+        <v>0.278</v>
       </c>
       <c r="F80">
-        <v>0.134</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.3</v>
+        <v>0.404</v>
       </c>
       <c r="C81">
-        <v>0.5590000000000001</v>
+        <v>0.409</v>
       </c>
       <c r="D81">
-        <v>0.493</v>
+        <v>0.026</v>
       </c>
       <c r="E81">
-        <v>0.38</v>
+        <v>0.253</v>
       </c>
       <c r="F81">
-        <v>0.143</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.296</v>
+        <v>0.423</v>
       </c>
       <c r="C82">
-        <v>0.552</v>
+        <v>0.43</v>
       </c>
       <c r="D82">
-        <v>0.556</v>
+        <v>0.064</v>
       </c>
       <c r="E82">
-        <v>0.409</v>
+        <v>0.269</v>
       </c>
       <c r="F82">
-        <v>0.13</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.046</v>
+        <v>0.048</v>
       </c>
       <c r="C83">
-        <v>0.247</v>
+        <v>0.328</v>
       </c>
       <c r="D83">
-        <v>0.699</v>
+        <v>0.034</v>
       </c>
       <c r="E83">
-        <v>0.514</v>
+        <v>0.135</v>
       </c>
       <c r="F83">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.215</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C84">
-        <v>0.182</v>
+        <v>0.319</v>
       </c>
       <c r="D84">
-        <v>0.673</v>
+        <v>-0.035</v>
       </c>
       <c r="E84">
-        <v>0.517</v>
+        <v>0.54</v>
       </c>
       <c r="F84">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.205</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C85">
-        <v>0.143</v>
+        <v>-0.131</v>
       </c>
       <c r="D85">
-        <v>0.05</v>
+        <v>0.034</v>
       </c>
       <c r="E85">
-        <v>0.051</v>
+        <v>0.594</v>
       </c>
       <c r="F85">
-        <v>0.017</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.208</v>
+        <v>0.279</v>
       </c>
       <c r="C86">
-        <v>0.288</v>
+        <v>0.313</v>
       </c>
       <c r="D86">
-        <v>0.723</v>
+        <v>0.002</v>
       </c>
       <c r="E86">
-        <v>0.068</v>
+        <v>0.555</v>
       </c>
       <c r="F86">
-        <v>0.014</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.053</v>
+        <v>0.275</v>
       </c>
       <c r="C87">
-        <v>-0.257</v>
+        <v>0.367</v>
       </c>
       <c r="D87">
-        <v>0.678</v>
+        <v>0.007</v>
       </c>
       <c r="E87">
-        <v>0.518</v>
+        <v>0.349</v>
       </c>
       <c r="F87">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.216</v>
+        <v>0.27</v>
       </c>
       <c r="C88">
-        <v>0.264</v>
+        <v>0.291</v>
       </c>
       <c r="D88">
-        <v>0.052</v>
+        <v>-0.092</v>
       </c>
       <c r="E88">
-        <v>0.067</v>
+        <v>0.592</v>
       </c>
       <c r="F88">
-        <v>0.048</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.207</v>
+        <v>0.242</v>
       </c>
       <c r="C89">
-        <v>0.28</v>
+        <v>0.333</v>
       </c>
       <c r="D89">
-        <v>0.697</v>
+        <v>0.199</v>
       </c>
       <c r="E89">
-        <v>0.059</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F89">
-        <v>0.105</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.21</v>
+        <v>0.283</v>
       </c>
       <c r="C90">
-        <v>0.391</v>
+        <v>0.286</v>
       </c>
       <c r="D90">
-        <v>0.6830000000000001</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="E90">
-        <v>0.508</v>
+        <v>0.548</v>
       </c>
       <c r="F90">
-        <v>0.113</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.207</v>
+        <v>0.296</v>
       </c>
       <c r="C91">
-        <v>0.386</v>
+        <v>0.301</v>
       </c>
       <c r="D91">
-        <v>0.727</v>
+        <v>0.105</v>
       </c>
       <c r="E91">
-        <v>0.528</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F91">
-        <v>0.101</v>
+        <v>0.014</v>
       </c>
     </row>
   </sheetData>
@@ -3512,19 +3512,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.715</v>
+        <v>0.289</v>
       </c>
       <c r="C11">
-        <v>0.344</v>
+        <v>0.319</v>
       </c>
       <c r="D11">
-        <v>0.414</v>
+        <v>0.389</v>
       </c>
       <c r="E11">
-        <v>0.672</v>
+        <v>0.373</v>
       </c>
       <c r="F11">
-        <v>0.386</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3532,19 +3532,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.138</v>
+        <v>0.491</v>
       </c>
       <c r="C12">
-        <v>0.171</v>
+        <v>0.296</v>
       </c>
       <c r="D12">
-        <v>0.224</v>
+        <v>0.493</v>
       </c>
       <c r="E12">
-        <v>0.6909999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="F12">
-        <v>0.355</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3552,19 +3552,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.54</v>
+        <v>0.403</v>
       </c>
       <c r="C13">
-        <v>0.131</v>
+        <v>0.138</v>
       </c>
       <c r="D13">
-        <v>0.117</v>
+        <v>0.388</v>
       </c>
       <c r="E13">
-        <v>0.24</v>
+        <v>0.295</v>
       </c>
       <c r="F13">
-        <v>0.037</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3572,19 +3572,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.371</v>
+        <v>0.593</v>
       </c>
       <c r="C14">
-        <v>0.296</v>
+        <v>0.601</v>
       </c>
       <c r="D14">
-        <v>0.593</v>
+        <v>0.435</v>
       </c>
       <c r="E14">
-        <v>0.319</v>
+        <v>0.746</v>
       </c>
       <c r="F14">
-        <v>0.03</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3592,19 +3592,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.678</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C15">
-        <v>0.333</v>
+        <v>0.457</v>
       </c>
       <c r="D15">
-        <v>0.263</v>
+        <v>0.428</v>
       </c>
       <c r="E15">
-        <v>0.703</v>
+        <v>0.552</v>
       </c>
       <c r="F15">
-        <v>0.116</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3612,19 +3612,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.053</v>
+        <v>0.078</v>
       </c>
       <c r="C16">
-        <v>0.472</v>
+        <v>0.229</v>
       </c>
       <c r="D16">
-        <v>0.128</v>
+        <v>0.579</v>
       </c>
       <c r="E16">
-        <v>0.317</v>
+        <v>0.306</v>
       </c>
       <c r="F16">
-        <v>0.582</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3632,19 +3632,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.415</v>
+        <v>0.217</v>
       </c>
       <c r="C17">
-        <v>0.583</v>
+        <v>0.536</v>
       </c>
       <c r="D17">
-        <v>0.398</v>
+        <v>0.139</v>
       </c>
       <c r="E17">
-        <v>0.265</v>
+        <v>0.785</v>
       </c>
       <c r="F17">
-        <v>0.628</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3652,19 +3652,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.303</v>
+        <v>0.624</v>
       </c>
       <c r="C18">
-        <v>0.665</v>
+        <v>0.219</v>
       </c>
       <c r="D18">
-        <v>0.297</v>
+        <v>0.543</v>
       </c>
       <c r="E18">
-        <v>0.584</v>
+        <v>0.713</v>
       </c>
       <c r="F18">
-        <v>0.67</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3672,19 +3672,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.425</v>
+        <v>0.717</v>
       </c>
       <c r="C19">
-        <v>0.659</v>
+        <v>0.268</v>
       </c>
       <c r="D19">
-        <v>0.619</v>
+        <v>0.282</v>
       </c>
       <c r="E19">
-        <v>0.109</v>
+        <v>0.762</v>
       </c>
       <c r="F19">
-        <v>0.609</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3692,19 +3692,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.405</v>
+        <v>0.581</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.477</v>
       </c>
       <c r="D20">
-        <v>0.321</v>
+        <v>0.399</v>
       </c>
       <c r="E20">
-        <v>0.365</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F20">
-        <v>0.276</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3712,19 +3712,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.866</v>
+        <v>0.423</v>
       </c>
       <c r="C21">
-        <v>0.342</v>
+        <v>0.545</v>
       </c>
       <c r="D21">
-        <v>0.577</v>
+        <v>0.257</v>
       </c>
       <c r="E21">
-        <v>0.334</v>
+        <v>0.535</v>
       </c>
       <c r="F21">
-        <v>0.202</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3732,19 +3732,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.548</v>
+        <v>0.495</v>
       </c>
       <c r="C22">
-        <v>0.453</v>
+        <v>0.961</v>
       </c>
       <c r="D22">
-        <v>0.722</v>
+        <v>0.399</v>
       </c>
       <c r="E22">
-        <v>0.983</v>
+        <v>0.8</v>
       </c>
       <c r="F22">
-        <v>0.178</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3752,19 +3752,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6850000000000001</v>
+        <v>0.346</v>
       </c>
       <c r="C23">
-        <v>0.034</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
-        <v>0.077</v>
+        <v>0.335</v>
       </c>
       <c r="E23">
-        <v>0.859</v>
+        <v>0.384</v>
       </c>
       <c r="F23">
-        <v>0.169</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3772,19 +3772,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.443</v>
+        <v>0.371</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D24">
-        <v>0.526</v>
+        <v>0.346</v>
       </c>
       <c r="E24">
-        <v>0.319</v>
+        <v>0.679</v>
       </c>
       <c r="F24">
-        <v>0.169</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3792,19 +3792,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9409999999999999</v>
+        <v>0.759</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>0.747</v>
       </c>
       <c r="D25">
-        <v>0.707</v>
+        <v>0.141</v>
       </c>
       <c r="E25">
-        <v>0.862</v>
+        <v>0.8</v>
       </c>
       <c r="F25">
-        <v>0.174</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3812,19 +3812,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.656</v>
+        <v>0.651</v>
       </c>
       <c r="C26">
         <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.342</v>
+        <v>0.736</v>
       </c>
       <c r="E26">
-        <v>0.9320000000000001</v>
+        <v>0.322</v>
       </c>
       <c r="F26">
-        <v>0.174</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3832,19 +3832,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.747</v>
+        <v>0.33</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.785</v>
       </c>
       <c r="D27">
-        <v>0.478</v>
+        <v>0.19</v>
       </c>
       <c r="E27">
-        <v>0.464</v>
+        <v>0.42</v>
       </c>
       <c r="F27">
-        <v>0.175</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3852,19 +3852,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.652</v>
+        <v>0.258</v>
       </c>
       <c r="C28">
-        <v>0.2</v>
+        <v>0.665</v>
       </c>
       <c r="D28">
-        <v>0.043</v>
+        <v>0.543</v>
       </c>
       <c r="E28">
-        <v>0.8</v>
+        <v>0.358</v>
       </c>
       <c r="F28">
-        <v>0.173</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3872,19 +3872,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.901</v>
+        <v>0.671</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.406</v>
       </c>
       <c r="E29">
         <v>0.8</v>
       </c>
       <c r="F29">
-        <v>0.155</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3892,19 +3892,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>0.471</v>
       </c>
       <c r="C30">
-        <v>0.171</v>
+        <v>0.8</v>
       </c>
       <c r="D30">
-        <v>0.8</v>
+        <v>0.388</v>
       </c>
       <c r="E30">
-        <v>0.8</v>
+        <v>0.963</v>
       </c>
       <c r="F30">
-        <v>0.083</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3912,19 +3912,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C31">
-        <v>0.161</v>
+        <v>0.8</v>
       </c>
       <c r="D31">
-        <v>0.8</v>
+        <v>0.407</v>
       </c>
       <c r="E31">
         <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.275</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3932,19 +3932,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8</v>
+        <v>0.371</v>
       </c>
       <c r="C32">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
+        <v>0.398</v>
       </c>
       <c r="E32">
-        <v>0.8</v>
+        <v>0.929</v>
       </c>
       <c r="F32">
-        <v>0.268</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3952,19 +3952,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9409999999999999</v>
+        <v>0.401</v>
       </c>
       <c r="C33">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D33">
-        <v>0.8</v>
+        <v>0.399</v>
       </c>
       <c r="E33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.208</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3972,19 +3972,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8</v>
+        <v>0.885</v>
       </c>
       <c r="C34">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D34">
-        <v>0.8</v>
+        <v>0.372</v>
       </c>
       <c r="E34">
         <v>0.8</v>
       </c>
       <c r="F34">
-        <v>0.2</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3992,19 +3992,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8</v>
+        <v>0.747</v>
       </c>
       <c r="C35">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D35">
-        <v>0.8</v>
+        <v>0.452</v>
       </c>
       <c r="E35">
-        <v>0.8</v>
+        <v>0.915</v>
       </c>
       <c r="F35">
-        <v>0.2</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4012,19 +4012,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8</v>
+        <v>0.344</v>
       </c>
       <c r="C36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D36">
-        <v>0.8</v>
+        <v>0.378</v>
       </c>
       <c r="E36">
-        <v>0.8</v>
+        <v>0.944</v>
       </c>
       <c r="F36">
-        <v>0.2</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4032,19 +4032,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8</v>
+        <v>0.252</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.8</v>
+        <v>0.426</v>
       </c>
       <c r="E37">
-        <v>0.8</v>
+        <v>0.924</v>
       </c>
       <c r="F37">
-        <v>0.2</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4052,19 +4052,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8</v>
+        <v>0.734</v>
       </c>
       <c r="C38">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D38">
-        <v>0.8</v>
+        <v>0.411</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F38">
-        <v>0.093</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4072,19 +4072,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8</v>
+        <v>0.771</v>
       </c>
       <c r="C39">
-        <v>0.111</v>
+        <v>0.8</v>
       </c>
       <c r="D39">
-        <v>0.8</v>
+        <v>0.517</v>
       </c>
       <c r="E39">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F39">
-        <v>0.053</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4092,19 +4092,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8</v>
+        <v>0.753</v>
       </c>
       <c r="C40">
-        <v>0.036</v>
+        <v>0.8</v>
       </c>
       <c r="D40">
-        <v>0.8</v>
+        <v>0.411</v>
       </c>
       <c r="E40">
         <v>0.8</v>
       </c>
       <c r="F40">
-        <v>0.314</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4112,19 +4112,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8</v>
+        <v>0.787</v>
       </c>
       <c r="C41">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="D41">
-        <v>0.8</v>
+        <v>0.459</v>
       </c>
       <c r="E41">
         <v>0.8</v>
       </c>
       <c r="F41">
-        <v>0.312</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4132,19 +4132,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8</v>
+        <v>0.781</v>
       </c>
       <c r="C42">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="D42">
-        <v>0.8</v>
+        <v>0.451</v>
       </c>
       <c r="E42">
-        <v>0.8</v>
+        <v>0.841</v>
       </c>
       <c r="F42">
-        <v>0.235</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4152,19 +4152,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="C43">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D43">
-        <v>0.8</v>
+        <v>0.605</v>
       </c>
       <c r="E43">
         <v>0.8</v>
       </c>
       <c r="F43">
-        <v>0.003</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4172,19 +4172,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8</v>
+        <v>0.713</v>
       </c>
       <c r="C44">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D44">
-        <v>0.8</v>
+        <v>0.157</v>
       </c>
       <c r="E44">
         <v>0.8</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4192,19 +4192,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="C45">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D45">
-        <v>0.8</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E45">
         <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.2</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4212,19 +4212,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="C46">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D46">
-        <v>0.8</v>
+        <v>0.302</v>
       </c>
       <c r="E46">
         <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.2</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4232,19 +4232,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.8</v>
+        <v>0.827</v>
       </c>
       <c r="C47">
-        <v>0.289</v>
+        <v>0.8</v>
       </c>
       <c r="D47">
-        <v>0.8</v>
+        <v>0.635</v>
       </c>
       <c r="E47">
         <v>0.8</v>
       </c>
       <c r="F47">
-        <v>0.143</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4252,19 +4252,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8</v>
+        <v>0.981</v>
       </c>
       <c r="C48">
-        <v>0.497</v>
+        <v>0.8</v>
       </c>
       <c r="D48">
-        <v>0.8</v>
+        <v>0.607</v>
       </c>
       <c r="E48">
-        <v>0.8</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F48">
-        <v>0.143</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4272,19 +4272,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8</v>
+        <v>0.913</v>
       </c>
       <c r="C49">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="D49">
-        <v>0.992</v>
+        <v>0.635</v>
       </c>
       <c r="E49">
-        <v>0.9409999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F49">
-        <v>0.34</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4295,16 +4295,16 @@
         <v>0.8</v>
       </c>
       <c r="C50">
-        <v>0.411</v>
+        <v>0.8</v>
       </c>
       <c r="D50">
-        <v>0.8</v>
+        <v>0.622</v>
       </c>
       <c r="E50">
-        <v>0.988</v>
+        <v>0.8</v>
       </c>
       <c r="F50">
-        <v>0.343</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4315,16 +4315,16 @@
         <v>0.8</v>
       </c>
       <c r="C51">
-        <v>0.511</v>
+        <v>0.8</v>
       </c>
       <c r="D51">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
       <c r="E51">
-        <v>0.8</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F51">
-        <v>0.287</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4332,19 +4332,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8</v>
+        <v>0.661</v>
       </c>
       <c r="C52">
-        <v>0.145</v>
+        <v>0.8</v>
       </c>
       <c r="D52">
-        <v>0.998</v>
+        <v>0.585</v>
       </c>
       <c r="E52">
-        <v>0.987</v>
+        <v>0.8</v>
       </c>
       <c r="F52">
-        <v>0.2</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4352,19 +4352,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.8</v>
+        <v>0.766</v>
       </c>
       <c r="C53">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D53">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E53">
-        <v>0.963</v>
+        <v>0.8</v>
       </c>
       <c r="F53">
-        <v>0.095</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4375,16 +4375,16 @@
         <v>0.8</v>
       </c>
       <c r="C54">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D54">
-        <v>0.8</v>
+        <v>0.595</v>
       </c>
       <c r="E54">
         <v>0.8</v>
       </c>
       <c r="F54">
-        <v>0.081</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4395,16 +4395,16 @@
         <v>0.8</v>
       </c>
       <c r="C55">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D55">
-        <v>0.8</v>
+        <v>0.663</v>
       </c>
       <c r="E55">
         <v>0.8</v>
       </c>
       <c r="F55">
-        <v>0.101</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4412,19 +4412,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.996</v>
+        <v>0.8</v>
       </c>
       <c r="C56">
-        <v>0.844</v>
+        <v>0.8</v>
       </c>
       <c r="D56">
-        <v>0.8</v>
+        <v>0.733</v>
       </c>
       <c r="E56">
         <v>0.8</v>
       </c>
       <c r="F56">
-        <v>0.262</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4435,16 +4435,16 @@
         <v>0.8</v>
       </c>
       <c r="C57">
-        <v>0.835</v>
+        <v>0.8</v>
       </c>
       <c r="D57">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="E57">
-        <v>0.8</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F57">
-        <v>0.29</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4455,16 +4455,16 @@
         <v>0.8</v>
       </c>
       <c r="C58">
-        <v>0.876</v>
+        <v>0.997</v>
       </c>
       <c r="D58">
-        <v>0.8</v>
+        <v>0.733</v>
       </c>
       <c r="E58">
         <v>0.8</v>
       </c>
       <c r="F58">
-        <v>0.358</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4475,16 +4475,16 @@
         <v>0.8</v>
       </c>
       <c r="C59">
-        <v>0.718</v>
+        <v>0.8</v>
       </c>
       <c r="D59">
-        <v>0.8</v>
+        <v>0.705</v>
       </c>
       <c r="E59">
         <v>0.8</v>
       </c>
       <c r="F59">
-        <v>0.363</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4492,19 +4492,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.971</v>
+        <v>0.8</v>
       </c>
       <c r="C60">
-        <v>0.901</v>
+        <v>0.8</v>
       </c>
       <c r="D60">
-        <v>0.8</v>
+        <v>0.709</v>
       </c>
       <c r="E60">
         <v>0.8</v>
       </c>
       <c r="F60">
-        <v>0.346</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4515,16 +4515,16 @@
         <v>0.8</v>
       </c>
       <c r="C61">
-        <v>0.894</v>
+        <v>0.8</v>
       </c>
       <c r="D61">
-        <v>0.8</v>
+        <v>0.617</v>
       </c>
       <c r="E61">
         <v>0.8</v>
       </c>
       <c r="F61">
-        <v>0.256</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4535,16 +4535,16 @@
         <v>0.8</v>
       </c>
       <c r="C62">
-        <v>0.9409999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D62">
-        <v>0.8</v>
+        <v>0.886</v>
       </c>
       <c r="E62">
         <v>0.8</v>
       </c>
       <c r="F62">
-        <v>0.126</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4555,16 +4555,16 @@
         <v>0.8</v>
       </c>
       <c r="C63">
-        <v>0.673</v>
+        <v>0.8</v>
       </c>
       <c r="D63">
-        <v>0.8</v>
+        <v>0.639</v>
       </c>
       <c r="E63">
         <v>0.8</v>
       </c>
       <c r="F63">
-        <v>0.108</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4575,16 +4575,16 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="D64">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="E64">
         <v>0.8</v>
       </c>
       <c r="F64">
-        <v>0.134</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4592,19 +4592,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.8</v>
+        <v>0.989</v>
       </c>
       <c r="C65">
         <v>0.8</v>
       </c>
       <c r="D65">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="E65">
         <v>0.8</v>
       </c>
       <c r="F65">
-        <v>0.381</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4612,19 +4612,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.8</v>
+        <v>0.903</v>
       </c>
       <c r="C66">
         <v>0.8</v>
       </c>
       <c r="D66">
-        <v>0.8</v>
+        <v>0.845</v>
       </c>
       <c r="E66">
-        <v>0.8</v>
+        <v>0.672</v>
       </c>
       <c r="F66">
-        <v>0.417</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4632,19 +4632,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.8</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C67">
         <v>0.8</v>
       </c>
       <c r="D67">
-        <v>0.894</v>
+        <v>0.802</v>
       </c>
       <c r="E67">
-        <v>0.869</v>
+        <v>0.8</v>
       </c>
       <c r="F67">
-        <v>0.365</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4658,13 +4658,13 @@
         <v>0.8</v>
       </c>
       <c r="D68">
-        <v>0.8</v>
+        <v>0.821</v>
       </c>
       <c r="E68">
-        <v>0.829</v>
+        <v>0.8</v>
       </c>
       <c r="F68">
-        <v>0.37</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4678,13 +4678,13 @@
         <v>0.8</v>
       </c>
       <c r="D69">
-        <v>0.8</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E69">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F69">
-        <v>0.387</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4698,13 +4698,13 @@
         <v>0.8</v>
       </c>
       <c r="D70">
-        <v>0.888</v>
+        <v>0.881</v>
       </c>
       <c r="E70">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F70">
-        <v>0.334</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4718,13 +4718,13 @@
         <v>0.8</v>
       </c>
       <c r="D71">
-        <v>0.8</v>
+        <v>0.698</v>
       </c>
       <c r="E71">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F71">
-        <v>0.242</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4738,13 +4738,13 @@
         <v>0.8</v>
       </c>
       <c r="D72">
-        <v>0.8</v>
+        <v>0.866</v>
       </c>
       <c r="E72">
         <v>0.8</v>
       </c>
       <c r="F72">
-        <v>0.229</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4758,13 +4758,13 @@
         <v>0.8</v>
       </c>
       <c r="D73">
-        <v>0.8</v>
+        <v>0.757</v>
       </c>
       <c r="E73">
         <v>0.8</v>
       </c>
       <c r="F73">
-        <v>0.248</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4772,19 +4772,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.873</v>
+        <v>0.8</v>
       </c>
       <c r="C74">
         <v>0.8</v>
       </c>
       <c r="D74">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E74">
-        <v>0.8</v>
+        <v>0.993</v>
       </c>
       <c r="F74">
-        <v>0.457</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4798,13 +4798,13 @@
         <v>0.8</v>
       </c>
       <c r="D75">
-        <v>0.8</v>
+        <v>0.878</v>
       </c>
       <c r="E75">
-        <v>0.8</v>
+        <v>0.734</v>
       </c>
       <c r="F75">
-        <v>0.484</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4815,16 +4815,16 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>0.8</v>
+        <v>0.897</v>
       </c>
       <c r="D76">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="E76">
-        <v>0.917</v>
+        <v>0.8</v>
       </c>
       <c r="F76">
-        <v>0.37</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4838,13 +4838,13 @@
         <v>0.8</v>
       </c>
       <c r="D77">
-        <v>0.8</v>
+        <v>0.863</v>
       </c>
       <c r="E77">
-        <v>0.926</v>
+        <v>0.8</v>
       </c>
       <c r="F77">
-        <v>0.373</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4852,19 +4852,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.884</v>
+        <v>0.8</v>
       </c>
       <c r="C78">
-        <v>0.991</v>
+        <v>0.8</v>
       </c>
       <c r="D78">
-        <v>0.8</v>
+        <v>0.861</v>
       </c>
       <c r="E78">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="F78">
-        <v>0.406</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4878,13 +4878,13 @@
         <v>0.8</v>
       </c>
       <c r="D79">
-        <v>0.962</v>
+        <v>0.901</v>
       </c>
       <c r="E79">
-        <v>0.926</v>
+        <v>0.8</v>
       </c>
       <c r="F79">
-        <v>0.402</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4898,13 +4898,13 @@
         <v>0.8</v>
       </c>
       <c r="D80">
-        <v>0.8</v>
+        <v>0.783</v>
       </c>
       <c r="E80">
-        <v>0.921</v>
+        <v>0.8</v>
       </c>
       <c r="F80">
-        <v>0.376</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4918,13 +4918,13 @@
         <v>0.8</v>
       </c>
       <c r="D81">
-        <v>0.8</v>
+        <v>0.892</v>
       </c>
       <c r="E81">
         <v>0.8</v>
       </c>
       <c r="F81">
-        <v>0.372</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4938,13 +4938,13 @@
         <v>0.8</v>
       </c>
       <c r="D82">
-        <v>0.8</v>
+        <v>0.821</v>
       </c>
       <c r="E82">
         <v>0.8</v>
       </c>
       <c r="F82">
-        <v>0.378</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4952,19 +4952,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.827</v>
+        <v>0.848</v>
       </c>
       <c r="C83">
         <v>0.8</v>
       </c>
       <c r="D83">
-        <v>0.8</v>
+        <v>0.884</v>
       </c>
       <c r="E83">
         <v>0.8</v>
       </c>
       <c r="F83">
-        <v>0.487</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4972,19 +4972,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8</v>
+        <v>0.886</v>
       </c>
       <c r="C84">
-        <v>0.982</v>
+        <v>0.8</v>
       </c>
       <c r="D84">
-        <v>0.8</v>
+        <v>0.843</v>
       </c>
       <c r="E84">
         <v>0.8</v>
       </c>
       <c r="F84">
-        <v>0.496</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4992,19 +4992,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8</v>
+        <v>0.869</v>
       </c>
       <c r="C85">
-        <v>0.9429999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="D85">
-        <v>0.8</v>
+        <v>0.884</v>
       </c>
       <c r="E85">
-        <v>0.968</v>
+        <v>0.8</v>
       </c>
       <c r="F85">
-        <v>0.387</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5018,13 +5018,13 @@
         <v>0.8</v>
       </c>
       <c r="D86">
-        <v>0.8</v>
+        <v>0.865</v>
       </c>
       <c r="E86">
-        <v>0.994</v>
+        <v>0.8</v>
       </c>
       <c r="F86">
-        <v>0.387</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5032,19 +5032,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.831</v>
+        <v>0.8</v>
       </c>
       <c r="C87">
-        <v>0.734</v>
+        <v>0.8</v>
       </c>
       <c r="D87">
-        <v>0.8</v>
+        <v>0.868</v>
       </c>
       <c r="E87">
         <v>0.8</v>
       </c>
       <c r="F87">
-        <v>0.418</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5058,13 +5058,13 @@
         <v>0.8</v>
       </c>
       <c r="D88">
-        <v>0.8</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="E88">
-        <v>0.993</v>
+        <v>0.8</v>
       </c>
       <c r="F88">
-        <v>0.45</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5078,13 +5078,13 @@
         <v>0.8</v>
       </c>
       <c r="D89">
-        <v>0.8</v>
+        <v>0.982</v>
       </c>
       <c r="E89">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F89">
-        <v>0.481</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5098,13 +5098,13 @@
         <v>0.8</v>
       </c>
       <c r="D90">
-        <v>0.8</v>
+        <v>0.823</v>
       </c>
       <c r="E90">
         <v>0.8</v>
       </c>
       <c r="F90">
-        <v>0.485</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5118,13 +5118,13 @@
         <v>0.8</v>
       </c>
       <c r="D91">
-        <v>0.8</v>
+        <v>0.926</v>
       </c>
       <c r="E91">
         <v>0.8</v>
       </c>
       <c r="F91">
-        <v>0.479</v>
+        <v>0.373</v>
       </c>
     </row>
   </sheetData>
@@ -5522,19 +5522,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.405</v>
+        <v>0.581</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.477</v>
       </c>
       <c r="D20">
-        <v>0.321</v>
+        <v>0.399</v>
       </c>
       <c r="E20">
-        <v>0.365</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F20">
-        <v>0.276</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5542,19 +5542,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.866</v>
+        <v>0.423</v>
       </c>
       <c r="C21">
-        <v>0.342</v>
+        <v>0.545</v>
       </c>
       <c r="D21">
-        <v>0.577</v>
+        <v>0.257</v>
       </c>
       <c r="E21">
-        <v>0.334</v>
+        <v>0.535</v>
       </c>
       <c r="F21">
-        <v>0.202</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5562,19 +5562,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.548</v>
+        <v>0.495</v>
       </c>
       <c r="C22">
-        <v>0.453</v>
+        <v>0.961</v>
       </c>
       <c r="D22">
-        <v>0.722</v>
+        <v>0.399</v>
       </c>
       <c r="E22">
-        <v>0.983</v>
+        <v>0.8</v>
       </c>
       <c r="F22">
-        <v>0.178</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5582,19 +5582,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6850000000000001</v>
+        <v>0.346</v>
       </c>
       <c r="C23">
-        <v>0.034</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
-        <v>0.077</v>
+        <v>0.335</v>
       </c>
       <c r="E23">
-        <v>0.859</v>
+        <v>0.384</v>
       </c>
       <c r="F23">
-        <v>0.169</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5602,19 +5602,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.443</v>
+        <v>0.371</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D24">
-        <v>0.526</v>
+        <v>0.346</v>
       </c>
       <c r="E24">
-        <v>0.319</v>
+        <v>0.679</v>
       </c>
       <c r="F24">
-        <v>0.169</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5622,19 +5622,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9409999999999999</v>
+        <v>0.759</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>0.747</v>
       </c>
       <c r="D25">
-        <v>0.707</v>
+        <v>0.141</v>
       </c>
       <c r="E25">
-        <v>0.862</v>
+        <v>0.8</v>
       </c>
       <c r="F25">
-        <v>0.174</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5642,19 +5642,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.656</v>
+        <v>0.651</v>
       </c>
       <c r="C26">
         <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.342</v>
+        <v>0.736</v>
       </c>
       <c r="E26">
-        <v>0.9320000000000001</v>
+        <v>0.322</v>
       </c>
       <c r="F26">
-        <v>0.174</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5662,19 +5662,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.747</v>
+        <v>0.33</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.785</v>
       </c>
       <c r="D27">
-        <v>0.478</v>
+        <v>0.19</v>
       </c>
       <c r="E27">
-        <v>0.464</v>
+        <v>0.42</v>
       </c>
       <c r="F27">
-        <v>0.175</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5682,19 +5682,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.652</v>
+        <v>0.258</v>
       </c>
       <c r="C28">
-        <v>0.2</v>
+        <v>0.665</v>
       </c>
       <c r="D28">
-        <v>0.043</v>
+        <v>0.543</v>
       </c>
       <c r="E28">
-        <v>0.8</v>
+        <v>0.358</v>
       </c>
       <c r="F28">
-        <v>0.173</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5702,19 +5702,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.901</v>
+        <v>0.671</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.406</v>
       </c>
       <c r="E29">
         <v>0.8</v>
       </c>
       <c r="F29">
-        <v>0.155</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5722,19 +5722,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>0.471</v>
       </c>
       <c r="C30">
-        <v>0.171</v>
+        <v>0.8</v>
       </c>
       <c r="D30">
-        <v>0.8</v>
+        <v>0.388</v>
       </c>
       <c r="E30">
-        <v>0.8</v>
+        <v>0.963</v>
       </c>
       <c r="F30">
-        <v>0.083</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5742,19 +5742,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C31">
-        <v>0.161</v>
+        <v>0.8</v>
       </c>
       <c r="D31">
-        <v>0.8</v>
+        <v>0.407</v>
       </c>
       <c r="E31">
         <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.275</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5762,19 +5762,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8</v>
+        <v>0.371</v>
       </c>
       <c r="C32">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
+        <v>0.398</v>
       </c>
       <c r="E32">
-        <v>0.8</v>
+        <v>0.929</v>
       </c>
       <c r="F32">
-        <v>0.268</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5782,19 +5782,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9409999999999999</v>
+        <v>0.401</v>
       </c>
       <c r="C33">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D33">
-        <v>0.8</v>
+        <v>0.399</v>
       </c>
       <c r="E33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.208</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5802,19 +5802,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8</v>
+        <v>0.885</v>
       </c>
       <c r="C34">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D34">
-        <v>0.8</v>
+        <v>0.372</v>
       </c>
       <c r="E34">
         <v>0.8</v>
       </c>
       <c r="F34">
-        <v>0.2</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5822,19 +5822,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8</v>
+        <v>0.747</v>
       </c>
       <c r="C35">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D35">
-        <v>0.8</v>
+        <v>0.452</v>
       </c>
       <c r="E35">
-        <v>0.8</v>
+        <v>0.915</v>
       </c>
       <c r="F35">
-        <v>0.2</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5842,19 +5842,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8</v>
+        <v>0.344</v>
       </c>
       <c r="C36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D36">
-        <v>0.8</v>
+        <v>0.378</v>
       </c>
       <c r="E36">
-        <v>0.8</v>
+        <v>0.944</v>
       </c>
       <c r="F36">
-        <v>0.2</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5862,19 +5862,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8</v>
+        <v>0.252</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.8</v>
+        <v>0.426</v>
       </c>
       <c r="E37">
-        <v>0.8</v>
+        <v>0.924</v>
       </c>
       <c r="F37">
-        <v>0.2</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5882,19 +5882,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8</v>
+        <v>0.734</v>
       </c>
       <c r="C38">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D38">
-        <v>0.8</v>
+        <v>0.411</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F38">
-        <v>0.093</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5902,19 +5902,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8</v>
+        <v>0.771</v>
       </c>
       <c r="C39">
-        <v>0.111</v>
+        <v>0.8</v>
       </c>
       <c r="D39">
-        <v>0.8</v>
+        <v>0.517</v>
       </c>
       <c r="E39">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F39">
-        <v>0.053</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5922,19 +5922,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8</v>
+        <v>0.753</v>
       </c>
       <c r="C40">
-        <v>0.036</v>
+        <v>0.8</v>
       </c>
       <c r="D40">
-        <v>0.8</v>
+        <v>0.411</v>
       </c>
       <c r="E40">
         <v>0.8</v>
       </c>
       <c r="F40">
-        <v>0.314</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5942,19 +5942,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8</v>
+        <v>0.787</v>
       </c>
       <c r="C41">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="D41">
-        <v>0.8</v>
+        <v>0.459</v>
       </c>
       <c r="E41">
         <v>0.8</v>
       </c>
       <c r="F41">
-        <v>0.312</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5962,19 +5962,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8</v>
+        <v>0.781</v>
       </c>
       <c r="C42">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="D42">
-        <v>0.8</v>
+        <v>0.451</v>
       </c>
       <c r="E42">
-        <v>0.8</v>
+        <v>0.841</v>
       </c>
       <c r="F42">
-        <v>0.235</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5982,19 +5982,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="C43">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D43">
-        <v>0.8</v>
+        <v>0.605</v>
       </c>
       <c r="E43">
         <v>0.8</v>
       </c>
       <c r="F43">
-        <v>0.003</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6002,19 +6002,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8</v>
+        <v>0.713</v>
       </c>
       <c r="C44">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D44">
-        <v>0.8</v>
+        <v>0.157</v>
       </c>
       <c r="E44">
         <v>0.8</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6022,19 +6022,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="C45">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D45">
-        <v>0.8</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E45">
         <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.2</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6042,19 +6042,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="C46">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D46">
-        <v>0.8</v>
+        <v>0.302</v>
       </c>
       <c r="E46">
         <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.2</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6062,19 +6062,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.8</v>
+        <v>0.827</v>
       </c>
       <c r="C47">
-        <v>0.289</v>
+        <v>0.8</v>
       </c>
       <c r="D47">
-        <v>0.8</v>
+        <v>0.635</v>
       </c>
       <c r="E47">
         <v>0.8</v>
       </c>
       <c r="F47">
-        <v>0.143</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6082,19 +6082,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8</v>
+        <v>0.981</v>
       </c>
       <c r="C48">
-        <v>0.497</v>
+        <v>0.8</v>
       </c>
       <c r="D48">
-        <v>0.8</v>
+        <v>0.607</v>
       </c>
       <c r="E48">
-        <v>0.8</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F48">
-        <v>0.143</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6102,19 +6102,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8</v>
+        <v>0.913</v>
       </c>
       <c r="C49">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="D49">
-        <v>0.992</v>
+        <v>0.635</v>
       </c>
       <c r="E49">
-        <v>0.9409999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F49">
-        <v>0.34</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6125,16 +6125,16 @@
         <v>0.8</v>
       </c>
       <c r="C50">
-        <v>0.411</v>
+        <v>0.8</v>
       </c>
       <c r="D50">
-        <v>0.8</v>
+        <v>0.622</v>
       </c>
       <c r="E50">
-        <v>0.988</v>
+        <v>0.8</v>
       </c>
       <c r="F50">
-        <v>0.343</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6145,16 +6145,16 @@
         <v>0.8</v>
       </c>
       <c r="C51">
-        <v>0.511</v>
+        <v>0.8</v>
       </c>
       <c r="D51">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
       <c r="E51">
-        <v>0.8</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F51">
-        <v>0.287</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6162,19 +6162,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8</v>
+        <v>0.661</v>
       </c>
       <c r="C52">
-        <v>0.145</v>
+        <v>0.8</v>
       </c>
       <c r="D52">
-        <v>0.998</v>
+        <v>0.585</v>
       </c>
       <c r="E52">
-        <v>0.987</v>
+        <v>0.8</v>
       </c>
       <c r="F52">
-        <v>0.2</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6182,19 +6182,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.8</v>
+        <v>0.766</v>
       </c>
       <c r="C53">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D53">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E53">
-        <v>0.963</v>
+        <v>0.8</v>
       </c>
       <c r="F53">
-        <v>0.095</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6205,16 +6205,16 @@
         <v>0.8</v>
       </c>
       <c r="C54">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D54">
-        <v>0.8</v>
+        <v>0.595</v>
       </c>
       <c r="E54">
         <v>0.8</v>
       </c>
       <c r="F54">
-        <v>0.081</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6225,16 +6225,16 @@
         <v>0.8</v>
       </c>
       <c r="C55">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D55">
-        <v>0.8</v>
+        <v>0.663</v>
       </c>
       <c r="E55">
         <v>0.8</v>
       </c>
       <c r="F55">
-        <v>0.101</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6242,19 +6242,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.996</v>
+        <v>0.8</v>
       </c>
       <c r="C56">
-        <v>0.844</v>
+        <v>0.8</v>
       </c>
       <c r="D56">
-        <v>0.8</v>
+        <v>0.733</v>
       </c>
       <c r="E56">
         <v>0.8</v>
       </c>
       <c r="F56">
-        <v>0.262</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6265,16 +6265,16 @@
         <v>0.8</v>
       </c>
       <c r="C57">
-        <v>0.835</v>
+        <v>0.8</v>
       </c>
       <c r="D57">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="E57">
-        <v>0.8</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F57">
-        <v>0.29</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6285,16 +6285,16 @@
         <v>0.8</v>
       </c>
       <c r="C58">
-        <v>0.876</v>
+        <v>0.997</v>
       </c>
       <c r="D58">
-        <v>0.8</v>
+        <v>0.733</v>
       </c>
       <c r="E58">
         <v>0.8</v>
       </c>
       <c r="F58">
-        <v>0.358</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6305,16 +6305,16 @@
         <v>0.8</v>
       </c>
       <c r="C59">
-        <v>0.718</v>
+        <v>0.8</v>
       </c>
       <c r="D59">
-        <v>0.8</v>
+        <v>0.705</v>
       </c>
       <c r="E59">
         <v>0.8</v>
       </c>
       <c r="F59">
-        <v>0.363</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6322,19 +6322,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.971</v>
+        <v>0.8</v>
       </c>
       <c r="C60">
-        <v>0.901</v>
+        <v>0.8</v>
       </c>
       <c r="D60">
-        <v>0.8</v>
+        <v>0.709</v>
       </c>
       <c r="E60">
         <v>0.8</v>
       </c>
       <c r="F60">
-        <v>0.346</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6345,16 +6345,16 @@
         <v>0.8</v>
       </c>
       <c r="C61">
-        <v>0.894</v>
+        <v>0.8</v>
       </c>
       <c r="D61">
-        <v>0.8</v>
+        <v>0.617</v>
       </c>
       <c r="E61">
         <v>0.8</v>
       </c>
       <c r="F61">
-        <v>0.256</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6365,16 +6365,16 @@
         <v>0.8</v>
       </c>
       <c r="C62">
-        <v>0.9409999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D62">
-        <v>0.8</v>
+        <v>0.886</v>
       </c>
       <c r="E62">
         <v>0.8</v>
       </c>
       <c r="F62">
-        <v>0.126</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6385,16 +6385,16 @@
         <v>0.8</v>
       </c>
       <c r="C63">
-        <v>0.673</v>
+        <v>0.8</v>
       </c>
       <c r="D63">
-        <v>0.8</v>
+        <v>0.639</v>
       </c>
       <c r="E63">
         <v>0.8</v>
       </c>
       <c r="F63">
-        <v>0.108</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6405,16 +6405,16 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="D64">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="E64">
         <v>0.8</v>
       </c>
       <c r="F64">
-        <v>0.134</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6422,19 +6422,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.8</v>
+        <v>0.989</v>
       </c>
       <c r="C65">
         <v>0.8</v>
       </c>
       <c r="D65">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="E65">
         <v>0.8</v>
       </c>
       <c r="F65">
-        <v>0.381</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6442,19 +6442,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.8</v>
+        <v>0.903</v>
       </c>
       <c r="C66">
         <v>0.8</v>
       </c>
       <c r="D66">
-        <v>0.8</v>
+        <v>0.845</v>
       </c>
       <c r="E66">
-        <v>0.8</v>
+        <v>0.672</v>
       </c>
       <c r="F66">
-        <v>0.417</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6462,19 +6462,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.8</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C67">
         <v>0.8</v>
       </c>
       <c r="D67">
-        <v>0.894</v>
+        <v>0.802</v>
       </c>
       <c r="E67">
-        <v>0.869</v>
+        <v>0.8</v>
       </c>
       <c r="F67">
-        <v>0.365</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6488,13 +6488,13 @@
         <v>0.8</v>
       </c>
       <c r="D68">
-        <v>0.8</v>
+        <v>0.821</v>
       </c>
       <c r="E68">
-        <v>0.829</v>
+        <v>0.8</v>
       </c>
       <c r="F68">
-        <v>0.37</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6508,13 +6508,13 @@
         <v>0.8</v>
       </c>
       <c r="D69">
-        <v>0.8</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E69">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F69">
-        <v>0.387</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6528,13 +6528,13 @@
         <v>0.8</v>
       </c>
       <c r="D70">
-        <v>0.888</v>
+        <v>0.881</v>
       </c>
       <c r="E70">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F70">
-        <v>0.334</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6548,13 +6548,13 @@
         <v>0.8</v>
       </c>
       <c r="D71">
-        <v>0.8</v>
+        <v>0.698</v>
       </c>
       <c r="E71">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F71">
-        <v>0.242</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6568,13 +6568,13 @@
         <v>0.8</v>
       </c>
       <c r="D72">
-        <v>0.8</v>
+        <v>0.866</v>
       </c>
       <c r="E72">
         <v>0.8</v>
       </c>
       <c r="F72">
-        <v>0.229</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6588,13 +6588,13 @@
         <v>0.8</v>
       </c>
       <c r="D73">
-        <v>0.8</v>
+        <v>0.757</v>
       </c>
       <c r="E73">
         <v>0.8</v>
       </c>
       <c r="F73">
-        <v>0.248</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6602,19 +6602,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.873</v>
+        <v>0.8</v>
       </c>
       <c r="C74">
         <v>0.8</v>
       </c>
       <c r="D74">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E74">
-        <v>0.8</v>
+        <v>0.993</v>
       </c>
       <c r="F74">
-        <v>0.457</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6628,13 +6628,13 @@
         <v>0.8</v>
       </c>
       <c r="D75">
-        <v>0.8</v>
+        <v>0.878</v>
       </c>
       <c r="E75">
-        <v>0.8</v>
+        <v>0.734</v>
       </c>
       <c r="F75">
-        <v>0.484</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6645,16 +6645,16 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>0.8</v>
+        <v>0.897</v>
       </c>
       <c r="D76">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="E76">
-        <v>0.917</v>
+        <v>0.8</v>
       </c>
       <c r="F76">
-        <v>0.37</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6668,13 +6668,13 @@
         <v>0.8</v>
       </c>
       <c r="D77">
-        <v>0.8</v>
+        <v>0.863</v>
       </c>
       <c r="E77">
-        <v>0.926</v>
+        <v>0.8</v>
       </c>
       <c r="F77">
-        <v>0.373</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6682,19 +6682,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.884</v>
+        <v>0.8</v>
       </c>
       <c r="C78">
-        <v>0.991</v>
+        <v>0.8</v>
       </c>
       <c r="D78">
-        <v>0.8</v>
+        <v>0.861</v>
       </c>
       <c r="E78">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="F78">
-        <v>0.406</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6708,13 +6708,13 @@
         <v>0.8</v>
       </c>
       <c r="D79">
-        <v>0.962</v>
+        <v>0.901</v>
       </c>
       <c r="E79">
-        <v>0.926</v>
+        <v>0.8</v>
       </c>
       <c r="F79">
-        <v>0.402</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6728,13 +6728,13 @@
         <v>0.8</v>
       </c>
       <c r="D80">
-        <v>0.8</v>
+        <v>0.783</v>
       </c>
       <c r="E80">
-        <v>0.921</v>
+        <v>0.8</v>
       </c>
       <c r="F80">
-        <v>0.376</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6748,13 +6748,13 @@
         <v>0.8</v>
       </c>
       <c r="D81">
-        <v>0.8</v>
+        <v>0.892</v>
       </c>
       <c r="E81">
         <v>0.8</v>
       </c>
       <c r="F81">
-        <v>0.372</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6768,13 +6768,13 @@
         <v>0.8</v>
       </c>
       <c r="D82">
-        <v>0.8</v>
+        <v>0.821</v>
       </c>
       <c r="E82">
         <v>0.8</v>
       </c>
       <c r="F82">
-        <v>0.378</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6782,19 +6782,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.827</v>
+        <v>0.848</v>
       </c>
       <c r="C83">
         <v>0.8</v>
       </c>
       <c r="D83">
-        <v>0.8</v>
+        <v>0.884</v>
       </c>
       <c r="E83">
         <v>0.8</v>
       </c>
       <c r="F83">
-        <v>0.487</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6802,19 +6802,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8</v>
+        <v>0.886</v>
       </c>
       <c r="C84">
-        <v>0.982</v>
+        <v>0.8</v>
       </c>
       <c r="D84">
-        <v>0.8</v>
+        <v>0.843</v>
       </c>
       <c r="E84">
         <v>0.8</v>
       </c>
       <c r="F84">
-        <v>0.496</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6822,19 +6822,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8</v>
+        <v>0.869</v>
       </c>
       <c r="C85">
-        <v>0.9429999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="D85">
-        <v>0.8</v>
+        <v>0.884</v>
       </c>
       <c r="E85">
-        <v>0.968</v>
+        <v>0.8</v>
       </c>
       <c r="F85">
-        <v>0.387</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6848,13 +6848,13 @@
         <v>0.8</v>
       </c>
       <c r="D86">
-        <v>0.8</v>
+        <v>0.865</v>
       </c>
       <c r="E86">
-        <v>0.994</v>
+        <v>0.8</v>
       </c>
       <c r="F86">
-        <v>0.387</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6862,19 +6862,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.831</v>
+        <v>0.8</v>
       </c>
       <c r="C87">
-        <v>0.734</v>
+        <v>0.8</v>
       </c>
       <c r="D87">
-        <v>0.8</v>
+        <v>0.868</v>
       </c>
       <c r="E87">
         <v>0.8</v>
       </c>
       <c r="F87">
-        <v>0.418</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6888,13 +6888,13 @@
         <v>0.8</v>
       </c>
       <c r="D88">
-        <v>0.8</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="E88">
-        <v>0.993</v>
+        <v>0.8</v>
       </c>
       <c r="F88">
-        <v>0.45</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6908,13 +6908,13 @@
         <v>0.8</v>
       </c>
       <c r="D89">
-        <v>0.8</v>
+        <v>0.982</v>
       </c>
       <c r="E89">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F89">
-        <v>0.481</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6928,13 +6928,13 @@
         <v>0.8</v>
       </c>
       <c r="D90">
-        <v>0.8</v>
+        <v>0.823</v>
       </c>
       <c r="E90">
         <v>0.8</v>
       </c>
       <c r="F90">
-        <v>0.485</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6948,13 +6948,13 @@
         <v>0.8</v>
       </c>
       <c r="D91">
-        <v>0.8</v>
+        <v>0.926</v>
       </c>
       <c r="E91">
         <v>0.8</v>
       </c>
       <c r="F91">
-        <v>0.479</v>
+        <v>0.373</v>
       </c>
     </row>
   </sheetData>
@@ -7052,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.506</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7060,7 +7060,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.316</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7068,7 +7068,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.213</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7076,7 +7076,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.322</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7084,7 +7084,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.419</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7092,7 +7092,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.31</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7100,7 +7100,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.458</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7108,7 +7108,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.504</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7116,7 +7116,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.484</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7124,7 +7124,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.313</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7132,7 +7132,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.464</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7140,7 +7140,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.577</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7148,7 +7148,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.365</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7156,7 +7156,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.331</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7164,7 +7164,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.577</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7172,7 +7172,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.461</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7180,7 +7180,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.413</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7188,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.374</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7196,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.571</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7204,7 +7204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.531</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7212,7 +7212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5669999999999999</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7220,7 +7220,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.572</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7228,7 +7228,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.59</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7236,7 +7236,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5600000000000001</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7244,7 +7244,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5600000000000001</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7252,7 +7252,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5600000000000001</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7260,7 +7260,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5600000000000001</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7268,7 +7268,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.539</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7276,7 +7276,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.513</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7284,7 +7284,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.55</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7292,7 +7292,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.606</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7300,7 +7300,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.529</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7308,7 +7308,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.521</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7316,7 +7316,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5600000000000001</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7324,7 +7324,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5600000000000001</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7332,7 +7332,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5600000000000001</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7340,7 +7340,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5659999999999999</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7348,7 +7348,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.608</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7356,7 +7356,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.721</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7364,7 +7364,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.668</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7372,7 +7372,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.64</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7380,7 +7380,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.626</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7388,7 +7388,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.533</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7396,7 +7396,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.536</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7404,7 +7404,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.54</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7412,7 +7412,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.74</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7420,7 +7420,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.705</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7428,7 +7428,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.727</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7436,7 +7436,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.696</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7444,7 +7444,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.764</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7452,7 +7452,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.71</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -7460,7 +7460,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6929999999999999</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7468,7 +7468,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.636</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7476,7 +7476,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.643</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7484,7 +7484,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.716</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7492,7 +7492,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.723</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7500,7 +7500,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.746</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7508,7 +7508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.72</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7516,7 +7516,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.717</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7524,7 +7524,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.73</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7532,7 +7532,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.698</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7540,7 +7540,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6860000000000001</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7548,7 +7548,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6899999999999999</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7556,7 +7556,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.746</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7564,7 +7564,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.737</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7580,7 +7580,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7588,7 +7588,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.776</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7596,7 +7596,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.778</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -7604,7 +7604,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.739</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -7612,7 +7612,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.714</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7628,7 +7628,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.743</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7636,7 +7636,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.776</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7644,7 +7644,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.78</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7652,7 +7652,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.756</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7660,7 +7660,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.717</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7668,7 +7668,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.769</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7676,7 +7676,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.772</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7684,7 +7684,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.737</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7692,7 +7692,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.736</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
